--- a/my6D/ReadLayout/rectangles.xlsx
+++ b/my6D/ReadLayout/rectangles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\32_Python\myPyTools\my6D\ReadLayout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E63ADD28-5CB0-419D-B311-9721E6D4252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D72F0C9-B2E0-48D9-A605-48AB81075545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCC243-ACCA-44A9-A2FE-667A1A52F0CD}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="rectangles" sheetId="1" r:id="rId1"/>
     <sheet name="CS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>index</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -130,16 +143,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ST1ConenectArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ConenectArea</t>
-  </si>
-  <si>
-    <t>ST3ConenectArea</t>
-  </si>
-  <si>
     <t>ST1BufferPos1Area</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -218,9 +221,6 @@
     <t>ST3ProcessPos2Area</t>
   </si>
   <si>
-    <t>ST4ConenectArea</t>
-  </si>
-  <si>
     <t>ST4BufferPos1Area</t>
   </si>
   <si>
@@ -239,9 +239,6 @@
     <t>ST4ProcessPos3Area</t>
   </si>
   <si>
-    <t>ST5ConenectArea</t>
-  </si>
-  <si>
     <t>ST5BufferPos1Area</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>ST5ProcessPos3Area</t>
   </si>
   <si>
-    <t>ST6ConenectArea</t>
-  </si>
-  <si>
     <t>ST6BufferPos1Area</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>ST6ProcessPos3Area</t>
   </si>
   <si>
-    <t>ST7ConenectArea</t>
-  </si>
-  <si>
     <t>ST7BufferPos1Area</t>
   </si>
   <si>
@@ -302,9 +293,6 @@
     <t>ST7ProcessPos3Area</t>
   </si>
   <si>
-    <t>ST8ConenectArea</t>
-  </si>
-  <si>
     <t>ST8BufferPos1Area</t>
   </si>
   <si>
@@ -457,6 +445,78 @@
   </si>
   <si>
     <t>top_right_y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos1Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos3Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST1ConnectArea</t>
+  </si>
+  <si>
+    <t>ST2ConnectArea</t>
+  </si>
+  <si>
+    <t>ST3ConnectArea</t>
+  </si>
+  <si>
+    <t>ST4ConnectArea</t>
+  </si>
+  <si>
+    <t>ST5ConnectArea</t>
+  </si>
+  <si>
+    <t>ST6ConnectArea</t>
+  </si>
+  <si>
+    <t>ST7ConnectArea</t>
+  </si>
+  <si>
+    <t>ST8ConnectArea</t>
+  </si>
+  <si>
+    <t>LoadShuttleArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,9 +1227,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,13 +1239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1566,2382 +1617,2433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FED1504-B951-4F1D-A034-DA0B86FDB2F6}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="19.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="7" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="23.25" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="7" width="19.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="28.75" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.25" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
       <c r="F2" s="9"/>
-      <c r="G2" s="9">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <v>0.32</v>
       </c>
-      <c r="I2" s="9">
-        <f>G2 + CS!B5</f>
+      <c r="J2" s="9">
+        <f>H2 + CS!B5</f>
         <v>4.26</v>
       </c>
-      <c r="J2" s="10">
-        <f>H2 + CS!B6</f>
+      <c r="K2" s="10">
+        <f>I2 + CS!B6</f>
         <v>0.496</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="J3" s="7">
+        <v>4.08</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="16"/>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5.63</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="J5" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="16"/>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="16"/>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="16"/>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="16"/>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
+      <c r="B12" s="9">
+        <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9">
+      <c r="E12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
         <v>5.5839999999999996</v>
       </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
       <c r="I12" s="9">
-        <f>G12 + CS!B5</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <f>H12 + CS!B5</f>
         <v>5.7439999999999998</v>
       </c>
-      <c r="J12" s="10">
-        <f>H12 + CS!B6</f>
+      <c r="K12" s="10">
+        <f>I12 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="16">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="12">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12">
-        <f>CS!B2 + CS!B3 * (D12 - 1) * CS!B4</f>
+      <c r="H13" s="7">
+        <f>CS!B2 + CS!B3 * (E12 - 1) * CS!B4</f>
         <v>5.3440000000000003</v>
       </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <f>G13+CS!B5</f>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>H13+CS!B5</f>
         <v>5.5040000000000004</v>
       </c>
-      <c r="J13" s="13">
-        <f>H13+CS!B6</f>
+      <c r="K13" s="12">
+        <f>I13+CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="16">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="12">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12">
-        <f>G13 - CS!B5</f>
+      <c r="H14" s="7">
+        <f>H13 - CS!B5</f>
         <v>5.1840000000000002</v>
       </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <f>G14+CS!B5</f>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>H14+CS!B5</f>
         <v>5.3440000000000003</v>
       </c>
-      <c r="J14" s="13">
-        <f>H14+CS!B6</f>
+      <c r="K14" s="12">
+        <f>I14+CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="16">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="12">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12">
-        <f>G14 - CS!B5</f>
+      <c r="H15" s="7">
+        <f>H14 - CS!B5</f>
         <v>5.024</v>
       </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <f>G15+CS!B5</f>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>H15+CS!B5</f>
         <v>5.1840000000000002</v>
       </c>
-      <c r="J15" s="13">
-        <f>H15+CS!B6</f>
+      <c r="K15" s="12">
+        <f>I15+CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="16">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="12">
+      <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12">
-        <f>G13</f>
+      <c r="H16" s="7">
+        <f>H13</f>
         <v>5.3440000000000003</v>
       </c>
-      <c r="H16" s="12">
+      <c r="I16" s="7">
         <v>0.16</v>
       </c>
-      <c r="I16" s="12">
-        <f>G16+CS!B5</f>
+      <c r="J16" s="7">
+        <f>H16+CS!B5</f>
         <v>5.5040000000000004</v>
       </c>
-      <c r="J16" s="13">
-        <f>H16+CS!B6</f>
+      <c r="K16" s="12">
+        <f>I16+CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="16">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="12">
+      <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12">
-        <f>G14</f>
+      <c r="H17" s="7">
+        <f>H14</f>
         <v>5.1840000000000002</v>
       </c>
-      <c r="H17" s="12">
+      <c r="I17" s="7">
         <v>0.16</v>
       </c>
-      <c r="I17" s="12">
-        <f>G17+CS!B5</f>
+      <c r="J17" s="7">
+        <f>H17+CS!B5</f>
         <v>5.3440000000000003</v>
       </c>
-      <c r="J17" s="13">
-        <f>H17+CS!B6</f>
+      <c r="K17" s="12">
+        <f>I17+CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="16">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="12">
+      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12">
-        <f>G15</f>
+      <c r="H18" s="7">
+        <f>H15</f>
         <v>5.024</v>
       </c>
-      <c r="H18" s="12">
+      <c r="I18" s="7">
         <v>0.16</v>
       </c>
-      <c r="I18" s="12">
-        <f>G18+CS!B5</f>
+      <c r="J18" s="7">
+        <f>H18+CS!B5</f>
         <v>5.1840000000000002</v>
       </c>
-      <c r="J18" s="13">
-        <f>H18+CS!B6</f>
+      <c r="K18" s="12">
+        <f>I18+CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="16">
+        <v>59</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="12">
+      <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12">
-        <f>G13</f>
+      <c r="H19" s="7">
+        <f>H13</f>
         <v>5.3440000000000003</v>
       </c>
-      <c r="H19" s="12">
+      <c r="I19" s="7">
         <v>0.32</v>
       </c>
-      <c r="I19" s="12">
-        <f>G19+CS!B5</f>
+      <c r="J19" s="7">
+        <f>H19+CS!B5</f>
         <v>5.5040000000000004</v>
       </c>
-      <c r="J19" s="13">
-        <f>H19+CS!B6</f>
+      <c r="K19" s="12">
+        <f>I19+CS!B6</f>
         <v>0.496</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="16">
+        <v>60</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="12">
+      <c r="E20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12">
-        <f>G14</f>
+      <c r="H20" s="7">
+        <f>H14</f>
         <v>5.1840000000000002</v>
       </c>
-      <c r="H20" s="12">
+      <c r="I20" s="7">
         <v>0.32</v>
       </c>
-      <c r="I20" s="12">
-        <f>G20+CS!B5</f>
+      <c r="J20" s="7">
+        <f>H20+CS!B5</f>
         <v>5.3440000000000003</v>
       </c>
-      <c r="J20" s="13">
-        <f>H20+CS!B6</f>
+      <c r="K20" s="12">
+        <f>I20+CS!B6</f>
         <v>0.496</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="16">
+        <v>61</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="12">
+      <c r="E21" s="7">
         <v>1</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12">
-        <f>G15</f>
+      <c r="H21" s="7">
+        <f>H15</f>
         <v>5.024</v>
       </c>
-      <c r="H21" s="12">
+      <c r="I21" s="7">
         <v>0.32</v>
       </c>
-      <c r="I21" s="12">
-        <f>G21+CS!B5</f>
+      <c r="J21" s="7">
+        <f>H21+CS!B5</f>
         <v>5.1840000000000002</v>
       </c>
-      <c r="J21" s="13">
-        <f>H21+CS!B6</f>
+      <c r="K21" s="12">
+        <f>I21+CS!B6</f>
         <v>0.496</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>30</v>
+      <c r="B22" s="9">
+        <v>46</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="9">
+      <c r="E22" s="9">
         <v>2</v>
       </c>
-      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9">
         <v>4.8639999999999999</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
       <c r="I22" s="9">
-        <f>G22 + CS!B5</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <f>H22 + CS!B5</f>
         <v>5.024</v>
       </c>
-      <c r="J22" s="10">
-        <f>H22 + CS!B6</f>
+      <c r="K22" s="10">
+        <f>I22 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="16">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="12">
+      <c r="E23" s="7">
         <v>2</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12">
-        <f>CS!B2 + CS!B3 * (D22 - 1) * CS!B4</f>
+      <c r="H23" s="7">
+        <f>CS!B2 + CS!B3 * (E22 - 1) * CS!B4</f>
         <v>4.6240000000000006</v>
       </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <f>G23 + CS!B5</f>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <f>H23 + CS!B5</f>
         <v>4.7840000000000007</v>
       </c>
-      <c r="J23" s="13">
-        <f>H23 + CS!B6</f>
+      <c r="K23" s="12">
+        <f>I23 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="16">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="12">
+      <c r="E24" s="7">
         <v>2</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12">
-        <f>G23 - CS!B5</f>
+      <c r="H24" s="7">
+        <f>H23 - CS!B5</f>
         <v>4.4640000000000004</v>
       </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <f>G24 + CS!B5</f>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <f>H24 + CS!B5</f>
         <v>4.6240000000000006</v>
       </c>
-      <c r="J24" s="13">
-        <f>H24 + CS!B6</f>
+      <c r="K24" s="12">
+        <f>I24 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="16">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="12">
+      <c r="E25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12">
-        <f>G24 - CS!B5</f>
+      <c r="H25" s="7">
+        <f>H24 - CS!B5</f>
         <v>4.3040000000000003</v>
       </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
-        <f>G25 + CS!B5</f>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <f>H25 + CS!B5</f>
         <v>4.4640000000000004</v>
       </c>
-      <c r="J25" s="13">
-        <f>H25 + CS!B6</f>
+      <c r="K25" s="12">
+        <f>I25 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="16">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="12">
+      <c r="E26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12">
-        <f>G23</f>
+      <c r="H26" s="7">
+        <f>H23</f>
         <v>4.6240000000000006</v>
       </c>
-      <c r="H26" s="12">
+      <c r="I26" s="7">
         <v>0.16</v>
       </c>
-      <c r="I26" s="12">
-        <f>G26 + CS!B5</f>
+      <c r="J26" s="7">
+        <f>H26 + CS!B5</f>
         <v>4.7840000000000007</v>
       </c>
-      <c r="J26" s="13">
-        <f>H26 + CS!B6</f>
+      <c r="K26" s="12">
+        <f>I26 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="16">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="12">
+      <c r="E27" s="7">
         <v>2</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12">
-        <f t="shared" ref="G27:G28" si="0">G24</f>
+      <c r="H27" s="7">
+        <f t="shared" ref="H27:H31" si="0">H24</f>
         <v>4.4640000000000004</v>
       </c>
-      <c r="H27" s="12">
+      <c r="I27" s="7">
         <v>0.16</v>
       </c>
-      <c r="I27" s="12">
-        <f>G27 + CS!B5</f>
+      <c r="J27" s="7">
+        <f>H27 + CS!B5</f>
         <v>4.6240000000000006</v>
       </c>
-      <c r="J27" s="13">
-        <f>H27 + CS!B6</f>
+      <c r="K27" s="12">
+        <f>I27 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="16">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="12">
+      <c r="E28" s="7">
         <v>2</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12">
+      <c r="H28" s="7">
         <f t="shared" si="0"/>
         <v>4.3040000000000003</v>
       </c>
-      <c r="H28" s="12">
+      <c r="I28" s="7">
         <v>0.16</v>
       </c>
-      <c r="I28" s="12">
-        <f>G28 + CS!B5</f>
+      <c r="J28" s="7">
+        <f>H28 + CS!B5</f>
         <v>4.4640000000000004</v>
       </c>
-      <c r="J28" s="13">
-        <f>H28 + CS!B6</f>
+      <c r="K28" s="12">
+        <f>I28 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12">
+      <c r="B29" s="16">
+        <v>62</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="7">
         <v>2</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6240000000000006</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="J29" s="7">
+        <f>H29 + CS!B5</f>
+        <v>4.7840000000000007</v>
+      </c>
+      <c r="K29" s="12">
+        <f>I29 + CS!B6</f>
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12">
+      <c r="B30" s="16">
+        <v>63</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="7">
         <v>2</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4640000000000004</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="J30" s="7">
+        <f>H30 + CS!B5</f>
+        <v>4.6240000000000006</v>
+      </c>
+      <c r="K30" s="12">
+        <f>I30 + CS!B6</f>
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>29</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15">
+      <c r="B31" s="16">
+        <v>64</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="14">
         <v>2</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3040000000000003</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="J31" s="7">
+        <f>H31 + CS!B5</f>
+        <v>4.4640000000000004</v>
+      </c>
+      <c r="K31" s="12">
+        <f>I31 + CS!B6</f>
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>31</v>
+      <c r="B32" s="9">
+        <v>47</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="9">
+      <c r="E32" s="9">
         <v>3</v>
       </c>
-      <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="9">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
         <v>4.1440000000000001</v>
       </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
       <c r="I32" s="9">
-        <f>G32 + CS!B5</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <f>H32 + CS!B5</f>
         <v>4.3040000000000003</v>
       </c>
-      <c r="J32" s="10">
-        <f>H32 + CS!B6</f>
+      <c r="K32" s="10">
+        <f>I32 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="16">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="12">
+      <c r="E33" s="7">
         <v>3</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12">
-        <f>CS!B2 + CS!B3 * (D33 - 1) * CS!B4</f>
+      <c r="H33" s="7">
+        <f>CS!B2 + CS!B3 * (E33 - 1) * CS!B4</f>
         <v>3.9040000000000004</v>
       </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
-        <f>G33 + CS!B5</f>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <f>H33 + CS!B5</f>
         <v>4.0640000000000001</v>
       </c>
-      <c r="J33" s="13">
-        <f>H33 + CS!B6</f>
+      <c r="K33" s="12">
+        <f>I33 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="16">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="12">
+      <c r="E34" s="7">
         <v>3</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12">
-        <f>G33-CS!B5</f>
+      <c r="H34" s="7">
+        <f>H33-CS!B5</f>
         <v>3.7440000000000002</v>
       </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <f>G34 + CS!B5</f>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <f>H34 + CS!B5</f>
         <v>3.9040000000000004</v>
       </c>
-      <c r="J34" s="13">
-        <f>H34 + CS!B6</f>
+      <c r="K34" s="12">
+        <f>I34 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="16">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="12">
+      <c r="E35" s="7">
         <v>3</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12">
-        <f>G34 - CS!B5</f>
+      <c r="H35" s="7">
+        <f>H34 - CS!B5</f>
         <v>3.5840000000000001</v>
       </c>
-      <c r="H35" s="12">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12">
-        <f>G35 + CS!B5</f>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <f>H35 + CS!B5</f>
         <v>3.7440000000000002</v>
       </c>
-      <c r="J35" s="13">
-        <f>H35 + CS!B6</f>
+      <c r="K35" s="12">
+        <f>I35 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="16">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="12">
+      <c r="E36" s="7">
         <v>3</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12">
-        <f>G33</f>
+      <c r="H36" s="7">
+        <f>H33</f>
         <v>3.9040000000000004</v>
       </c>
-      <c r="H36" s="12">
+      <c r="I36" s="7">
         <v>0.16</v>
       </c>
-      <c r="I36" s="12">
-        <f>G36 + CS!B5</f>
+      <c r="J36" s="7">
+        <f>H36 + CS!B5</f>
         <v>4.0640000000000001</v>
       </c>
-      <c r="J36" s="13">
-        <f>H36 + CS!B6</f>
+      <c r="K36" s="12">
+        <f>I36 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="16">
+        <v>31</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="12">
+      <c r="E37" s="7">
         <v>3</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12">
-        <f t="shared" ref="G37:G38" si="1">G34</f>
+      <c r="H37" s="7">
+        <f t="shared" ref="H37:H38" si="1">H34</f>
         <v>3.7440000000000002</v>
       </c>
-      <c r="H37" s="12">
+      <c r="I37" s="7">
         <v>0.16</v>
       </c>
-      <c r="I37" s="12">
-        <f>G37 + CS!B5</f>
+      <c r="J37" s="7">
+        <f>H37 + CS!B5</f>
         <v>3.9040000000000004</v>
       </c>
-      <c r="J37" s="13">
-        <f>H37 + CS!B6</f>
+      <c r="K37" s="12">
+        <f>I37 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="16">
+        <v>32</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="12">
+      <c r="E38" s="7">
         <v>3</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12">
+      <c r="H38" s="7">
         <f t="shared" si="1"/>
         <v>3.5840000000000001</v>
       </c>
-      <c r="H38" s="12">
+      <c r="I38" s="7">
         <v>0.16</v>
       </c>
-      <c r="I38" s="12">
-        <f>G38 + CS!B5</f>
+      <c r="J38" s="7">
+        <f>H38 + CS!B5</f>
         <v>3.7440000000000002</v>
       </c>
-      <c r="J38" s="13">
-        <f>H38 + CS!B6</f>
+      <c r="K38" s="12">
+        <f>I38 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12">
+      <c r="B39" s="16"/>
+      <c r="E39" s="7">
         <v>3</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>38</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12">
+      <c r="B40" s="16"/>
+      <c r="E40" s="7">
         <v>3</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <v>39</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14">
         <v>3</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>56</v>
+      <c r="B42" s="9">
+        <v>48</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="9">
+        <v>138</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="9">
         <v>4</v>
       </c>
-      <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="9">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9">
         <v>3.4239999999999999</v>
       </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="12">
-        <f>G42 + CS!B5</f>
+      <c r="I42" s="9">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <f>H42 + CS!B5</f>
         <v>3.5840000000000001</v>
       </c>
-      <c r="J42" s="13">
-        <f>H42 + CS!B6</f>
+      <c r="K42" s="12">
+        <f>I42 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>41</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="17">
+      <c r="B43" s="7">
+        <v>12</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="7">
         <v>4</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="12">
-        <f>CS!B2 + CS!B3 * (D43 - 1) * CS!B4</f>
+      <c r="H43" s="7">
+        <f>CS!B2 + CS!B3 * (E43 - 1) * CS!B4</f>
         <v>3.1840000000000002</v>
       </c>
-      <c r="H43" s="12">
-        <v>0</v>
-      </c>
-      <c r="I43" s="12">
-        <f>G43 + CS!B5</f>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <f>H43 + CS!B5</f>
         <v>3.3440000000000003</v>
       </c>
-      <c r="J43" s="13">
-        <f>H43 + CS!B6</f>
+      <c r="K43" s="12">
+        <f>I43 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>42</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="17">
+      <c r="B44" s="16">
+        <v>13</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="7">
         <v>4</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="12">
-        <f>G43-CS!B5</f>
+      <c r="H44" s="7">
+        <f>H43-CS!B5</f>
         <v>3.024</v>
       </c>
-      <c r="H44" s="12">
-        <v>0</v>
-      </c>
-      <c r="I44" s="12">
-        <f>G44 + CS!B5</f>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <f>H44 + CS!B5</f>
         <v>3.1840000000000002</v>
       </c>
-      <c r="J44" s="13">
-        <f>H44 + CS!B6</f>
+      <c r="K44" s="12">
+        <f>I44 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>43</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="17">
+      <c r="B45" s="16">
+        <v>14</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="7">
         <v>4</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="12">
-        <f>G44-CS!B5</f>
+      <c r="H45" s="7">
+        <f>H44-CS!B5</f>
         <v>2.8639999999999999</v>
       </c>
-      <c r="H45" s="12">
-        <v>0</v>
-      </c>
-      <c r="I45" s="12">
-        <f>G45 + CS!B5</f>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <f>H45 + CS!B5</f>
         <v>3.024</v>
       </c>
-      <c r="J45" s="13">
-        <f>H45 + CS!B6</f>
+      <c r="K45" s="12">
+        <f>I45 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="17">
+      <c r="B46" s="16">
+        <v>33</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="7">
         <v>4</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="12">
-        <f>G43</f>
+      <c r="H46" s="7">
+        <f>H43</f>
         <v>3.1840000000000002</v>
       </c>
-      <c r="H46" s="12">
+      <c r="I46" s="7">
         <v>0.16</v>
       </c>
-      <c r="I46" s="12">
-        <f>G46 + CS!B5</f>
+      <c r="J46" s="7">
+        <f>H46 + CS!B5</f>
         <v>3.3440000000000003</v>
       </c>
-      <c r="J46" s="13">
-        <f>H46 + CS!B6</f>
+      <c r="K46" s="12">
+        <f>I46 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="17">
+      <c r="B47" s="16">
+        <v>34</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="7">
         <v>4</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="12">
-        <f t="shared" ref="G47:G48" si="2">G44</f>
+      <c r="H47" s="7">
+        <f t="shared" ref="H47:H48" si="2">H44</f>
         <v>3.024</v>
       </c>
-      <c r="H47" s="12">
+      <c r="I47" s="7">
         <v>0.16</v>
       </c>
-      <c r="I47" s="12">
-        <f>G47 + CS!B5</f>
+      <c r="J47" s="7">
+        <f>H47 + CS!B5</f>
         <v>3.1840000000000002</v>
       </c>
-      <c r="J47" s="13">
-        <f>H47 + CS!B6</f>
+      <c r="K47" s="12">
+        <f>I47 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>46</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="17">
+      <c r="B48" s="16">
+        <v>35</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="7">
         <v>4</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="12">
+      <c r="H48" s="7">
         <f t="shared" si="2"/>
         <v>2.8639999999999999</v>
       </c>
-      <c r="H48" s="12">
+      <c r="I48" s="7">
         <v>0.16</v>
       </c>
-      <c r="I48" s="12">
-        <f>G48 + CS!B5</f>
+      <c r="J48" s="7">
+        <f>H48 + CS!B5</f>
         <v>3.024</v>
       </c>
-      <c r="J48" s="13">
-        <f>H48 + CS!B6</f>
+      <c r="K48" s="12">
+        <f>I48 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>47</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="17">
+      <c r="B49" s="16"/>
+      <c r="E49" s="7">
         <v>4</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="12"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>48</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="17">
+      <c r="B50" s="16"/>
+      <c r="E50" s="7">
         <v>4</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="K50" s="12"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
         <v>49</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="18">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14">
         <v>4</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>63</v>
+      <c r="B52" s="9">
+        <v>49</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="19">
+        <v>139</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="9">
         <v>5</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="9">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9">
         <v>2.7040000000000002</v>
       </c>
-      <c r="H52" s="9">
-        <v>0</v>
-      </c>
-      <c r="I52" s="12">
-        <f>G52 + CS!B5</f>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <f>H52 + CS!B5</f>
         <v>2.8640000000000003</v>
       </c>
-      <c r="J52" s="13">
-        <f>H52 + CS!B6</f>
+      <c r="K52" s="12">
+        <f>I52 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>51</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="17">
+      <c r="B53" s="16">
+        <v>15</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="7">
         <v>5</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="12">
-        <f>CS!B2 + CS!B3 * (D53 - 1) * CS!B4</f>
+      <c r="H53" s="7">
+        <f>CS!B2 + CS!B3 * (E53 - 1) * CS!B4</f>
         <v>2.4640000000000004</v>
       </c>
-      <c r="H53" s="12">
-        <v>0</v>
-      </c>
-      <c r="I53" s="12">
-        <f>G53 + CS!B5</f>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <f>H53 + CS!B5</f>
         <v>2.6240000000000006</v>
       </c>
-      <c r="J53" s="13">
-        <f>H53 + CS!B6</f>
+      <c r="K53" s="12">
+        <f>I53 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>52</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="17">
+      <c r="B54" s="16">
+        <v>16</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="7">
         <v>5</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="12">
-        <f>G53-CS!B5</f>
+      <c r="H54" s="7">
+        <f>H53-CS!B5</f>
         <v>2.3040000000000003</v>
       </c>
-      <c r="H54" s="12">
-        <v>0</v>
-      </c>
-      <c r="I54" s="12">
-        <f>G54 + CS!B5</f>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <f>H54 + CS!B5</f>
         <v>2.4640000000000004</v>
       </c>
-      <c r="J54" s="13">
-        <f>H54 + CS!B6</f>
+      <c r="K54" s="12">
+        <f>I54 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>53</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="17">
+      <c r="B55" s="16">
+        <v>17</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="7">
         <v>5</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="12">
-        <f>G54 - CS!B5</f>
+      <c r="H55" s="7">
+        <f>H54 - CS!B5</f>
         <v>2.1440000000000001</v>
       </c>
-      <c r="H55" s="12">
-        <v>0</v>
-      </c>
-      <c r="I55" s="12">
-        <f>G55 + CS!B5</f>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <f>H55 + CS!B5</f>
         <v>2.3040000000000003</v>
       </c>
-      <c r="J55" s="13">
-        <f>H55 + CS!B6</f>
+      <c r="K55" s="12">
+        <f>I55 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>54</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="17">
+      <c r="B56" s="16">
+        <v>36</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="7">
         <v>5</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="12">
-        <f>G53</f>
+      <c r="H56" s="7">
+        <f>H53</f>
         <v>2.4640000000000004</v>
       </c>
-      <c r="H56" s="12">
+      <c r="I56" s="7">
         <v>0.16</v>
       </c>
-      <c r="I56" s="12">
-        <f>G56 + CS!B5</f>
+      <c r="J56" s="7">
+        <f>H56 + CS!B5</f>
         <v>2.6240000000000006</v>
       </c>
-      <c r="J56" s="13">
-        <f>H56 + CS!B6</f>
+      <c r="K56" s="12">
+        <f>I56 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>55</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="17">
+      <c r="B57" s="16">
+        <v>37</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="7">
         <v>5</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="12">
-        <f t="shared" ref="G57:G58" si="3">G54</f>
+      <c r="H57" s="7">
+        <f t="shared" ref="H57:H58" si="3">H54</f>
         <v>2.3040000000000003</v>
       </c>
-      <c r="H57" s="12">
+      <c r="I57" s="7">
         <v>0.16</v>
       </c>
-      <c r="I57" s="12">
-        <f>G57 + CS!B5</f>
+      <c r="J57" s="7">
+        <f>H57 + CS!B5</f>
         <v>2.4640000000000004</v>
       </c>
-      <c r="J57" s="13">
-        <f>H57 + CS!B6</f>
+      <c r="K57" s="12">
+        <f>I57 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>56</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="17">
+      <c r="B58" s="16">
+        <v>38</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="7">
         <v>5</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="12">
+      <c r="H58" s="7">
         <f t="shared" si="3"/>
         <v>2.1440000000000001</v>
       </c>
-      <c r="H58" s="12">
+      <c r="I58" s="7">
         <v>0.16</v>
       </c>
-      <c r="I58" s="12">
-        <f>G58 + CS!B5</f>
+      <c r="J58" s="7">
+        <f>H58 + CS!B5</f>
         <v>2.3040000000000003</v>
       </c>
-      <c r="J58" s="13">
-        <f>H58 + CS!B6</f>
+      <c r="K58" s="12">
+        <f>I58 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>57</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="17">
+      <c r="B59" s="16"/>
+      <c r="E59" s="7">
         <v>5</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>58</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="17">
+      <c r="B60" s="16"/>
+      <c r="E60" s="7">
         <v>5</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
         <v>59</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="18">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14">
         <v>5</v>
       </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="15"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>60</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>70</v>
+      <c r="B62" s="9">
+        <v>50</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="19">
+        <v>140</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="9">
         <v>6</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="9">
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9">
         <v>1.919</v>
       </c>
-      <c r="H62" s="9">
-        <v>0</v>
-      </c>
-      <c r="I62" s="12">
-        <f>G62 + CS!B5</f>
+      <c r="I62" s="9">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <f>H62 + CS!B5</f>
         <v>2.0790000000000002</v>
       </c>
-      <c r="J62" s="13">
-        <f>H62 + CS!B6</f>
+      <c r="K62" s="12">
+        <f>I62 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>61</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" s="17">
+      <c r="B63" s="16">
+        <v>18</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="7">
         <v>6</v>
       </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="12">
-        <f>CS!B2 + CS!B3 * (D63 - 1) * CS!B4 -0.065</f>
+      <c r="H63" s="7">
+        <f>CS!B2 + CS!B3 * (E63 - 1) * CS!B4 -0.065</f>
         <v>1.6790000000000007</v>
       </c>
-      <c r="H63" s="12">
-        <v>0</v>
-      </c>
-      <c r="I63" s="12">
-        <f>G63 + CS!B5</f>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <f>H63 + CS!B5</f>
         <v>1.8390000000000006</v>
       </c>
-      <c r="J63" s="13">
-        <f>H63 + CS!B6</f>
+      <c r="K63" s="12">
+        <f>I63 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>62</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="12">
+      <c r="B64" s="16">
+        <v>19</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="7">
         <v>6</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12">
-        <f>G63-CS!B5</f>
+      <c r="H64" s="7">
+        <f>H63-CS!B5</f>
         <v>1.5190000000000008</v>
       </c>
-      <c r="H64" s="12">
-        <v>0</v>
-      </c>
-      <c r="I64" s="12">
-        <f>G64 + CS!B5</f>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <f>H64 + CS!B5</f>
         <v>1.6790000000000007</v>
       </c>
-      <c r="J64" s="13">
-        <f>H64 + CS!B6</f>
+      <c r="K64" s="12">
+        <f>I64 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>63</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="17">
+      <c r="B65" s="16">
+        <v>20</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="7">
         <v>6</v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="12">
-        <f>G64 - CS!B5</f>
+      <c r="H65" s="7">
+        <f>H64 - CS!B5</f>
         <v>1.3590000000000009</v>
       </c>
-      <c r="H65" s="12">
-        <v>0</v>
-      </c>
-      <c r="I65" s="12">
-        <f>G65 + CS!B5</f>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <f>H65 + CS!B5</f>
         <v>1.5190000000000008</v>
       </c>
-      <c r="J65" s="13">
-        <f>H65 + CS!B6</f>
+      <c r="K65" s="12">
+        <f>I65 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>64</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="17">
+      <c r="B66" s="16">
+        <v>39</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="7">
         <v>6</v>
       </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="12">
-        <f>G63</f>
+      <c r="H66" s="7">
+        <f>H63</f>
         <v>1.6790000000000007</v>
       </c>
-      <c r="H66" s="12">
+      <c r="I66" s="7">
         <v>0.16</v>
       </c>
-      <c r="I66" s="12">
-        <f>G66 + CS!B5</f>
+      <c r="J66" s="7">
+        <f>H66 + CS!B5</f>
         <v>1.8390000000000006</v>
       </c>
-      <c r="J66" s="13">
-        <f>H66 + CS!B6</f>
+      <c r="K66" s="12">
+        <f>I66 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>65</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" s="12">
+      <c r="B67" s="16">
+        <v>40</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" s="7">
         <v>6</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12">
-        <f t="shared" ref="G67:G68" si="4">G64</f>
+      <c r="H67" s="7">
+        <f t="shared" ref="H67:H68" si="4">H64</f>
         <v>1.5190000000000008</v>
       </c>
-      <c r="H67" s="12">
+      <c r="I67" s="7">
         <v>0.16</v>
       </c>
-      <c r="I67" s="12">
-        <f>G67 + CS!B5</f>
+      <c r="J67" s="7">
+        <f>H67 + CS!B5</f>
         <v>1.6790000000000007</v>
       </c>
-      <c r="J67" s="13">
-        <f>H67 + CS!B6</f>
+      <c r="K67" s="12">
+        <f>I67 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>66</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="17">
+      <c r="B68" s="16">
+        <v>41</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="7">
         <v>6</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="12">
+      <c r="H68" s="7">
         <f t="shared" si="4"/>
         <v>1.3590000000000009</v>
       </c>
-      <c r="H68" s="12">
+      <c r="I68" s="7">
         <v>0.16</v>
       </c>
-      <c r="I68" s="12">
-        <f>G68 + CS!B5</f>
+      <c r="J68" s="7">
+        <f>H68 + CS!B5</f>
         <v>1.5190000000000008</v>
       </c>
-      <c r="J68" s="13">
-        <f>H68 + CS!B6</f>
+      <c r="K68" s="12">
+        <f>I68 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>67</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="17">
+      <c r="B69" s="16"/>
+      <c r="E69" s="7">
         <v>6</v>
       </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69" s="12"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>68</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12">
+      <c r="B70" s="16"/>
+      <c r="E70" s="7">
         <v>6</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
         <v>69</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="18">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14">
         <v>6</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="15"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>70</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>77</v>
+      <c r="B72" s="9">
+        <v>51</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" s="19">
+        <v>141</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="9">
         <v>7</v>
       </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="9">
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9">
         <v>1.1990000000000001</v>
       </c>
-      <c r="H72" s="9">
-        <v>0</v>
-      </c>
-      <c r="I72" s="12">
-        <f>G72 + CS!B5</f>
+      <c r="I72" s="9">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <f>H72 + CS!B5</f>
         <v>1.359</v>
       </c>
-      <c r="J72" s="13">
-        <f>H72 + CS!B6</f>
+      <c r="K72" s="12">
+        <f>I72 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>71</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" s="17">
+      <c r="B73" s="16">
+        <v>21</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="7">
         <v>7</v>
       </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="12">
-        <f>CS!B2 + CS!B3 * (D73 - 1) * CS!B4 -0.065</f>
+      <c r="H73" s="7">
+        <f>CS!B2 + CS!B3 * (E73 - 1) * CS!B4 -0.065</f>
         <v>0.95900000000000007</v>
       </c>
-      <c r="H73" s="12">
-        <v>0</v>
-      </c>
-      <c r="I73" s="12">
-        <f>G73 + CS!B5</f>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <f>H73 + CS!B5</f>
         <v>1.119</v>
       </c>
-      <c r="J73" s="13">
-        <f>H73 + CS!B6</f>
+      <c r="K73" s="12">
+        <f>I73 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>72</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="17">
+      <c r="B74" s="16">
+        <v>22</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="7">
         <v>7</v>
       </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="12">
-        <f>G73-CS!B5</f>
+      <c r="H74" s="7">
+        <f>H73-CS!B5</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="H74" s="12">
-        <v>0</v>
-      </c>
-      <c r="I74" s="12">
-        <f>G74 + CS!B5</f>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <f>H74 + CS!B5</f>
         <v>0.95900000000000007</v>
       </c>
-      <c r="J74" s="13">
-        <f>H74 + CS!B6</f>
+      <c r="K74" s="12">
+        <f>I74 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>73</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" s="17">
+      <c r="B75" s="16">
+        <v>23</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="7">
         <v>7</v>
       </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="12">
-        <f>G74 - CS!B5</f>
+      <c r="H75" s="7">
+        <f>H74 - CS!B5</f>
         <v>0.63900000000000001</v>
       </c>
-      <c r="H75" s="12">
-        <v>0</v>
-      </c>
-      <c r="I75" s="12">
-        <f>G75 + CS!B5</f>
+      <c r="I75" s="7">
+        <v>0</v>
+      </c>
+      <c r="J75" s="7">
+        <f>H75 + CS!B5</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="J75" s="13">
-        <f>H75 + CS!B6</f>
+      <c r="K75" s="12">
+        <f>I75 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>74</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D76" s="17">
+      <c r="B76" s="16">
+        <v>42</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="7">
         <v>7</v>
       </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="12">
-        <f>G73</f>
+      <c r="H76" s="7">
+        <f>H73</f>
         <v>0.95900000000000007</v>
       </c>
-      <c r="H76" s="12">
+      <c r="I76" s="7">
         <v>0.16</v>
       </c>
-      <c r="I76" s="12">
-        <f>G76 + CS!B5</f>
+      <c r="J76" s="7">
+        <f>H76 + CS!B5</f>
         <v>1.119</v>
       </c>
-      <c r="J76" s="13">
-        <f>H76 + CS!B6</f>
+      <c r="K76" s="12">
+        <f>I76 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>75</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="17">
+      <c r="B77" s="16">
+        <v>43</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="7">
         <v>7</v>
       </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="12">
-        <f t="shared" ref="G77:G78" si="5">G74</f>
+      <c r="H77" s="7">
+        <f t="shared" ref="H77:H78" si="5">H74</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="H77" s="12">
+      <c r="I77" s="7">
         <v>0.16</v>
       </c>
-      <c r="I77" s="12">
-        <f>G77 + CS!B5</f>
+      <c r="J77" s="7">
+        <f>H77 + CS!B5</f>
         <v>0.95900000000000007</v>
       </c>
-      <c r="J77" s="13">
-        <f>H77 + CS!B6</f>
+      <c r="K77" s="12">
+        <f>I77 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>76</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" s="17">
+      <c r="B78" s="16">
+        <v>44</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" s="7">
         <v>7</v>
       </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="12">
+      <c r="H78" s="7">
         <f t="shared" si="5"/>
         <v>0.63900000000000001</v>
       </c>
-      <c r="H78" s="12">
+      <c r="I78" s="7">
         <v>0.16</v>
       </c>
-      <c r="I78" s="12">
-        <f>G78 + CS!B5</f>
+      <c r="J78" s="7">
+        <f>H78 + CS!B5</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="J78" s="13">
-        <f>H78 + CS!B6</f>
+      <c r="K78" s="12">
+        <f>I78 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>77</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="17">
+      <c r="B79" s="16"/>
+      <c r="E79" s="7">
         <v>7</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="13"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79" s="12"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>78</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="17">
+      <c r="B80" s="16"/>
+      <c r="E80" s="7">
         <v>7</v>
       </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="13"/>
-    </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
+      <c r="K80" s="12"/>
+    </row>
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
         <v>79</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="18">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14">
         <v>7</v>
       </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="15"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>84</v>
+      <c r="B82" s="9">
+        <v>58</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D82" s="19">
+        <v>142</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="9">
         <v>8</v>
       </c>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="9">
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9">
         <v>0.47899999999999998</v>
       </c>
-      <c r="H82" s="9">
-        <v>0</v>
-      </c>
-      <c r="I82" s="12">
-        <f>G82 + CS!B5</f>
+      <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <f>H82 + CS!B5</f>
         <v>0.63900000000000001</v>
       </c>
-      <c r="J82" s="13">
-        <f>H82 + CS!B6</f>
+      <c r="K82" s="12">
+        <f>I82 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>81</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D83" s="17">
+      <c r="B83" s="16">
+        <v>52</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="7">
         <v>8</v>
       </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="12">
-        <f>CS!B2 + CS!B3 * (D83 - 1) * CS!B4 -0.015</f>
+      <c r="H83" s="7">
+        <f>CS!B2 + CS!B3 * (E83 - 1) * CS!B4 -0.015</f>
         <v>0.28900000000000026</v>
       </c>
-      <c r="H83" s="12">
-        <v>0</v>
-      </c>
-      <c r="I83" s="12">
-        <f>G83 + CS!B5</f>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7">
+        <f>H83 + CS!B5</f>
         <v>0.44900000000000029</v>
       </c>
-      <c r="J83" s="13">
-        <f>H83 + CS!B6</f>
+      <c r="K83" s="12">
+        <f>I83 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>82</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" s="17">
+      <c r="B84" s="16">
+        <v>53</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="7">
         <v>8</v>
       </c>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="12">
-        <f>G83-CS!B5</f>
+      <c r="H84" s="7">
+        <f>H83-CS!B5</f>
         <v>0.12900000000000025</v>
       </c>
-      <c r="H84" s="12">
-        <v>0</v>
-      </c>
-      <c r="I84" s="12">
-        <f>G84 + CS!B5</f>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <f>H84 + CS!B5</f>
         <v>0.28900000000000026</v>
       </c>
-      <c r="J84" s="13">
-        <f>H84 + CS!B6</f>
+      <c r="K84" s="12">
+        <f>I84 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>83</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D85" s="17">
+      <c r="B85" s="16">
+        <v>54</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="7">
         <v>8</v>
       </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="12">
-        <f>G84 - CS!B5</f>
+      <c r="H85" s="7">
+        <f>H84 - CS!B5</f>
         <v>-3.099999999999975E-2</v>
       </c>
-      <c r="H85" s="12">
-        <v>0</v>
-      </c>
-      <c r="I85" s="12">
-        <f>G85 + CS!B5</f>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <f>H85 + CS!B5</f>
         <v>0.12900000000000025</v>
       </c>
-      <c r="J85" s="13">
-        <f>H85 + CS!B6</f>
+      <c r="K85" s="12">
+        <f>I85 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>84</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D86" s="17">
+      <c r="B86" s="16">
+        <v>55</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="7">
         <v>8</v>
       </c>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="12">
-        <f>G83</f>
+      <c r="H86" s="7">
+        <f>H83</f>
         <v>0.28900000000000026</v>
       </c>
-      <c r="H86" s="12">
+      <c r="I86" s="7">
         <v>0.16</v>
       </c>
-      <c r="I86" s="12">
-        <f>G86 + CS!B5</f>
+      <c r="J86" s="7">
+        <f>H86 + CS!B5</f>
         <v>0.44900000000000029</v>
       </c>
-      <c r="J86" s="13">
-        <f>H86 + CS!B6</f>
+      <c r="K86" s="12">
+        <f>I86 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>85</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="17">
+      <c r="B87" s="16">
+        <v>56</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="7">
         <v>8</v>
       </c>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="12">
-        <f t="shared" ref="G87:G88" si="6">G84</f>
+      <c r="H87" s="7">
+        <f t="shared" ref="H87:H88" si="6">H84</f>
         <v>0.12900000000000025</v>
       </c>
-      <c r="H87" s="12">
+      <c r="I87" s="7">
         <v>0.16</v>
       </c>
-      <c r="I87" s="12">
-        <f>G87 + CS!B5</f>
+      <c r="J87" s="7">
+        <f>H87 + CS!B5</f>
         <v>0.28900000000000026</v>
       </c>
-      <c r="J87" s="13">
-        <f>H87 + CS!B6</f>
+      <c r="K87" s="12">
+        <f>I87 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>86</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D88" s="17">
+      <c r="B88" s="16">
+        <v>57</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" s="7">
         <v>8</v>
       </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="12">
+      <c r="H88" s="7">
         <f t="shared" si="6"/>
         <v>-3.099999999999975E-2</v>
       </c>
-      <c r="H88" s="12">
+      <c r="I88" s="7">
         <v>0.16</v>
       </c>
-      <c r="I88" s="12">
-        <f>G88 + CS!B5</f>
+      <c r="J88" s="7">
+        <f>H88 + CS!B5</f>
         <v>0.12900000000000025</v>
       </c>
-      <c r="J88" s="13">
-        <f>H88 + CS!B6</f>
+      <c r="K88" s="12">
+        <f>I88 + CS!B6</f>
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>87</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="17">
+      <c r="B89" s="16"/>
+      <c r="E89" s="7">
         <v>8</v>
       </c>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="13"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89" s="12"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>88</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="17">
+      <c r="B90" s="16"/>
+      <c r="E90" s="7">
         <v>8</v>
       </c>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="13"/>
-    </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
+      <c r="K90" s="12"/>
+    </row>
+    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
         <v>89</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="18">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14">
         <v>8</v>
       </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -3965,7 +4067,7 @@
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2">
         <v>5.3440000000000003</v>
@@ -3973,7 +4075,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B3" s="4">
         <v>0.72</v>
@@ -3981,7 +4083,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B4" s="4">
         <v>-1</v>
@@ -3989,7 +4091,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B5" s="4">
         <v>0.16</v>
@@ -3997,7 +4099,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4">
         <v>0.17599999999999999</v>

--- a/my6D/ReadLayout/rectangles.xlsx
+++ b/my6D/ReadLayout/rectangles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\32_Python\myPyTools\my6D\ReadLayout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D72F0C9-B2E0-48D9-A605-48AB81075545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0461391A-EEF8-4BB1-BA8C-E72C0F8EEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCC243-ACCA-44A9-A2FE-667A1A52F0CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>index</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -395,128 +395,274 @@
     <t>S7P3</t>
   </si>
   <si>
+    <t>S8B1</t>
+  </si>
+  <si>
+    <t>S8B2</t>
+  </si>
+  <si>
+    <t>S8B3</t>
+  </si>
+  <si>
+    <t>S8P1</t>
+  </si>
+  <si>
+    <t>S8P2</t>
+  </si>
+  <si>
+    <t>ST1_BUFFER_AREA_START_X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATION_DISTANCE_X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATION_DIRECTION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_LENGTH_X_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_LENGTH_Y_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom_left_y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right_x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right_y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos1Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos3Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ConnectArea</t>
+  </si>
+  <si>
+    <t>ST3ConnectArea</t>
+  </si>
+  <si>
+    <t>ST4ConnectArea</t>
+  </si>
+  <si>
+    <t>ST5ConnectArea</t>
+  </si>
+  <si>
+    <t>ST6ConnectArea</t>
+  </si>
+  <si>
+    <t>ST7ConnectArea</t>
+  </si>
+  <si>
+    <t>ST8ConnectArea</t>
+  </si>
+  <si>
+    <t>LoadShuttleArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST9ConnectArea</t>
+  </si>
+  <si>
+    <t>ST9BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST9BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST9BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST9ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST9ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST9ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>S9C1</t>
+  </si>
+  <si>
+    <t>S9B1</t>
+  </si>
+  <si>
+    <t>S9B2</t>
+  </si>
+  <si>
+    <t>S9B3</t>
+  </si>
+  <si>
+    <t>S9P1</t>
+  </si>
+  <si>
+    <t>S9P2</t>
+  </si>
+  <si>
+    <t>TestArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackStop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZonePowerOnArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZonePower</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST1ConnectArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST1Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST3Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST4Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST5Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST6Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST7Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST8Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8P3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>S8C1</t>
-  </si>
-  <si>
-    <t>S8B1</t>
-  </si>
-  <si>
-    <t>S8B2</t>
-  </si>
-  <si>
-    <t>S8B3</t>
-  </si>
-  <si>
-    <t>S8P1</t>
-  </si>
-  <si>
-    <t>S8P2</t>
-  </si>
-  <si>
-    <t>S8P3</t>
-  </si>
-  <si>
-    <t>ST1_BUFFER_AREA_START_X</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATION_DISTANCE_X</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATION_DIRECTION</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_LENGTH_X_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_LENGTH_Y_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bottom_left_y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right_x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right_y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ReadyPos1Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ReadyPos2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ReadyPos3Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2R1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2R2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2R3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST1ConnectArea</t>
-  </si>
-  <si>
-    <t>ST2ConnectArea</t>
-  </si>
-  <si>
-    <t>ST3ConnectArea</t>
-  </si>
-  <si>
-    <t>ST4ConnectArea</t>
-  </si>
-  <si>
-    <t>ST5ConnectArea</t>
-  </si>
-  <si>
-    <t>ST6ConnectArea</t>
-  </si>
-  <si>
-    <t>ST7ConnectArea</t>
-  </si>
-  <si>
-    <t>ST8ConnectArea</t>
-  </si>
-  <si>
-    <t>LoadShuttleArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Load</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ready</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST9Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9P3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9C2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1190,7 +1336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,16 +1376,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1617,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FED1504-B951-4F1D-A034-DA0B86FDB2F6}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1635,7 +1775,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1659,13 +1799,13 @@
         <v>44</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1679,7 +1819,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -1687,14 +1827,14 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="I2" s="9">
         <v>0.32</v>
       </c>
       <c r="J2" s="9">
         <f>H2 + CS!B5</f>
-        <v>4.26</v>
+        <v>4.96</v>
       </c>
       <c r="K2" s="10">
         <f>I2 + CS!B6</f>
@@ -1705,14 +1845,14 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -1724,7 +1864,7 @@
         <v>0.32</v>
       </c>
       <c r="J3" s="7">
-        <v>4.08</v>
+        <v>4.68</v>
       </c>
       <c r="K3" s="12">
         <v>0.48</v>
@@ -1734,110 +1874,165 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="H4" s="7">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2.52</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="7">
         <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>5.63</v>
+        <v>6.35</v>
       </c>
       <c r="I5" s="7">
         <v>0.37</v>
       </c>
       <c r="J5" s="7">
-        <v>5.75</v>
+        <v>6.47</v>
       </c>
       <c r="K5" s="12">
         <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="7">
+        <v>66</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="E6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="7">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="E7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
       <c r="E8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="16"/>
       <c r="E9" s="7">
         <v>0</v>
       </c>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="16"/>
       <c r="E10" s="7">
         <v>0</v>
       </c>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="16"/>
       <c r="E11" s="7">
         <v>0</v>
       </c>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
       <c r="B12" s="9">
         <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>23</v>
@@ -1848,25 +2043,26 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9">
-        <v>5.5839999999999996</v>
+        <f>J13</f>
+        <v>6.2240000000000002</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J12" s="9">
         <f>H12 + CS!B5</f>
-        <v>5.7439999999999998</v>
+        <v>6.3840000000000003</v>
       </c>
       <c r="K12" s="10">
         <f>I12 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.33599999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="7">
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1880,14 +2076,14 @@
       </c>
       <c r="H13" s="7">
         <f>CS!B2 + CS!B3 * (E12 - 1) * CS!B4</f>
-        <v>5.3440000000000003</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="J13" s="7">
         <f>H13+CS!B5</f>
-        <v>5.5040000000000004</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="K13" s="12">
         <f>I13+CS!B6</f>
@@ -1895,10 +2091,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="7">
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1912,14 +2108,14 @@
       </c>
       <c r="H14" s="7">
         <f>H13 - CS!B5</f>
-        <v>5.1840000000000002</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
       </c>
       <c r="J14" s="7">
         <f>H14+CS!B5</f>
-        <v>5.3440000000000003</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="K14" s="12">
         <f>I14+CS!B6</f>
@@ -1927,10 +2123,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="7">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1944,14 +2140,14 @@
       </c>
       <c r="H15" s="7">
         <f>H14 - CS!B5</f>
-        <v>5.024</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
       </c>
       <c r="J15" s="7">
         <f>H15+CS!B5</f>
-        <v>5.1840000000000002</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="K15" s="12">
         <f>I15+CS!B6</f>
@@ -1959,10 +2155,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="7">
         <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1976,14 +2172,14 @@
       </c>
       <c r="H16" s="7">
         <f>H13</f>
-        <v>5.3440000000000003</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="I16" s="7">
         <v>0.16</v>
       </c>
       <c r="J16" s="7">
         <f>H16+CS!B5</f>
-        <v>5.5040000000000004</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="K16" s="12">
         <f>I16+CS!B6</f>
@@ -1991,10 +2187,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="7">
         <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2008,14 +2204,14 @@
       </c>
       <c r="H17" s="7">
         <f>H14</f>
-        <v>5.1840000000000002</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="I17" s="7">
         <v>0.16</v>
       </c>
       <c r="J17" s="7">
         <f>H17+CS!B5</f>
-        <v>5.3440000000000003</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="K17" s="12">
         <f>I17+CS!B6</f>
@@ -2023,10 +2219,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="7">
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2040,14 +2236,14 @@
       </c>
       <c r="H18" s="7">
         <f>H15</f>
-        <v>5.024</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="I18" s="7">
         <v>0.16</v>
       </c>
       <c r="J18" s="7">
         <f>H18+CS!B5</f>
-        <v>5.1840000000000002</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="K18" s="12">
         <f>I18+CS!B6</f>
@@ -2058,7 +2254,7 @@
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="7">
         <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2072,14 +2268,14 @@
       </c>
       <c r="H19" s="7">
         <f>H13</f>
-        <v>5.3440000000000003</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="I19" s="7">
         <v>0.32</v>
       </c>
       <c r="J19" s="7">
         <f>H19+CS!B5</f>
-        <v>5.5040000000000004</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="K19" s="12">
         <f>I19+CS!B6</f>
@@ -2087,10 +2283,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="7">
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2104,25 +2300,25 @@
       </c>
       <c r="H20" s="7">
         <f>H14</f>
-        <v>5.1840000000000002</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="I20" s="7">
         <v>0.32</v>
       </c>
       <c r="J20" s="7">
         <f>H20+CS!B5</f>
-        <v>5.3440000000000003</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="K20" s="12">
         <f>I20+CS!B6</f>
         <v>0.496</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="7">
         <v>61</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -2136,111 +2332,112 @@
       </c>
       <c r="H21" s="7">
         <f>H15</f>
-        <v>5.024</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="I21" s="7">
         <v>0.32</v>
       </c>
       <c r="J21" s="7">
         <f>H21+CS!B5</f>
-        <v>5.1840000000000002</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="K21" s="12">
         <f>I21+CS!B6</f>
         <v>0.496</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
+        <v>75</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <f>H12</f>
+        <v>6.2240000000000002</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <f>H22+CS!B5</f>
+        <v>6.3840000000000003</v>
+      </c>
+      <c r="K22" s="12">
+        <f>I22+CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
         <v>46</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C23" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>2</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9">
-        <v>4.8639999999999999</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <f>H22 + CS!B5</f>
-        <v>5.024</v>
-      </c>
-      <c r="K22" s="10">
-        <f>I22 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>21</v>
-      </c>
-      <c r="B23" s="16">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <f>J24</f>
+        <v>5.5040000000000004</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J23" s="9">
+        <f>H23 + CS!B5</f>
+        <v>5.6640000000000006</v>
+      </c>
+      <c r="K23" s="10">
+        <f>I23 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
         <v>6</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E23" s="7">
-        <v>2</v>
-      </c>
-      <c r="H23" s="7">
-        <f>CS!B2 + CS!B3 * (E22 - 1) * CS!B4</f>
-        <v>4.6240000000000006</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <f>H23 + CS!B5</f>
-        <v>4.7840000000000007</v>
-      </c>
-      <c r="K23" s="12">
-        <f>I23 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>22</v>
-      </c>
-      <c r="B24" s="16">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="E24" s="7">
         <v>2</v>
       </c>
       <c r="H24" s="7">
-        <f>H23 - CS!B5</f>
-        <v>4.4640000000000004</v>
+        <f>CS!B2 + CS!B3 * (E23 - 1) * CS!B4</f>
+        <v>5.3440000000000003</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
       </c>
       <c r="J24" s="7">
         <f>H24 + CS!B5</f>
-        <v>4.6240000000000006</v>
+        <v>5.5040000000000004</v>
       </c>
       <c r="K24" s="12">
         <f>I24 + CS!B6</f>
@@ -2248,31 +2445,31 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="16">
-        <v>8</v>
+      <c r="B25" s="7">
+        <v>7</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E25" s="7">
         <v>2</v>
       </c>
       <c r="H25" s="7">
         <f>H24 - CS!B5</f>
-        <v>4.3040000000000003</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="I25" s="7">
         <v>0</v>
       </c>
       <c r="J25" s="7">
         <f>H25 + CS!B5</f>
-        <v>4.4640000000000004</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="K25" s="12">
         <f>I25 + CS!B6</f>
@@ -2283,60 +2480,60 @@
       <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="16">
-        <v>27</v>
+      <c r="B26" s="7">
+        <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="7">
         <v>2</v>
       </c>
       <c r="H26" s="7">
-        <f>H23</f>
-        <v>4.6240000000000006</v>
+        <f>H25 - CS!B5</f>
+        <v>5.024</v>
       </c>
       <c r="I26" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7">
         <f>H26 + CS!B5</f>
-        <v>4.7840000000000007</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="K26" s="12">
         <f>I26 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="16">
-        <v>28</v>
+      <c r="B27" s="7">
+        <v>27</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="7">
         <v>2</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" ref="H27:H31" si="0">H24</f>
-        <v>4.4640000000000004</v>
+        <f>H24</f>
+        <v>5.3440000000000003</v>
       </c>
       <c r="I27" s="7">
         <v>0.16</v>
       </c>
       <c r="J27" s="7">
         <f>H27 + CS!B5</f>
-        <v>4.6240000000000006</v>
+        <v>5.5040000000000004</v>
       </c>
       <c r="K27" s="12">
         <f>I27 + CS!B6</f>
@@ -2344,31 +2541,31 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="16">
-        <v>29</v>
+      <c r="B28" s="7">
+        <v>28</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="7">
         <v>2</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
-        <v>4.3040000000000003</v>
+        <f t="shared" ref="H28:H32" si="0">H25</f>
+        <v>5.1840000000000002</v>
       </c>
       <c r="I28" s="7">
         <v>0.16</v>
       </c>
       <c r="J28" s="7">
         <f>H28 + CS!B5</f>
-        <v>4.4640000000000004</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="K28" s="12">
         <f>I28 + CS!B6</f>
@@ -2376,97 +2573,95 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="16">
-        <v>62</v>
+      <c r="B29" s="7">
+        <v>29</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="E29" s="7">
         <v>2</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="0"/>
-        <v>4.6240000000000006</v>
+        <v>5.024</v>
       </c>
       <c r="I29" s="7">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="J29" s="7">
         <f>H29 + CS!B5</f>
-        <v>4.7840000000000007</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="K29" s="12">
         <f>I29 + CS!B6</f>
-        <v>0.496</v>
+        <v>0.33599999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="16">
-        <v>63</v>
+      <c r="B30" s="7">
+        <v>62</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>4.4640000000000004</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="I30" s="7">
         <v>0.32</v>
       </c>
       <c r="J30" s="7">
         <f>H30 + CS!B5</f>
-        <v>4.6240000000000006</v>
+        <v>5.5040000000000004</v>
       </c>
       <c r="K30" s="12">
         <f>I30 + CS!B6</f>
         <v>0.496</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="16">
-        <v>64</v>
+      <c r="B31" s="7">
+        <v>63</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="E31" s="7">
         <v>2</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
       <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>4.3040000000000003</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="I31" s="7">
         <v>0.32</v>
       </c>
       <c r="J31" s="7">
         <f>H31 + CS!B5</f>
-        <v>4.4640000000000004</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="K31" s="12">
         <f>I31 + CS!B6</f>
@@ -2474,64 +2669,63 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="9">
-        <v>47</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="9">
-        <v>3</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9">
-        <v>4.1440000000000001</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9">
+      <c r="B32" s="7">
+        <v>64</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="0"/>
+        <v>5.024</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="J32" s="7">
         <f>H32 + CS!B5</f>
-        <v>4.3040000000000003</v>
-      </c>
-      <c r="K32" s="10">
+        <v>5.1840000000000002</v>
+      </c>
+      <c r="K32" s="12">
         <f>I32 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="16">
-        <v>9</v>
+      <c r="B33" s="7">
+        <v>76</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="E33" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="7">
-        <f>CS!B2 + CS!B3 * (E33 - 1) * CS!B4</f>
-        <v>3.9040000000000004</v>
+        <f>H23</f>
+        <v>5.5040000000000004</v>
       </c>
       <c r="I33" s="7">
         <v>0</v>
       </c>
       <c r="J33" s="7">
         <f>H33 + CS!B5</f>
-        <v>4.0640000000000001</v>
+        <v>5.6640000000000006</v>
       </c>
       <c r="K33" s="12">
         <f>I33 + CS!B6</f>
@@ -2539,63 +2733,65 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="16">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="B34" s="9">
+        <v>47</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="9">
         <v>3</v>
       </c>
-      <c r="H34" s="7">
-        <f>H33-CS!B5</f>
-        <v>3.7440000000000002</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
+        <f>J35</f>
+        <v>4.7840000000000007</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J34" s="9">
         <f>H34 + CS!B5</f>
-        <v>3.9040000000000004</v>
-      </c>
-      <c r="K34" s="12">
+        <v>4.9440000000000008</v>
+      </c>
+      <c r="K34" s="10">
         <f>I34 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.33599999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="16">
-        <v>11</v>
+      <c r="B35" s="7">
+        <v>9</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E35" s="7">
         <v>3</v>
       </c>
       <c r="H35" s="7">
-        <f>H34 - CS!B5</f>
-        <v>3.5840000000000001</v>
+        <f>CS!B2 + CS!B3 * (E35 - 1) * CS!B4</f>
+        <v>4.6240000000000006</v>
       </c>
       <c r="I35" s="7">
         <v>0</v>
       </c>
       <c r="J35" s="7">
         <f>H35 + CS!B5</f>
-        <v>3.7440000000000002</v>
+        <v>4.7840000000000007</v>
       </c>
       <c r="K35" s="12">
         <f>I35 + CS!B6</f>
@@ -2603,95 +2799,95 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="16">
-        <v>30</v>
+      <c r="B36" s="7">
+        <v>10</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="7">
         <v>3</v>
       </c>
       <c r="H36" s="7">
-        <f>H33</f>
-        <v>3.9040000000000004</v>
+        <f>H35-CS!B5</f>
+        <v>4.4640000000000004</v>
       </c>
       <c r="I36" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7">
         <f>H36 + CS!B5</f>
-        <v>4.0640000000000001</v>
+        <v>4.6240000000000006</v>
       </c>
       <c r="K36" s="12">
         <f>I36 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="7">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E37" s="7">
         <v>3</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" ref="H37:H38" si="1">H34</f>
-        <v>3.7440000000000002</v>
+        <f>H36 - CS!B5</f>
+        <v>4.3040000000000003</v>
       </c>
       <c r="I37" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7">
         <f>H37 + CS!B5</f>
-        <v>3.9040000000000004</v>
+        <v>4.4640000000000004</v>
       </c>
       <c r="K37" s="12">
         <f>I37 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="16">
-        <v>32</v>
+      <c r="B38" s="7">
+        <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E38" s="7">
         <v>3</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="1"/>
-        <v>3.5840000000000001</v>
+        <f>H35</f>
+        <v>4.6240000000000006</v>
       </c>
       <c r="I38" s="7">
         <v>0.16</v>
       </c>
       <c r="J38" s="7">
         <f>H38 + CS!B5</f>
-        <v>3.7440000000000002</v>
+        <v>4.7840000000000007</v>
       </c>
       <c r="K38" s="12">
         <f>I38 + CS!B6</f>
@@ -2699,721 +2895,723 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="7">
+        <v>31</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E39" s="7">
         <v>3</v>
       </c>
-      <c r="K39" s="12"/>
+      <c r="H39" s="7">
+        <f t="shared" ref="H39:H40" si="1">H36</f>
+        <v>4.4640000000000004</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J39" s="7">
+        <f>H39 + CS!B5</f>
+        <v>4.6240000000000006</v>
+      </c>
+      <c r="K39" s="12">
+        <f>I39 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>38</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="7">
+        <v>32</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E40" s="7">
         <v>3</v>
       </c>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>4.3040000000000003</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J40" s="7">
+        <f>H40 + CS!B5</f>
+        <v>4.4640000000000004</v>
+      </c>
+      <c r="K40" s="12">
+        <f>I40 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14">
+      <c r="E41" s="7">
         <v>3</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="9">
-        <v>48</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="9">
-        <v>4</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9">
-        <v>3.4239999999999999</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
-        <f>H42 + CS!B5</f>
-        <v>3.5840000000000001</v>
-      </c>
-      <c r="K42" s="12">
-        <f>I42 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
+      <c r="E42" s="7">
+        <v>3</v>
+      </c>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
+      <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
-        <v>12</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="E43" s="7">
-        <v>4</v>
-      </c>
-      <c r="H43" s="7">
-        <f>CS!B2 + CS!B3 * (E43 - 1) * CS!B4</f>
-        <v>3.1840000000000002</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
-        <f>H43 + CS!B5</f>
-        <v>3.3440000000000003</v>
-      </c>
-      <c r="K43" s="12">
-        <f>I43 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="11">
+        <v>3</v>
+      </c>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="16">
-        <v>13</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="7">
-        <v>4</v>
-      </c>
+      <c r="B44" s="13">
+        <v>77</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="13">
+        <v>3</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="7">
-        <f>H43-CS!B5</f>
-        <v>3.024</v>
+        <f>H34</f>
+        <v>4.7840000000000007</v>
       </c>
       <c r="I44" s="7">
         <v>0</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="13">
         <f>H44 + CS!B5</f>
-        <v>3.1840000000000002</v>
-      </c>
-      <c r="K44" s="12">
+        <v>4.9440000000000008</v>
+      </c>
+      <c r="K44" s="14">
         <f>I44 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="11">
+      <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="16">
-        <v>14</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="7">
+      <c r="B45" s="9">
+        <v>48</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="9">
         <v>4</v>
       </c>
-      <c r="H45" s="7">
-        <f>H44-CS!B5</f>
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9">
+        <f>J46</f>
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0.16</v>
       </c>
       <c r="J45" s="7">
         <f>H45 + CS!B5</f>
-        <v>3.024</v>
+        <v>4.2240000000000002</v>
       </c>
       <c r="K45" s="12">
         <f>I45 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.33599999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="11">
+      <c r="A46" s="7">
         <v>44</v>
       </c>
-      <c r="B46" s="16">
-        <v>33</v>
+      <c r="B46" s="7">
+        <v>12</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E46" s="7">
         <v>4</v>
       </c>
       <c r="H46" s="7">
-        <f>H43</f>
-        <v>3.1840000000000002</v>
+        <f>CS!B2 + CS!B3 * (E46 - 1) * CS!B4</f>
+        <v>3.9039999999999999</v>
       </c>
       <c r="I46" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J46" s="7">
         <f>H46 + CS!B5</f>
-        <v>3.3440000000000003</v>
+        <v>4.0640000000000001</v>
       </c>
       <c r="K46" s="12">
         <f>I46 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>45</v>
       </c>
-      <c r="B47" s="16">
-        <v>34</v>
+      <c r="B47" s="7">
+        <v>13</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E47" s="7">
         <v>4</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" ref="H47:H48" si="2">H44</f>
-        <v>3.024</v>
+        <f>H46-CS!B5</f>
+        <v>3.7439999999999998</v>
       </c>
       <c r="I47" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7">
         <f>H47 + CS!B5</f>
-        <v>3.1840000000000002</v>
+        <v>3.9039999999999999</v>
       </c>
       <c r="K47" s="12">
         <f>I47 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="11">
+      <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="16">
-        <v>35</v>
+      <c r="B48" s="7">
+        <v>14</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E48" s="7">
         <v>4</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="2"/>
-        <v>2.8639999999999999</v>
+        <f>H47-CS!B5</f>
+        <v>3.5839999999999996</v>
       </c>
       <c r="I48" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7">
         <f>H48 + CS!B5</f>
-        <v>3.024</v>
+        <v>3.7439999999999998</v>
       </c>
       <c r="K48" s="12">
         <f>I48 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="11">
+      <c r="A49" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="16"/>
+      <c r="B49" s="7">
+        <v>33</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="E49" s="7">
         <v>4</v>
       </c>
-      <c r="K49" s="12"/>
+      <c r="H49" s="7">
+        <f>H46</f>
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J49" s="7">
+        <f>H49 + CS!B5</f>
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="K49" s="12">
+        <f>I49 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="11">
+      <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="7">
+        <v>34</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="E50" s="7">
         <v>4</v>
       </c>
-      <c r="K50" s="12"/>
-    </row>
-    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="H50" s="7">
+        <f t="shared" ref="H50:H51" si="2">H47</f>
+        <v>3.7439999999999998</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J50" s="7">
+        <f>H50 + CS!B5</f>
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="K50" s="12">
+        <f>I50 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14">
+      <c r="B51" s="7">
+        <v>35</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="7">
         <v>4</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
+      <c r="H51" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5839999999999996</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J51" s="7">
+        <f>H51 + CS!B5</f>
+        <v>3.7439999999999998</v>
+      </c>
+      <c r="K51" s="12">
+        <f>I51 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>50</v>
       </c>
-      <c r="B52" s="9">
-        <v>49</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="9">
-        <v>5</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9">
-        <v>2.7040000000000002</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7">
-        <f>H52 + CS!B5</f>
-        <v>2.8640000000000003</v>
-      </c>
-      <c r="K52" s="12">
-        <f>I52 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
+      <c r="E52" s="7">
+        <v>4</v>
+      </c>
+      <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="11">
+      <c r="A53" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="16">
-        <v>15</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E53" s="7">
-        <v>5</v>
-      </c>
-      <c r="H53" s="7">
-        <f>CS!B2 + CS!B3 * (E53 - 1) * CS!B4</f>
-        <v>2.4640000000000004</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7">
-        <f>H53 + CS!B5</f>
-        <v>2.6240000000000006</v>
-      </c>
-      <c r="K53" s="12">
-        <f>I53 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>52</v>
       </c>
-      <c r="B54" s="16">
-        <v>16</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="7">
-        <v>5</v>
-      </c>
+      <c r="B54" s="13">
+        <v>78</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="13">
+        <v>4</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="7">
-        <f>H53-CS!B5</f>
-        <v>2.3040000000000003</v>
+        <f>H45</f>
+        <v>4.0640000000000001</v>
       </c>
       <c r="I54" s="7">
         <v>0</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="13">
         <f>H54 + CS!B5</f>
-        <v>2.4640000000000004</v>
-      </c>
-      <c r="K54" s="12">
+        <v>4.2240000000000002</v>
+      </c>
+      <c r="K54" s="14">
         <f>I54 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="11">
+      <c r="A55" s="7">
         <v>53</v>
       </c>
-      <c r="B55" s="16">
-        <v>17</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="7">
+      <c r="B55" s="9">
+        <v>49</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="9">
         <v>5</v>
       </c>
-      <c r="H55" s="7">
-        <f>H54 - CS!B5</f>
-        <v>2.1440000000000001</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9">
+        <f>J56</f>
+        <v>3.3440000000000003</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0.16</v>
       </c>
       <c r="J55" s="7">
         <f>H55 + CS!B5</f>
-        <v>2.3040000000000003</v>
+        <v>3.5040000000000004</v>
       </c>
       <c r="K55" s="12">
         <f>I55 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.33599999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="11">
+      <c r="A56" s="7">
         <v>54</v>
       </c>
-      <c r="B56" s="16">
-        <v>36</v>
+      <c r="B56" s="7">
+        <v>15</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E56" s="7">
         <v>5</v>
       </c>
       <c r="H56" s="7">
-        <f>H53</f>
-        <v>2.4640000000000004</v>
+        <f>CS!B2 + CS!B3 * (E56 - 1) * CS!B4</f>
+        <v>3.1840000000000002</v>
       </c>
       <c r="I56" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7">
         <f>H56 + CS!B5</f>
-        <v>2.6240000000000006</v>
+        <v>3.3440000000000003</v>
       </c>
       <c r="K56" s="12">
         <f>I56 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="11">
+      <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="16">
-        <v>37</v>
+      <c r="B57" s="7">
+        <v>16</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E57" s="7">
         <v>5</v>
       </c>
       <c r="H57" s="7">
-        <f t="shared" ref="H57:H58" si="3">H54</f>
-        <v>2.3040000000000003</v>
+        <f>H56-CS!B5</f>
+        <v>3.024</v>
       </c>
       <c r="I57" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J57" s="7">
         <f>H57 + CS!B5</f>
-        <v>2.4640000000000004</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="K57" s="12">
         <f>I57 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="11">
+      <c r="A58" s="7">
         <v>56</v>
       </c>
-      <c r="B58" s="16">
-        <v>38</v>
+      <c r="B58" s="7">
+        <v>17</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E58" s="7">
         <v>5</v>
       </c>
       <c r="H58" s="7">
-        <f t="shared" si="3"/>
-        <v>2.1440000000000001</v>
+        <f>H57 - CS!B5</f>
+        <v>2.8639999999999999</v>
       </c>
       <c r="I58" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7">
         <f>H58 + CS!B5</f>
-        <v>2.3040000000000003</v>
+        <v>3.024</v>
       </c>
       <c r="K58" s="12">
         <f>I58 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="11">
+      <c r="A59" s="7">
         <v>57</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="7">
+        <v>36</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="E59" s="7">
         <v>5</v>
       </c>
-      <c r="K59" s="12"/>
+      <c r="H59" s="7">
+        <f>H56</f>
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J59" s="7">
+        <f>H59 + CS!B5</f>
+        <v>3.3440000000000003</v>
+      </c>
+      <c r="K59" s="12">
+        <f>I59 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="11">
+      <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="7">
+        <v>37</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="E60" s="7">
         <v>5</v>
       </c>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
+      <c r="H60" s="7">
+        <f t="shared" ref="H60:H61" si="3">H57</f>
+        <v>3.024</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J60" s="7">
+        <f>H60 + CS!B5</f>
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="K60" s="12">
+        <f>I60 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
         <v>59</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14">
+      <c r="B61" s="7">
+        <v>38</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="7">
         <v>5</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="15"/>
+      <c r="H61" s="7">
+        <f t="shared" si="3"/>
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J61" s="7">
+        <f>H61 + CS!B5</f>
+        <v>3.024</v>
+      </c>
+      <c r="K61" s="12">
+        <f>I61 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>60</v>
       </c>
-      <c r="B62" s="9">
-        <v>50</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" s="9">
-        <v>6</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9">
-        <v>1.919</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7">
-        <f>H62 + CS!B5</f>
-        <v>2.0790000000000002</v>
-      </c>
-      <c r="K62" s="12">
-        <f>I62 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
+      <c r="E62" s="7">
+        <v>5</v>
+      </c>
+      <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="11">
+      <c r="A63" s="7">
         <v>61</v>
       </c>
-      <c r="B63" s="16">
-        <v>18</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="E63" s="7">
-        <v>6</v>
-      </c>
-      <c r="H63" s="7">
-        <f>CS!B2 + CS!B3 * (E63 - 1) * CS!B4 -0.065</f>
-        <v>1.6790000000000007</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
-        <f>H63 + CS!B5</f>
-        <v>1.8390000000000006</v>
-      </c>
-      <c r="K63" s="12">
-        <f>I63 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="11">
+      <c r="A64" s="7">
         <v>62</v>
       </c>
-      <c r="B64" s="16">
-        <v>19</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="E64" s="7">
-        <v>6</v>
-      </c>
-      <c r="H64" s="7">
-        <f>H63-CS!B5</f>
-        <v>1.5190000000000008</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7">
-        <f>H64 + CS!B5</f>
-        <v>1.6790000000000007</v>
-      </c>
-      <c r="K64" s="12">
-        <f>I64 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
+        <v>5</v>
+      </c>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
         <v>63</v>
       </c>
-      <c r="B65" s="16">
-        <v>20</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="7">
-        <v>6</v>
-      </c>
+      <c r="B65" s="13">
+        <v>79</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="13">
+        <v>5</v>
+      </c>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
       <c r="H65" s="7">
-        <f>H64 - CS!B5</f>
-        <v>1.3590000000000009</v>
+        <f>H55</f>
+        <v>3.3440000000000003</v>
       </c>
       <c r="I65" s="7">
         <v>0</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="13">
         <f>H65 + CS!B5</f>
-        <v>1.5190000000000008</v>
-      </c>
-      <c r="K65" s="12">
+        <v>3.5040000000000004</v>
+      </c>
+      <c r="K65" s="14">
         <f>I65 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="11">
+      <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="16">
-        <v>39</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="7">
+      <c r="B66" s="9">
+        <v>50</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="9">
         <v>6</v>
       </c>
-      <c r="H66" s="7">
-        <f>H63</f>
-        <v>1.6790000000000007</v>
-      </c>
-      <c r="I66" s="7">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9">
+        <f>J67</f>
+        <v>2.6240000000000006</v>
+      </c>
+      <c r="I66" s="9">
         <v>0.16</v>
       </c>
       <c r="J66" s="7">
         <f>H66 + CS!B5</f>
-        <v>1.8390000000000006</v>
+        <v>2.7840000000000007</v>
       </c>
       <c r="K66" s="12">
         <f>I66 + CS!B6</f>
@@ -3421,293 +3619,286 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="11">
+      <c r="A67" s="7">
         <v>65</v>
       </c>
-      <c r="B67" s="16">
-        <v>40</v>
+      <c r="B67" s="7">
+        <v>18</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E67" s="7">
         <v>6</v>
       </c>
       <c r="H67" s="7">
-        <f t="shared" ref="H67:H68" si="4">H64</f>
-        <v>1.5190000000000008</v>
+        <f>CS!B2 + CS!B3 * (E67 - 1) * CS!B4</f>
+        <v>2.4640000000000004</v>
       </c>
       <c r="I67" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J67" s="7">
         <f>H67 + CS!B5</f>
-        <v>1.6790000000000007</v>
+        <v>2.6240000000000006</v>
       </c>
       <c r="K67" s="12">
         <f>I67 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>66</v>
       </c>
-      <c r="B68" s="16">
-        <v>41</v>
+      <c r="B68" s="7">
+        <v>19</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E68" s="7">
         <v>6</v>
       </c>
       <c r="H68" s="7">
-        <f t="shared" si="4"/>
-        <v>1.3590000000000009</v>
+        <f>H67-CS!B5</f>
+        <v>2.3040000000000003</v>
       </c>
       <c r="I68" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J68" s="7">
         <f>H68 + CS!B5</f>
-        <v>1.5190000000000008</v>
+        <v>2.4640000000000004</v>
       </c>
       <c r="K68" s="12">
         <f>I68 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="11">
+      <c r="A69" s="7">
         <v>67</v>
       </c>
-      <c r="B69" s="16"/>
+      <c r="B69" s="7">
+        <v>20</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="E69" s="7">
         <v>6</v>
       </c>
-      <c r="K69" s="12"/>
+      <c r="H69" s="7">
+        <f>H68 - CS!B5</f>
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <f>H69 + CS!B5</f>
+        <v>2.3040000000000003</v>
+      </c>
+      <c r="K69" s="12">
+        <f>I69 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="11">
+      <c r="A70" s="7">
         <v>68</v>
       </c>
-      <c r="B70" s="16"/>
+      <c r="B70" s="7">
+        <v>39</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="E70" s="7">
         <v>6</v>
       </c>
-      <c r="K70" s="12"/>
-    </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+      <c r="H70" s="7">
+        <f>H67</f>
+        <v>2.4640000000000004</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J70" s="7">
+        <f>H70 + CS!B5</f>
+        <v>2.6240000000000006</v>
+      </c>
+      <c r="K70" s="12">
+        <f>I70 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
         <v>69</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14">
+      <c r="B71" s="7">
+        <v>40</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="7">
         <v>6</v>
       </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="15"/>
+      <c r="H71" s="7">
+        <f t="shared" ref="H71:H72" si="4">H68</f>
+        <v>2.3040000000000003</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J71" s="7">
+        <f>H71 + CS!B5</f>
+        <v>2.4640000000000004</v>
+      </c>
+      <c r="K71" s="12">
+        <f>I71 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <v>70</v>
       </c>
-      <c r="B72" s="9">
-        <v>51</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E72" s="9">
-        <v>7</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9">
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="I72" s="9">
-        <v>0</v>
+      <c r="B72" s="7">
+        <v>41</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="7">
+        <v>6</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="4"/>
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0.16</v>
       </c>
       <c r="J72" s="7">
         <f>H72 + CS!B5</f>
-        <v>1.359</v>
+        <v>2.3040000000000003</v>
       </c>
       <c r="K72" s="12">
         <f>I72 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.33599999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="11">
+      <c r="A73" s="7">
         <v>71</v>
       </c>
-      <c r="B73" s="16">
-        <v>21</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="E73" s="7">
-        <v>7</v>
-      </c>
-      <c r="H73" s="7">
-        <f>CS!B2 + CS!B3 * (E73 - 1) * CS!B4 -0.065</f>
-        <v>0.95900000000000007</v>
-      </c>
-      <c r="I73" s="7">
-        <v>0</v>
-      </c>
-      <c r="J73" s="7">
-        <f>H73 + CS!B5</f>
-        <v>1.119</v>
-      </c>
-      <c r="K73" s="12">
-        <f>I73 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="11">
+      <c r="A74" s="7">
         <v>72</v>
       </c>
-      <c r="B74" s="16">
-        <v>22</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E74" s="7">
-        <v>7</v>
-      </c>
-      <c r="H74" s="7">
-        <f>H73-CS!B5</f>
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I74" s="7">
-        <v>0</v>
-      </c>
-      <c r="J74" s="7">
-        <f>H74 + CS!B5</f>
-        <v>0.95900000000000007</v>
-      </c>
-      <c r="K74" s="12">
-        <f>I74 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K74" s="12"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>73</v>
       </c>
-      <c r="B75" s="16">
-        <v>23</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E75" s="7">
+        <v>6</v>
+      </c>
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>74</v>
+      </c>
+      <c r="B76" s="13">
+        <v>80</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="13">
+        <v>6</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13">
+        <f>H66</f>
+        <v>2.6240000000000006</v>
+      </c>
+      <c r="I76" s="13">
+        <v>0</v>
+      </c>
+      <c r="J76" s="13">
+        <f>H76 + CS!B5</f>
+        <v>2.7840000000000007</v>
+      </c>
+      <c r="K76" s="14">
+        <f>I76 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9">
+        <v>51</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="9">
         <v>7</v>
       </c>
-      <c r="H75" s="7">
-        <f>H74 - CS!B5</f>
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="I75" s="7">
-        <v>0</v>
-      </c>
-      <c r="J75" s="7">
-        <f>H75 + CS!B5</f>
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="K75" s="12">
-        <f>I75 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="11">
-        <v>74</v>
-      </c>
-      <c r="B76" s="16">
-        <v>42</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" s="7">
-        <v>7</v>
-      </c>
-      <c r="H76" s="7">
-        <f>H73</f>
-        <v>0.95900000000000007</v>
-      </c>
-      <c r="I76" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="J76" s="7">
-        <f>H76 + CS!B5</f>
-        <v>1.119</v>
-      </c>
-      <c r="K76" s="12">
-        <f>I76 + CS!B6</f>
-        <v>0.33599999999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="11">
-        <v>75</v>
-      </c>
-      <c r="B77" s="16">
-        <v>43</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" s="7">
-        <v>7</v>
-      </c>
-      <c r="H77" s="7">
-        <f t="shared" ref="H77:H78" si="5">H74</f>
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I77" s="7">
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9">
+        <f>J78</f>
+        <v>1.8389999999999997</v>
+      </c>
+      <c r="I77" s="9">
         <v>0.16</v>
       </c>
       <c r="J77" s="7">
         <f>H77 + CS!B5</f>
-        <v>0.95900000000000007</v>
+        <v>1.9989999999999997</v>
       </c>
       <c r="K77" s="12">
         <f>I77 + CS!B6</f>
@@ -3715,293 +3906,286 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="11">
+      <c r="A78" s="7">
         <v>76</v>
       </c>
-      <c r="B78" s="16">
-        <v>44</v>
+      <c r="B78" s="7">
+        <v>21</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E78" s="7">
         <v>7</v>
       </c>
       <c r="H78" s="7">
-        <f t="shared" si="5"/>
-        <v>0.63900000000000001</v>
+        <f>CS!B2 + CS!B3 * (E78 - 1) * CS!B4 -0.065</f>
+        <v>1.6789999999999998</v>
       </c>
       <c r="I78" s="7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J78" s="7">
         <f>H78 + CS!B5</f>
-        <v>0.79900000000000004</v>
+        <v>1.8389999999999997</v>
       </c>
       <c r="K78" s="12">
         <f>I78 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="11">
+      <c r="A79" s="7">
         <v>77</v>
       </c>
-      <c r="B79" s="16"/>
+      <c r="B79" s="7">
+        <v>22</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="E79" s="7">
         <v>7</v>
       </c>
-      <c r="K79" s="12"/>
+      <c r="H79" s="7">
+        <f>H78-CS!B5</f>
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7">
+        <f>H79 + CS!B5</f>
+        <v>1.6789999999999998</v>
+      </c>
+      <c r="K79" s="12">
+        <f>I79 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="11">
+      <c r="A80" s="7">
         <v>78</v>
       </c>
-      <c r="B80" s="16"/>
+      <c r="B80" s="7">
+        <v>23</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="E80" s="7">
         <v>7</v>
       </c>
-      <c r="K80" s="12"/>
-    </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+      <c r="H80" s="7">
+        <f>H79 - CS!B5</f>
+        <v>1.359</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <f>H80 + CS!B5</f>
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="K80" s="12">
+        <f>I80 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
         <v>79</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14">
+      <c r="B81" s="7">
+        <v>42</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="7">
         <v>7</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="15"/>
+      <c r="H81" s="7">
+        <f>H78</f>
+        <v>1.6789999999999998</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J81" s="7">
+        <f>H81 + CS!B5</f>
+        <v>1.8389999999999997</v>
+      </c>
+      <c r="K81" s="12">
+        <f>I81 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+      <c r="A82" s="11">
         <v>80</v>
       </c>
-      <c r="B82" s="9">
-        <v>58</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" s="9">
-        <v>8</v>
-      </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0</v>
+      <c r="B82" s="7">
+        <v>43</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="7">
+        <v>7</v>
+      </c>
+      <c r="H82" s="7">
+        <f t="shared" ref="H82:H83" si="5">H79</f>
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0.16</v>
       </c>
       <c r="J82" s="7">
         <f>H82 + CS!B5</f>
-        <v>0.63900000000000001</v>
+        <v>1.6789999999999998</v>
       </c>
       <c r="K82" s="12">
         <f>I82 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.33599999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="11">
+      <c r="A83" s="7">
         <v>81</v>
       </c>
-      <c r="B83" s="16">
-        <v>52</v>
+      <c r="B83" s="7">
+        <v>44</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E83" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H83" s="7">
-        <f>CS!B2 + CS!B3 * (E83 - 1) * CS!B4 -0.015</f>
-        <v>0.28900000000000026</v>
+        <f t="shared" si="5"/>
+        <v>1.359</v>
       </c>
       <c r="I83" s="7">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J83" s="7">
         <f>H83 + CS!B5</f>
-        <v>0.44900000000000029</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="K83" s="12">
         <f>I83 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>82</v>
+      </c>
+      <c r="E84" s="7">
+        <v>7</v>
+      </c>
+      <c r="K84" s="12"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="E85" s="7">
+        <v>7</v>
+      </c>
+      <c r="K85" s="12"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>84</v>
+      </c>
+      <c r="E86" s="7">
+        <v>7</v>
+      </c>
+      <c r="K86" s="12"/>
+    </row>
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="13">
+        <v>81</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="13">
+        <v>7</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13">
+        <f>H77</f>
+        <v>1.8389999999999997</v>
+      </c>
+      <c r="I87" s="13">
+        <v>0</v>
+      </c>
+      <c r="J87" s="13">
+        <f>H87 + CS!B5</f>
+        <v>1.9989999999999997</v>
+      </c>
+      <c r="K87" s="14">
+        <f>I87 + CS!B6</f>
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
-        <v>82</v>
-      </c>
-      <c r="B84" s="16">
-        <v>53</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="7">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9">
+        <v>58</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" s="9">
         <v>8</v>
       </c>
-      <c r="H84" s="7">
-        <f>H83-CS!B5</f>
-        <v>0.12900000000000025</v>
-      </c>
-      <c r="I84" s="7">
-        <v>0</v>
-      </c>
-      <c r="J84" s="7">
-        <f>H84 + CS!B5</f>
-        <v>0.28900000000000026</v>
-      </c>
-      <c r="K84" s="12">
-        <f>I84 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="11">
-        <v>83</v>
-      </c>
-      <c r="B85" s="16">
-        <v>54</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E85" s="7">
-        <v>8</v>
-      </c>
-      <c r="H85" s="7">
-        <f>H84 - CS!B5</f>
-        <v>-3.099999999999975E-2</v>
-      </c>
-      <c r="I85" s="7">
-        <v>0</v>
-      </c>
-      <c r="J85" s="7">
-        <f>H85 + CS!B5</f>
-        <v>0.12900000000000025</v>
-      </c>
-      <c r="K85" s="12">
-        <f>I85 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="11">
-        <v>84</v>
-      </c>
-      <c r="B86" s="16">
-        <v>55</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="7">
-        <v>8</v>
-      </c>
-      <c r="H86" s="7">
-        <f>H83</f>
-        <v>0.28900000000000026</v>
-      </c>
-      <c r="I86" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="J86" s="7">
-        <f>H86 + CS!B5</f>
-        <v>0.44900000000000029</v>
-      </c>
-      <c r="K86" s="12">
-        <f>I86 + CS!B6</f>
-        <v>0.33599999999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="11">
-        <v>85</v>
-      </c>
-      <c r="B87" s="16">
-        <v>56</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87" s="7">
-        <v>8</v>
-      </c>
-      <c r="H87" s="7">
-        <f t="shared" ref="H87:H88" si="6">H84</f>
-        <v>0.12900000000000025</v>
-      </c>
-      <c r="I87" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="J87" s="7">
-        <f>H87 + CS!B5</f>
-        <v>0.28900000000000026</v>
-      </c>
-      <c r="K87" s="12">
-        <f>I87 + CS!B6</f>
-        <v>0.33599999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="11">
-        <v>86</v>
-      </c>
-      <c r="B88" s="16">
-        <v>57</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E88" s="7">
-        <v>8</v>
-      </c>
-      <c r="H88" s="7">
-        <f t="shared" si="6"/>
-        <v>-3.099999999999975E-2</v>
-      </c>
-      <c r="I88" s="7">
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9">
+        <f>J89</f>
+        <v>1.119</v>
+      </c>
+      <c r="I88" s="9">
         <v>0.16</v>
       </c>
       <c r="J88" s="7">
         <f>H88 + CS!B5</f>
-        <v>0.12900000000000025</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="K88" s="12">
         <f>I88 + CS!B6</f>
@@ -4012,38 +4196,541 @@
       <c r="A89" s="11">
         <v>87</v>
       </c>
-      <c r="B89" s="16"/>
+      <c r="B89" s="7">
+        <v>52</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="E89" s="7">
         <v>8</v>
       </c>
-      <c r="K89" s="12"/>
+      <c r="H89" s="7">
+        <f>CS!B2 + CS!B3 * (E89 - 1) * CS!B4 -0.065</f>
+        <v>0.95900000000000007</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <f>H89 + CS!B5</f>
+        <v>1.119</v>
+      </c>
+      <c r="K89" s="12">
+        <f>I89 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="11">
+      <c r="A90" s="7">
         <v>88</v>
       </c>
-      <c r="B90" s="16"/>
+      <c r="B90" s="7">
+        <v>53</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="E90" s="7">
         <v>8</v>
       </c>
-      <c r="K90" s="12"/>
-    </row>
-    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
+      <c r="H90" s="7">
+        <f>H89-CS!B5</f>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <f>H90 + CS!B5</f>
+        <v>0.95900000000000007</v>
+      </c>
+      <c r="K90" s="12">
+        <f>I90 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
         <v>89</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14">
+      <c r="B91" s="7">
+        <v>54</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" s="7">
         <v>8</v>
       </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="15"/>
+      <c r="H91" s="7">
+        <f>H90 - CS!B5</f>
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7">
+        <f>H91 + CS!B5</f>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="K91" s="12">
+        <f>I91 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>90</v>
+      </c>
+      <c r="B92" s="7">
+        <v>55</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="7">
+        <v>8</v>
+      </c>
+      <c r="H92" s="7">
+        <f>H89</f>
+        <v>0.95900000000000007</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J92" s="7">
+        <f>H92 + CS!B5</f>
+        <v>1.119</v>
+      </c>
+      <c r="K92" s="12">
+        <f>I92 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7">
+        <v>56</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E93" s="7">
+        <v>8</v>
+      </c>
+      <c r="H93" s="7">
+        <f t="shared" ref="H93:H94" si="6">H90</f>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J93" s="7">
+        <f>H93 + CS!B5</f>
+        <v>0.95900000000000007</v>
+      </c>
+      <c r="K93" s="12">
+        <f>I93 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>92</v>
+      </c>
+      <c r="B94" s="7">
+        <v>57</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E94" s="7">
+        <v>8</v>
+      </c>
+      <c r="H94" s="7">
+        <f t="shared" si="6"/>
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="I94" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J94" s="7">
+        <f>H94 + CS!B5</f>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="K94" s="12">
+        <f>I94 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="E95" s="7">
+        <v>8</v>
+      </c>
+      <c r="K95" s="12"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="11">
+        <v>94</v>
+      </c>
+      <c r="E96" s="7">
+        <v>8</v>
+      </c>
+      <c r="K96" s="12"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="E97" s="7">
+        <v>8</v>
+      </c>
+      <c r="K97" s="12"/>
+    </row>
+    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>96</v>
+      </c>
+      <c r="B98" s="13">
+        <v>82</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" s="13">
+        <v>8</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13">
+        <f>H88</f>
+        <v>1.119</v>
+      </c>
+      <c r="I98" s="13">
+        <v>0</v>
+      </c>
+      <c r="J98" s="13">
+        <f>H98 + CS!B5</f>
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="K98" s="14">
+        <f>I98 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="9">
+        <v>74</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E99" s="9">
+        <v>9</v>
+      </c>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9">
+        <f>J100</f>
+        <v>0.44900000000000029</v>
+      </c>
+      <c r="I99" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="J99" s="7">
+        <f>H99 + CS!B5</f>
+        <v>0.60900000000000032</v>
+      </c>
+      <c r="K99" s="12">
+        <f>I99 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <v>98</v>
+      </c>
+      <c r="B100" s="7">
+        <v>68</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E100" s="7">
+        <v>9</v>
+      </c>
+      <c r="H100" s="7">
+        <f>CS!B2 + CS!B3 * (E100 - 1) * CS!B4 -0.015</f>
+        <v>0.28900000000000026</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <f>H100 + CS!B5</f>
+        <v>0.44900000000000029</v>
+      </c>
+      <c r="K100" s="12">
+        <f>I100 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7">
+        <v>69</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="7">
+        <v>9</v>
+      </c>
+      <c r="H101" s="7">
+        <f>H100-CS!B5</f>
+        <v>0.12900000000000025</v>
+      </c>
+      <c r="I101" s="7">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7">
+        <f>H101 + CS!B5</f>
+        <v>0.28900000000000026</v>
+      </c>
+      <c r="K101" s="12">
+        <f>I101 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
+        <v>100</v>
+      </c>
+      <c r="B102" s="7">
+        <v>70</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="7">
+        <v>9</v>
+      </c>
+      <c r="H102" s="7">
+        <f>H101 - CS!B5</f>
+        <v>-3.099999999999975E-2</v>
+      </c>
+      <c r="I102" s="7">
+        <v>0</v>
+      </c>
+      <c r="J102" s="7">
+        <f>H102 + CS!B5</f>
+        <v>0.12900000000000025</v>
+      </c>
+      <c r="K102" s="12">
+        <f>I102 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="11">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7">
+        <v>71</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" s="7">
+        <v>9</v>
+      </c>
+      <c r="H103" s="7">
+        <f>H100</f>
+        <v>0.28900000000000026</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J103" s="7">
+        <f>H103 + CS!B5</f>
+        <v>0.44900000000000029</v>
+      </c>
+      <c r="K103" s="12">
+        <f>I103 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
+        <v>102</v>
+      </c>
+      <c r="B104" s="7">
+        <v>72</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" s="7">
+        <v>9</v>
+      </c>
+      <c r="H104" s="7">
+        <f t="shared" ref="H104:H105" si="7">H101</f>
+        <v>0.12900000000000025</v>
+      </c>
+      <c r="I104" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J104" s="7">
+        <f>H104 + CS!B5</f>
+        <v>0.28900000000000026</v>
+      </c>
+      <c r="K104" s="12">
+        <f>I104 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="7">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7">
+        <v>73</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E105" s="7">
+        <v>9</v>
+      </c>
+      <c r="H105" s="7">
+        <f t="shared" si="7"/>
+        <v>-3.099999999999975E-2</v>
+      </c>
+      <c r="I105" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J105" s="7">
+        <f>H105 + CS!B5</f>
+        <v>0.12900000000000025</v>
+      </c>
+      <c r="K105" s="12">
+        <f>I105 + CS!B6</f>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
+        <v>104</v>
+      </c>
+      <c r="E106" s="7">
+        <v>9</v>
+      </c>
+      <c r="K106" s="12"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
+        <v>105</v>
+      </c>
+      <c r="E107" s="7">
+        <v>9</v>
+      </c>
+      <c r="K107" s="12"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
+        <v>106</v>
+      </c>
+      <c r="E108" s="7">
+        <v>9</v>
+      </c>
+      <c r="K108" s="12"/>
+    </row>
+    <row r="109" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>107</v>
+      </c>
+      <c r="B109" s="13">
+        <v>83</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E109" s="13">
+        <v>9</v>
+      </c>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13">
+        <f>H99</f>
+        <v>0.44900000000000029</v>
+      </c>
+      <c r="I109" s="13">
+        <v>0</v>
+      </c>
+      <c r="J109" s="13">
+        <f>H109 + CS!B5</f>
+        <v>0.60900000000000032</v>
+      </c>
+      <c r="K109" s="14">
+        <f>I109 + CS!B6</f>
+        <v>0.17599999999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -4056,7 +4743,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4067,15 +4754,15 @@
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2">
-        <v>5.3440000000000003</v>
+        <v>6.0640000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="4">
         <v>0.72</v>
@@ -4083,7 +4770,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="4">
         <v>-1</v>
@@ -4091,7 +4778,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4">
         <v>0.16</v>
@@ -4099,7 +4786,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="4">
         <v>0.17599999999999999</v>

--- a/my6D/ReadLayout/rectangles.xlsx
+++ b/my6D/ReadLayout/rectangles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\32_Python\myPyTools\my6D\ReadLayout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0461391A-EEF8-4BB1-BA8C-E72C0F8EEC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F511C65A-88DB-48F2-B162-92B1FF2403C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCC243-ACCA-44A9-A2FE-667A1A52F0CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>index</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -153,516 +153,532 @@
     <t>ST3BufferPos3Area</t>
   </si>
   <si>
+    <t>ST1ProcessPos1Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST3ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST1ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST1ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST1ReadyPos1Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST1ReadyPos2Area</t>
+  </si>
+  <si>
+    <t>ST1ReadyPos3Area</t>
+  </si>
+  <si>
+    <t>move_assemble_x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_assemble_y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom_left_x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST2BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST2ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST2ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST3BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST3BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST3ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST3ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST4BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST4BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST4BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST4ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST4ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST4ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST5BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST5BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST5BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST5ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST5ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST5ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST6BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST6BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST6BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST6ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST6ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST6ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST7BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST7BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST7BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST7ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST7ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST7ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST8BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST8BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST8BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST8ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST8ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST8ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>S4C1</t>
+  </si>
+  <si>
+    <t>S4B1</t>
+  </si>
+  <si>
+    <t>S4B2</t>
+  </si>
+  <si>
+    <t>S4B3</t>
+  </si>
+  <si>
+    <t>S4P1</t>
+  </si>
+  <si>
+    <t>S4P2</t>
+  </si>
+  <si>
+    <t>S4P3</t>
+  </si>
+  <si>
+    <t>S5C1</t>
+  </si>
+  <si>
+    <t>S5B1</t>
+  </si>
+  <si>
+    <t>S5B2</t>
+  </si>
+  <si>
+    <t>S5B3</t>
+  </si>
+  <si>
+    <t>S5P1</t>
+  </si>
+  <si>
+    <t>S5P2</t>
+  </si>
+  <si>
+    <t>S5P3</t>
+  </si>
+  <si>
+    <t>S6C1</t>
+  </si>
+  <si>
+    <t>S6B1</t>
+  </si>
+  <si>
+    <t>S6B2</t>
+  </si>
+  <si>
+    <t>S6B3</t>
+  </si>
+  <si>
+    <t>S6P1</t>
+  </si>
+  <si>
+    <t>S6P2</t>
+  </si>
+  <si>
+    <t>S6P3</t>
+  </si>
+  <si>
+    <t>S7C1</t>
+  </si>
+  <si>
+    <t>S7B1</t>
+  </si>
+  <si>
+    <t>S7B2</t>
+  </si>
+  <si>
+    <t>S7B3</t>
+  </si>
+  <si>
+    <t>S7P1</t>
+  </si>
+  <si>
+    <t>S7P2</t>
+  </si>
+  <si>
+    <t>S7P3</t>
+  </si>
+  <si>
+    <t>S8B1</t>
+  </si>
+  <si>
+    <t>S8B2</t>
+  </si>
+  <si>
+    <t>S8B3</t>
+  </si>
+  <si>
+    <t>S8P1</t>
+  </si>
+  <si>
+    <t>S8P2</t>
+  </si>
+  <si>
+    <t>ST1_BUFFER_AREA_START_X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATION_DISTANCE_X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATION_DIRECTION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_LENGTH_X_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_LENGTH_Y_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom_left_y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right_x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right_y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos1Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos3Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ConnectArea</t>
+  </si>
+  <si>
+    <t>ST4ConnectArea</t>
+  </si>
+  <si>
+    <t>ST5ConnectArea</t>
+  </si>
+  <si>
+    <t>ST6ConnectArea</t>
+  </si>
+  <si>
+    <t>ST7ConnectArea</t>
+  </si>
+  <si>
+    <t>LoadShuttleArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST9ConnectArea</t>
+  </si>
+  <si>
+    <t>ST9BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST9BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST9BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST9ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST9ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST9ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>S9C1</t>
+  </si>
+  <si>
+    <t>S9B1</t>
+  </si>
+  <si>
+    <t>S9B2</t>
+  </si>
+  <si>
+    <t>S9B3</t>
+  </si>
+  <si>
+    <t>S9P1</t>
+  </si>
+  <si>
+    <t>S9P2</t>
+  </si>
+  <si>
+    <t>TestArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZonePowerOnArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZonePower</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST1ConnectArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST1Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST3Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST4Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST5Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST6Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST7Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST8Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8P3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8C1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST9Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9P3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1_BOTTOM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2_BOTTOM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3_BOTTOM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>ST1BufferPos2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ST1BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST1ProcessPos1Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST3ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST1ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST1ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST1ReadyPos1Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST1ReadyPos2Area</t>
-  </si>
-  <si>
-    <t>ST1ReadyPos3Area</t>
-  </si>
-  <si>
-    <t>move_assemble_x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>move_assemble_y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bottom_left_x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST2BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST2ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST2ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST3BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST3BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST3ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST3ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST4BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST4BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST4BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST4ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST4ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST4ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST5BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST5BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST5BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST5ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST5ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST5ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST6BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST6BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST6BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST6ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST6ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST6ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST7BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST7BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST7BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST7ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST7ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST7ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST8BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST8BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST8BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST8ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST8ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST8ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>S4C1</t>
-  </si>
-  <si>
-    <t>S4B1</t>
-  </si>
-  <si>
-    <t>S4B2</t>
-  </si>
-  <si>
-    <t>S4B3</t>
-  </si>
-  <si>
-    <t>S4P1</t>
-  </si>
-  <si>
-    <t>S4P2</t>
-  </si>
-  <si>
-    <t>S4P3</t>
-  </si>
-  <si>
-    <t>S5C1</t>
-  </si>
-  <si>
-    <t>S5B1</t>
-  </si>
-  <si>
-    <t>S5B2</t>
-  </si>
-  <si>
-    <t>S5B3</t>
-  </si>
-  <si>
-    <t>S5P1</t>
-  </si>
-  <si>
-    <t>S5P2</t>
-  </si>
-  <si>
-    <t>S5P3</t>
-  </si>
-  <si>
-    <t>S6C1</t>
-  </si>
-  <si>
-    <t>S6B1</t>
-  </si>
-  <si>
-    <t>S6B2</t>
-  </si>
-  <si>
-    <t>S6B3</t>
-  </si>
-  <si>
-    <t>S6P1</t>
-  </si>
-  <si>
-    <t>S6P2</t>
-  </si>
-  <si>
-    <t>S6P3</t>
-  </si>
-  <si>
-    <t>S7C1</t>
-  </si>
-  <si>
-    <t>S7B1</t>
-  </si>
-  <si>
-    <t>S7B2</t>
-  </si>
-  <si>
-    <t>S7B3</t>
-  </si>
-  <si>
-    <t>S7P1</t>
-  </si>
-  <si>
-    <t>S7P2</t>
-  </si>
-  <si>
-    <t>S7P3</t>
-  </si>
-  <si>
-    <t>S8B1</t>
-  </si>
-  <si>
-    <t>S8B2</t>
-  </si>
-  <si>
-    <t>S8B3</t>
-  </si>
-  <si>
-    <t>S8P1</t>
-  </si>
-  <si>
-    <t>S8P2</t>
-  </si>
-  <si>
-    <t>ST1_BUFFER_AREA_START_X</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATION_DISTANCE_X</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATION_DIRECTION</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_LENGTH_X_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_LENGTH_Y_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bottom_left_y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right_x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right_y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ReadyPos1Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ReadyPos2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ReadyPos3Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2R1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2R2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2R3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ConnectArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ST3ConnectArea</t>
-  </si>
-  <si>
-    <t>ST4ConnectArea</t>
-  </si>
-  <si>
-    <t>ST5ConnectArea</t>
-  </si>
-  <si>
-    <t>ST6ConnectArea</t>
-  </si>
-  <si>
-    <t>ST7ConnectArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ST8ConnectArea</t>
-  </si>
-  <si>
-    <t>LoadShuttleArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Load</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ready</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST9ConnectArea</t>
-  </si>
-  <si>
-    <t>ST9BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST9BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST9BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST9ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST9ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST9ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>S9C1</t>
-  </si>
-  <si>
-    <t>S9B1</t>
-  </si>
-  <si>
-    <t>S9B2</t>
-  </si>
-  <si>
-    <t>S9B3</t>
-  </si>
-  <si>
-    <t>S9P1</t>
-  </si>
-  <si>
-    <t>S9P2</t>
-  </si>
-  <si>
-    <t>TestArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackStop</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZonePowerOnArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZonePower</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST1ConnectArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST1Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST3Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST4Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S4C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST5Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST6Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S6C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST7Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S7C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST8Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8P3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8C1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST9Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9P3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackStopArea</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1336,7 +1352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,6 +1396,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1757,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FED1504-B951-4F1D-A034-DA0B86FDB2F6}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:K18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1775,7 +1794,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1790,22 +1809,22 @@
         <v>26</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="I1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1819,18 +1838,24 @@
         <v>27</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="9">
+        <f>(J2-H2)/2 + H2</f>
+        <v>4.88</v>
+      </c>
+      <c r="G2" s="9">
+        <f>(K2-I2)/2 + I2</f>
+        <v>0.432</v>
+      </c>
       <c r="H2" s="9">
         <v>4.8</v>
       </c>
       <c r="I2" s="9">
-        <v>0.32</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J2" s="9">
         <f>H2 + CS!B5</f>
@@ -1838,7 +1863,7 @@
       </c>
       <c r="K2" s="10">
         <f>I2 + CS!B6</f>
-        <v>0.496</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1849,19 +1874,26 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
+      <c r="F3" s="7">
+        <f>4.3</f>
+        <v>4.3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.432</v>
+      </c>
       <c r="H3" s="7">
         <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>0.32</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J3" s="7">
         <v>4.68</v>
@@ -1878,12 +1910,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>0</v>
       </c>
       <c r="H4" s="7">
@@ -1907,12 +1945,18 @@
         <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>0</v>
       </c>
       <c r="H5" s="7">
@@ -1936,12 +1980,18 @@
         <v>66</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="7">
@@ -1965,12 +2015,18 @@
         <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="7">
@@ -1994,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2032,7 +2088,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>23</v>
@@ -2040,22 +2096,29 @@
       <c r="E12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="9">
+        <f>(J12-H12)/2 + H12</f>
+        <v>6.3</v>
+      </c>
+      <c r="G12" s="9">
+        <f>(K12-I12)/2 + I12</f>
+        <v>0.24</v>
+      </c>
       <c r="H12" s="9">
         <f>J13</f>
-        <v>6.2240000000000002</v>
+        <v>6.22</v>
       </c>
       <c r="I12" s="9">
-        <v>0.16</v>
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J12" s="9">
         <f>H12 + CS!B5</f>
-        <v>6.3840000000000003</v>
+        <v>6.38</v>
       </c>
       <c r="K12" s="10">
         <f>I12 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2074,20 +2137,29 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
+      <c r="F13" s="7">
+        <f>(J13-H13)/2 + H13</f>
+        <v>6.14</v>
+      </c>
+      <c r="G13" s="7">
+        <f>(K13-I13)/2 + I13</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H13" s="7">
         <f>CS!B2 + CS!B3 * (E12 - 1) * CS!B4</f>
-        <v>6.0640000000000001</v>
+        <v>6.06</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J13" s="7">
         <f>H13+CS!B5</f>
-        <v>6.2240000000000002</v>
+        <v>6.22</v>
       </c>
       <c r="K13" s="12">
         <f>I13+CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2098,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>2</v>
@@ -2106,20 +2178,29 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14:F22" si="0">(J14-H14)/2 + H14</f>
+        <v>5.9799999999999995</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" ref="G14:G22" si="1">(K14-I14)/2 + I14</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H14" s="7">
         <f>H13 - CS!B5</f>
-        <v>5.9039999999999999</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J14" s="7">
         <f>H14+CS!B5</f>
-        <v>6.0640000000000001</v>
+        <v>6.06</v>
       </c>
       <c r="K14" s="12">
         <f>I14+CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2130,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>3</v>
@@ -2138,20 +2219,29 @@
       <c r="E15" s="7">
         <v>1</v>
       </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>5.8199999999999994</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H15" s="7">
         <f>H14 - CS!B5</f>
-        <v>5.7439999999999998</v>
+        <v>5.7399999999999993</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J15" s="7">
         <f>H15+CS!B5</f>
-        <v>5.9039999999999999</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="K15" s="12">
         <f>I15+CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2162,7 +2252,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
@@ -2170,20 +2260,29 @@
       <c r="E16" s="7">
         <v>1</v>
       </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>6.14</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
       <c r="H16" s="7">
         <f>H13</f>
-        <v>6.0640000000000001</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0.16</v>
+        <v>6.06</v>
+      </c>
+      <c r="I16" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J16" s="7">
         <f>H16+CS!B5</f>
-        <v>6.2240000000000002</v>
+        <v>6.22</v>
       </c>
       <c r="K16" s="12">
         <f>I16+CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -2194,7 +2293,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>8</v>
@@ -2202,20 +2301,29 @@
       <c r="E17" s="7">
         <v>1</v>
       </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9799999999999995</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
       <c r="H17" s="7">
         <f>H14</f>
-        <v>5.9039999999999999</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0.16</v>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="I17" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J17" s="7">
         <f>H17+CS!B5</f>
-        <v>6.0640000000000001</v>
+        <v>6.06</v>
       </c>
       <c r="K17" s="12">
         <f>I17+CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2226,7 +2334,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>9</v>
@@ -2234,20 +2342,29 @@
       <c r="E18" s="7">
         <v>1</v>
       </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>5.8199999999999994</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
       <c r="H18" s="7">
         <f>H15</f>
-        <v>5.7439999999999998</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0.16</v>
+        <v>5.7399999999999993</v>
+      </c>
+      <c r="I18" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J18" s="7">
         <f>H18+CS!B5</f>
-        <v>5.9039999999999999</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="K18" s="12">
         <f>I18+CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -2258,7 +2375,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>10</v>
@@ -2266,20 +2383,29 @@
       <c r="E19" s="7">
         <v>1</v>
       </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>6.14</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.432</v>
+      </c>
       <c r="H19" s="7">
         <f>H13</f>
-        <v>6.0640000000000001</v>
+        <v>6.06</v>
       </c>
       <c r="I19" s="7">
-        <v>0.32</v>
+        <f>CS!B13</f>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J19" s="7">
         <f>H19+CS!B5</f>
-        <v>6.2240000000000002</v>
+        <v>6.22</v>
       </c>
       <c r="K19" s="12">
         <f>I19+CS!B6</f>
-        <v>0.496</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -2290,7 +2416,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>11</v>
@@ -2298,20 +2424,29 @@
       <c r="E20" s="7">
         <v>1</v>
       </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9799999999999995</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.432</v>
+      </c>
       <c r="H20" s="7">
         <f>H14</f>
-        <v>5.9039999999999999</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="I20" s="7">
-        <v>0.32</v>
+        <f>CS!B13</f>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J20" s="7">
         <f>H20+CS!B5</f>
-        <v>6.0640000000000001</v>
+        <v>6.06</v>
       </c>
       <c r="K20" s="12">
         <f>I20+CS!B6</f>
-        <v>0.496</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -2322,7 +2457,7 @@
         <v>61</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>12</v>
@@ -2330,20 +2465,29 @@
       <c r="E21" s="7">
         <v>1</v>
       </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>5.8199999999999994</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.432</v>
+      </c>
       <c r="H21" s="7">
         <f>H15</f>
-        <v>5.7439999999999998</v>
+        <v>5.7399999999999993</v>
       </c>
       <c r="I21" s="7">
-        <v>0.32</v>
+        <f>CS!B13</f>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J21" s="7">
         <f>H21+CS!B5</f>
-        <v>5.9039999999999999</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="K21" s="12">
         <f>I21+CS!B6</f>
-        <v>0.496</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2354,28 +2498,37 @@
         <v>75</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
       </c>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H22" s="7">
         <f>H12</f>
-        <v>6.2240000000000002</v>
+        <v>6.22</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J22" s="7">
         <f>H22+CS!B5</f>
-        <v>6.3840000000000003</v>
+        <v>6.38</v>
       </c>
       <c r="K22" s="12">
         <f>I22+CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2386,7 +2539,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>24</v>
@@ -2394,22 +2547,29 @@
       <c r="E23" s="9">
         <v>2</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="F23" s="9">
+        <f>(J23-H23)/2 + H23</f>
+        <v>5.58</v>
+      </c>
+      <c r="G23" s="9">
+        <f>(K23-I23)/2 + I23</f>
+        <v>0.24</v>
+      </c>
       <c r="H23" s="9">
         <f>J24</f>
-        <v>5.5040000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="I23" s="9">
-        <v>0.16</v>
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J23" s="9">
         <f>H23 + CS!B5</f>
-        <v>5.6640000000000006</v>
+        <v>5.66</v>
       </c>
       <c r="K23" s="10">
         <f>I23 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2420,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>13</v>
@@ -2428,20 +2588,29 @@
       <c r="E24" s="7">
         <v>2</v>
       </c>
+      <c r="F24" s="7">
+        <f>(J24-H24)/2 + H24</f>
+        <v>5.42</v>
+      </c>
+      <c r="G24" s="7">
+        <f>(K24-I24)/2 + I24</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H24" s="7">
         <f>CS!B2 + CS!B3 * (E23 - 1) * CS!B4</f>
-        <v>5.3440000000000003</v>
+        <v>5.34</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J24" s="7">
         <f>H24 + CS!B5</f>
-        <v>5.5040000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="K24" s="12">
         <f>I24 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2460,20 +2629,29 @@
       <c r="E25" s="7">
         <v>2</v>
       </c>
+      <c r="F25" s="7">
+        <f t="shared" ref="F25:F33" si="2">(J25-H25)/2 + H25</f>
+        <v>5.26</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" ref="G25:G33" si="3">(K25-I25)/2 + I25</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H25" s="7">
         <f>H24 - CS!B5</f>
-        <v>5.1840000000000002</v>
+        <v>5.18</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J25" s="7">
         <f>H25 + CS!B5</f>
-        <v>5.3440000000000003</v>
+        <v>5.34</v>
       </c>
       <c r="K25" s="12">
         <f>I25 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2484,7 +2662,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>14</v>
@@ -2492,20 +2670,29 @@
       <c r="E26" s="7">
         <v>2</v>
       </c>
+      <c r="F26" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H26" s="7">
         <f>H25 - CS!B5</f>
-        <v>5.024</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J26" s="7">
         <f>H26 + CS!B5</f>
-        <v>5.1840000000000002</v>
+        <v>5.18</v>
       </c>
       <c r="K26" s="12">
         <f>I26 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2516,7 +2703,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>15</v>
@@ -2524,20 +2711,29 @@
       <c r="E27" s="7">
         <v>2</v>
       </c>
+      <c r="F27" s="7">
+        <f t="shared" si="2"/>
+        <v>5.42</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
       <c r="H27" s="7">
         <f>H24</f>
-        <v>5.3440000000000003</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0.16</v>
+        <v>5.34</v>
+      </c>
+      <c r="I27" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J27" s="7">
         <f>H27 + CS!B5</f>
-        <v>5.5040000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="K27" s="12">
         <f>I27 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2548,7 +2744,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>16</v>
@@ -2556,20 +2752,29 @@
       <c r="E28" s="7">
         <v>2</v>
       </c>
+      <c r="F28" s="7">
+        <f t="shared" si="2"/>
+        <v>5.26</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
       <c r="H28" s="7">
-        <f t="shared" ref="H28:H32" si="0">H25</f>
-        <v>5.1840000000000002</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0.16</v>
+        <f t="shared" ref="H28:H32" si="4">H25</f>
+        <v>5.18</v>
+      </c>
+      <c r="I28" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J28" s="7">
         <f>H28 + CS!B5</f>
-        <v>5.3440000000000003</v>
+        <v>5.34</v>
       </c>
       <c r="K28" s="12">
         <f>I28 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2580,7 +2785,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>17</v>
@@ -2588,20 +2793,29 @@
       <c r="E29" s="7">
         <v>2</v>
       </c>
+      <c r="F29" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
-        <v>5.024</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0.16</v>
+        <f t="shared" si="4"/>
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I29" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J29" s="7">
         <f>H29 + CS!B5</f>
-        <v>5.1840000000000002</v>
+        <v>5.18</v>
       </c>
       <c r="K29" s="12">
         <f>I29 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2612,28 +2826,37 @@
         <v>62</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
       </c>
+      <c r="F30" s="7">
+        <f t="shared" si="2"/>
+        <v>5.42</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="3"/>
+        <v>0.432</v>
+      </c>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
-        <v>5.3440000000000003</v>
+        <f t="shared" si="4"/>
+        <v>5.34</v>
       </c>
       <c r="I30" s="7">
-        <v>0.32</v>
+        <f>CS!B13</f>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J30" s="7">
         <f>H30 + CS!B5</f>
-        <v>5.5040000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="K30" s="12">
         <f>I30 + CS!B6</f>
-        <v>0.496</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2644,28 +2867,37 @@
         <v>63</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E31" s="7">
         <v>2</v>
       </c>
+      <c r="F31" s="7">
+        <f t="shared" si="2"/>
+        <v>5.26</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="3"/>
+        <v>0.432</v>
+      </c>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
-        <v>5.1840000000000002</v>
+        <f t="shared" si="4"/>
+        <v>5.18</v>
       </c>
       <c r="I31" s="7">
-        <v>0.32</v>
+        <f>CS!B13</f>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J31" s="7">
         <f>H31 + CS!B5</f>
-        <v>5.3440000000000003</v>
+        <v>5.34</v>
       </c>
       <c r="K31" s="12">
         <f>I31 + CS!B6</f>
-        <v>0.496</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2676,28 +2908,37 @@
         <v>64</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E32" s="7">
         <v>2</v>
       </c>
+      <c r="F32" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="3"/>
+        <v>0.432</v>
+      </c>
       <c r="H32" s="7">
-        <f t="shared" si="0"/>
-        <v>5.024</v>
+        <f t="shared" si="4"/>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I32" s="7">
-        <v>0.32</v>
+        <f>CS!B13</f>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J32" s="7">
         <f>H32 + CS!B5</f>
-        <v>5.1840000000000002</v>
+        <v>5.18</v>
       </c>
       <c r="K32" s="12">
         <f>I32 + CS!B6</f>
-        <v>0.496</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2708,28 +2949,37 @@
         <v>76</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
       </c>
+      <c r="F33" s="7">
+        <f t="shared" si="2"/>
+        <v>5.58</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H33" s="7">
         <f>H23</f>
-        <v>5.5040000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="I33" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J33" s="7">
         <f>H33 + CS!B5</f>
-        <v>5.6640000000000006</v>
+        <v>5.66</v>
       </c>
       <c r="K33" s="12">
         <f>I33 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -2740,7 +2990,7 @@
         <v>47</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>25</v>
@@ -2748,22 +2998,29 @@
       <c r="E34" s="9">
         <v>3</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="F34" s="9">
+        <f>(J34-H34)/2 + H34</f>
+        <v>4.8599999999999994</v>
+      </c>
+      <c r="G34" s="9">
+        <f>(K34-I34)/2 + I34</f>
+        <v>0.24</v>
+      </c>
       <c r="H34" s="9">
         <f>J35</f>
-        <v>4.7840000000000007</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="I34" s="9">
-        <v>0.16</v>
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J34" s="9">
         <f>H34 + CS!B5</f>
-        <v>4.9440000000000008</v>
+        <v>4.9399999999999995</v>
       </c>
       <c r="K34" s="10">
         <f>I34 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2774,7 +3031,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>18</v>
@@ -2782,20 +3039,29 @@
       <c r="E35" s="7">
         <v>3</v>
       </c>
+      <c r="F35" s="7">
+        <f>(J35-H35)/2 + H35</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="G35" s="7">
+        <f>(K35-I35)/2 + I35</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H35" s="7">
         <f>CS!B2 + CS!B3 * (E35 - 1) * CS!B4</f>
-        <v>4.6240000000000006</v>
+        <v>4.6199999999999992</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J35" s="7">
         <f>H35 + CS!B5</f>
-        <v>4.7840000000000007</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="K35" s="12">
         <f>I35 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -2806,7 +3072,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>19</v>
@@ -2814,20 +3080,29 @@
       <c r="E36" s="7">
         <v>3</v>
       </c>
+      <c r="F36" s="7">
+        <f t="shared" ref="F36:F44" si="5">(J36-H36)/2 + H36</f>
+        <v>4.5399999999999991</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" ref="G36:G44" si="6">(K36-I36)/2 + I36</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H36" s="7">
         <f>H35-CS!B5</f>
-        <v>4.4640000000000004</v>
+        <v>4.4599999999999991</v>
       </c>
       <c r="I36" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J36" s="7">
         <f>H36 + CS!B5</f>
-        <v>4.6240000000000006</v>
+        <v>4.6199999999999992</v>
       </c>
       <c r="K36" s="12">
         <f>I36 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -2846,20 +3121,29 @@
       <c r="E37" s="7">
         <v>3</v>
       </c>
+      <c r="F37" s="7">
+        <f t="shared" si="5"/>
+        <v>4.379999999999999</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="6"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H37" s="7">
         <f>H36 - CS!B5</f>
-        <v>4.3040000000000003</v>
+        <v>4.2999999999999989</v>
       </c>
       <c r="I37" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J37" s="7">
         <f>H37 + CS!B5</f>
-        <v>4.4640000000000004</v>
+        <v>4.4599999999999991</v>
       </c>
       <c r="K37" s="12">
         <f>I37 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -2870,7 +3154,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>20</v>
@@ -2878,20 +3162,29 @@
       <c r="E38" s="7">
         <v>3</v>
       </c>
+      <c r="F38" s="7">
+        <f t="shared" si="5"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="6"/>
+        <v>0.24</v>
+      </c>
       <c r="H38" s="7">
         <f>H35</f>
-        <v>4.6240000000000006</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0.16</v>
+        <v>4.6199999999999992</v>
+      </c>
+      <c r="I38" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J38" s="7">
         <f>H38 + CS!B5</f>
-        <v>4.7840000000000007</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="K38" s="12">
         <f>I38 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2902,7 +3195,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>21</v>
@@ -2910,20 +3203,29 @@
       <c r="E39" s="7">
         <v>3</v>
       </c>
+      <c r="F39" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5399999999999991</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="6"/>
+        <v>0.24</v>
+      </c>
       <c r="H39" s="7">
-        <f t="shared" ref="H39:H40" si="1">H36</f>
-        <v>4.4640000000000004</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0.16</v>
+        <f t="shared" ref="H39:H40" si="7">H36</f>
+        <v>4.4599999999999991</v>
+      </c>
+      <c r="I39" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J39" s="7">
         <f>H39 + CS!B5</f>
-        <v>4.6240000000000006</v>
+        <v>4.6199999999999992</v>
       </c>
       <c r="K39" s="12">
         <f>I39 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2934,7 +3236,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>22</v>
@@ -2942,20 +3244,29 @@
       <c r="E40" s="7">
         <v>3</v>
       </c>
+      <c r="F40" s="7">
+        <f t="shared" si="5"/>
+        <v>4.379999999999999</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="6"/>
+        <v>0.24</v>
+      </c>
       <c r="H40" s="7">
-        <f t="shared" si="1"/>
-        <v>4.3040000000000003</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0.16</v>
+        <f t="shared" si="7"/>
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="I40" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J40" s="7">
         <f>H40 + CS!B5</f>
-        <v>4.4640000000000004</v>
+        <v>4.4599999999999991</v>
       </c>
       <c r="K40" s="12">
         <f>I40 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2965,6 +3276,14 @@
       <c r="E41" s="7">
         <v>3</v>
       </c>
+      <c r="F41" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2974,6 +3293,14 @@
       <c r="E42" s="7">
         <v>3</v>
       </c>
+      <c r="F42" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -2983,6 +3310,14 @@
       <c r="E43" s="7">
         <v>3</v>
       </c>
+      <c r="F43" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2993,30 +3328,37 @@
         <v>77</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E44" s="13">
         <v>3</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="F44" s="7">
+        <f t="shared" si="5"/>
+        <v>4.8599999999999994</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="6"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H44" s="7">
         <f>H34</f>
-        <v>4.7840000000000007</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J44" s="13">
         <f>H44 + CS!B5</f>
-        <v>4.9440000000000008</v>
+        <v>4.9399999999999995</v>
       </c>
       <c r="K44" s="14">
         <f>I44 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3027,30 +3369,37 @@
         <v>48</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E45" s="9">
         <v>4</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="F45" s="9">
+        <f>(J45-H45)/2 + H45</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="G45" s="9">
+        <f>(K45-I45)/2 + I45</f>
+        <v>0.24</v>
+      </c>
       <c r="H45" s="9">
         <f>J46</f>
-        <v>4.0640000000000001</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="I45" s="9">
-        <v>0.16</v>
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J45" s="7">
         <f>H45 + CS!B5</f>
-        <v>4.2240000000000002</v>
+        <v>4.22</v>
       </c>
       <c r="K45" s="12">
         <f>I45 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3061,28 +3410,37 @@
         <v>12</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E46" s="7">
         <v>4</v>
       </c>
+      <c r="F46" s="7">
+        <f>(J46-H46)/2 + H46</f>
+        <v>3.9799999999999995</v>
+      </c>
+      <c r="G46" s="7">
+        <f>(K46-I46)/2 + I46</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H46" s="7">
         <f>CS!B2 + CS!B3 * (E46 - 1) * CS!B4</f>
-        <v>3.9039999999999999</v>
+        <v>3.8999999999999995</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J46" s="7">
         <f>H46 + CS!B5</f>
-        <v>4.0640000000000001</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="K46" s="12">
         <f>I46 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3093,28 +3451,37 @@
         <v>13</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47" s="7">
         <v>4</v>
       </c>
+      <c r="F47" s="7">
+        <f t="shared" ref="F47:F55" si="8">(J47-H47)/2 + H47</f>
+        <v>3.8199999999999994</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" ref="G47:G55" si="9">(K47-I47)/2 + I47</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H47" s="7">
         <f>H46-CS!B5</f>
-        <v>3.7439999999999998</v>
+        <v>3.7399999999999993</v>
       </c>
       <c r="I47" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J47" s="7">
         <f>H47 + CS!B5</f>
-        <v>3.9039999999999999</v>
+        <v>3.8999999999999995</v>
       </c>
       <c r="K47" s="12">
         <f>I47 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3125,28 +3492,37 @@
         <v>14</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E48" s="7">
         <v>4</v>
       </c>
+      <c r="F48" s="7">
+        <f t="shared" si="8"/>
+        <v>3.6599999999999993</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="9"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H48" s="7">
         <f>H47-CS!B5</f>
-        <v>3.5839999999999996</v>
+        <v>3.5799999999999992</v>
       </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J48" s="7">
         <f>H48 + CS!B5</f>
-        <v>3.7439999999999998</v>
+        <v>3.7399999999999993</v>
       </c>
       <c r="K48" s="12">
         <f>I48 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3157,28 +3533,37 @@
         <v>33</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E49" s="7">
         <v>4</v>
       </c>
+      <c r="F49" s="7">
+        <f t="shared" si="8"/>
+        <v>3.9799999999999995</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="9"/>
+        <v>0.24</v>
+      </c>
       <c r="H49" s="7">
         <f>H46</f>
-        <v>3.9039999999999999</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0.16</v>
+        <v>3.8999999999999995</v>
+      </c>
+      <c r="I49" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J49" s="7">
         <f>H49 + CS!B5</f>
-        <v>4.0640000000000001</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="K49" s="12">
         <f>I49 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -3189,28 +3574,37 @@
         <v>34</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E50" s="7">
         <v>4</v>
       </c>
+      <c r="F50" s="7">
+        <f t="shared" si="8"/>
+        <v>3.8199999999999994</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="9"/>
+        <v>0.24</v>
+      </c>
       <c r="H50" s="7">
-        <f t="shared" ref="H50:H51" si="2">H47</f>
-        <v>3.7439999999999998</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0.16</v>
+        <f t="shared" ref="H50:H51" si="10">H47</f>
+        <v>3.7399999999999993</v>
+      </c>
+      <c r="I50" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J50" s="7">
         <f>H50 + CS!B5</f>
-        <v>3.9039999999999999</v>
+        <v>3.8999999999999995</v>
       </c>
       <c r="K50" s="12">
         <f>I50 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -3221,28 +3615,37 @@
         <v>35</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E51" s="7">
         <v>4</v>
       </c>
+      <c r="F51" s="7">
+        <f t="shared" si="8"/>
+        <v>3.6599999999999993</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="9"/>
+        <v>0.24</v>
+      </c>
       <c r="H51" s="7">
-        <f t="shared" si="2"/>
-        <v>3.5839999999999996</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0.16</v>
+        <f t="shared" si="10"/>
+        <v>3.5799999999999992</v>
+      </c>
+      <c r="I51" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J51" s="7">
         <f>H51 + CS!B5</f>
-        <v>3.7439999999999998</v>
+        <v>3.7399999999999993</v>
       </c>
       <c r="K51" s="12">
         <f>I51 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -3252,115 +3655,130 @@
       <c r="E52" s="7">
         <v>4</v>
       </c>
+      <c r="F52" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="11">
         <v>51</v>
       </c>
       <c r="E53" s="7">
         <v>4</v>
       </c>
+      <c r="F53" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
         <v>52</v>
       </c>
-      <c r="B54" s="13">
-        <v>78</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54" s="13">
+      <c r="E54" s="7">
         <v>4</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="7">
-        <f>H45</f>
-        <v>4.0640000000000001</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="13">
-        <f>H54 + CS!B5</f>
-        <v>4.2240000000000002</v>
-      </c>
-      <c r="K54" s="14">
-        <f>I54 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F54" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
-      <c r="B55" s="9">
-        <v>49</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="9">
-        <v>5</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9">
-        <f>J56</f>
-        <v>3.3440000000000003</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="J55" s="7">
+      <c r="B55" s="13">
+        <v>78</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="13">
+        <v>4</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="8"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="9"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H55" s="7">
+        <f>H45</f>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I55" s="7">
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J55" s="13">
         <f>H55 + CS!B5</f>
-        <v>3.5040000000000004</v>
-      </c>
-      <c r="K55" s="12">
+        <v>4.22</v>
+      </c>
+      <c r="K55" s="14">
         <f>I55 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54</v>
       </c>
-      <c r="B56" s="7">
-        <v>15</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="7">
+      <c r="B56" s="9">
+        <v>49</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="9">
         <v>5</v>
       </c>
-      <c r="H56" s="7">
-        <f>CS!B2 + CS!B3 * (E56 - 1) * CS!B4</f>
-        <v>3.1840000000000002</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
+      <c r="F56" s="9">
+        <f>(J56-H56)/2 + H56</f>
+        <v>3.42</v>
+      </c>
+      <c r="G56" s="9">
+        <f>(K56-I56)/2 + I56</f>
+        <v>0.24</v>
+      </c>
+      <c r="H56" s="9">
+        <f>J57</f>
+        <v>3.34</v>
+      </c>
+      <c r="I56" s="9">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J56" s="7">
         <f>H56 + CS!B5</f>
-        <v>3.3440000000000003</v>
+        <v>3.5</v>
       </c>
       <c r="K56" s="12">
         <f>I56 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -3368,31 +3786,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E57" s="7">
         <v>5</v>
       </c>
+      <c r="F57" s="7">
+        <f>(J57-H57)/2 + H57</f>
+        <v>3.26</v>
+      </c>
+      <c r="G57" s="7">
+        <f>(K57-I57)/2 + I57</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H57" s="7">
-        <f>H56-CS!B5</f>
-        <v>3.024</v>
+        <f>CS!B2 + CS!B3 * (E57 - 1) * CS!B4</f>
+        <v>3.1799999999999997</v>
       </c>
       <c r="I57" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J57" s="7">
         <f>H57 + CS!B5</f>
-        <v>3.1840000000000002</v>
+        <v>3.34</v>
       </c>
       <c r="K57" s="12">
         <f>I57 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -3400,31 +3827,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E58" s="7">
         <v>5</v>
       </c>
+      <c r="F58" s="7">
+        <f t="shared" ref="F58:F66" si="11">(J58-H58)/2 + H58</f>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" ref="G58:G66" si="12">(K58-I58)/2 + I58</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H58" s="7">
-        <f>H57 - CS!B5</f>
-        <v>2.8639999999999999</v>
+        <f>H57-CS!B5</f>
+        <v>3.0199999999999996</v>
       </c>
       <c r="I58" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J58" s="7">
         <f>H58 + CS!B5</f>
-        <v>3.024</v>
+        <v>3.1799999999999997</v>
       </c>
       <c r="K58" s="12">
         <f>I58 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -3432,105 +3868,164 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E59" s="7">
         <v>5</v>
       </c>
+      <c r="F59" s="7">
+        <f t="shared" si="11"/>
+        <v>2.9399999999999995</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" si="12"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H59" s="7">
-        <f>H56</f>
-        <v>3.1840000000000002</v>
+        <f>H58 - CS!B5</f>
+        <v>2.8599999999999994</v>
       </c>
       <c r="I59" s="7">
-        <v>0.16</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J59" s="7">
         <f>H59 + CS!B5</f>
-        <v>3.3440000000000003</v>
+        <v>3.0199999999999996</v>
       </c>
       <c r="K59" s="12">
         <f>I59 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="11">
         <v>58</v>
       </c>
       <c r="B60" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E60" s="7">
         <v>5</v>
       </c>
+      <c r="F60" s="7">
+        <f t="shared" si="11"/>
+        <v>3.26</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="12"/>
+        <v>0.24</v>
+      </c>
       <c r="H60" s="7">
-        <f t="shared" ref="H60:H61" si="3">H57</f>
-        <v>3.024</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0.16</v>
+        <f>H57</f>
+        <v>3.1799999999999997</v>
+      </c>
+      <c r="I60" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J60" s="7">
         <f>H60 + CS!B5</f>
-        <v>3.1840000000000002</v>
+        <v>3.34</v>
       </c>
       <c r="K60" s="12">
         <f>I60 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="11">
+      <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E61" s="7">
         <v>5</v>
       </c>
+      <c r="F61" s="7">
+        <f t="shared" si="11"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="12"/>
+        <v>0.24</v>
+      </c>
       <c r="H61" s="7">
-        <f t="shared" si="3"/>
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0.16</v>
+        <f t="shared" ref="H61:H62" si="13">H58</f>
+        <v>3.0199999999999996</v>
+      </c>
+      <c r="I61" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J61" s="7">
         <f>H61 + CS!B5</f>
-        <v>3.024</v>
+        <v>3.1799999999999997</v>
       </c>
       <c r="K61" s="12">
         <f>I61 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>60</v>
       </c>
+      <c r="B62" s="7">
+        <v>38</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="E62" s="7">
         <v>5</v>
       </c>
-      <c r="K62" s="12"/>
+      <c r="F62" s="7">
+        <f t="shared" si="11"/>
+        <v>2.9399999999999995</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="12"/>
+        <v>0.24</v>
+      </c>
+      <c r="H62" s="7">
+        <f t="shared" si="13"/>
+        <v>2.8599999999999994</v>
+      </c>
+      <c r="I62" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
+      </c>
+      <c r="J62" s="7">
+        <f>H62 + CS!B5</f>
+        <v>3.0199999999999996</v>
+      </c>
+      <c r="K62" s="12">
+        <f>I62 + CS!B6</f>
+        <v>0.32799999999999996</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
@@ -3539,6 +4034,14 @@
       <c r="E63" s="7">
         <v>5</v>
       </c>
+      <c r="F63" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -3548,138 +4051,154 @@
       <c r="E64" s="7">
         <v>5</v>
       </c>
+      <c r="F64" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K64" s="12"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>63</v>
       </c>
-      <c r="B65" s="13">
+      <c r="E65" s="7">
+        <v>5</v>
+      </c>
+      <c r="F65" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>64</v>
+      </c>
+      <c r="B66" s="13">
         <v>79</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E65" s="13">
+      <c r="C66" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" s="13">
         <v>5</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="7">
-        <f>H55</f>
-        <v>3.3440000000000003</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="13">
-        <f>H65 + CS!B5</f>
-        <v>3.5040000000000004</v>
-      </c>
-      <c r="K65" s="14">
-        <f>I65 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>64</v>
-      </c>
-      <c r="B66" s="9">
-        <v>50</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="9">
-        <v>6</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9">
-        <f>J67</f>
-        <v>2.6240000000000006</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="J66" s="7">
+      <c r="F66" s="7">
+        <f t="shared" si="11"/>
+        <v>3.42</v>
+      </c>
+      <c r="G66" s="7">
+        <f t="shared" si="12"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H66" s="7">
+        <f>H56</f>
+        <v>3.34</v>
+      </c>
+      <c r="I66" s="7">
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J66" s="13">
         <f>H66 + CS!B5</f>
-        <v>2.7840000000000007</v>
-      </c>
-      <c r="K66" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="K66" s="14">
         <f>I66 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>65</v>
       </c>
-      <c r="B67" s="7">
-        <v>18</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" s="7">
+      <c r="B67" s="9">
+        <v>50</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="9">
         <v>6</v>
       </c>
-      <c r="H67" s="7">
-        <f>CS!B2 + CS!B3 * (E67 - 1) * CS!B4</f>
-        <v>2.4640000000000004</v>
-      </c>
-      <c r="I67" s="7">
-        <v>0</v>
+      <c r="F67" s="9">
+        <f>(J67-H67)/2 + H67</f>
+        <v>2.7</v>
+      </c>
+      <c r="G67" s="9">
+        <f>(K67-I67)/2 + I67</f>
+        <v>0.24</v>
+      </c>
+      <c r="H67" s="9">
+        <f>J68</f>
+        <v>2.62</v>
+      </c>
+      <c r="I67" s="9">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J67" s="7">
         <f>H67 + CS!B5</f>
-        <v>2.6240000000000006</v>
+        <v>2.7800000000000002</v>
       </c>
       <c r="K67" s="12">
         <f>I67 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="11">
+      <c r="A68" s="7">
         <v>66</v>
       </c>
       <c r="B68" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E68" s="7">
         <v>6</v>
       </c>
+      <c r="F68" s="7">
+        <f>(J68-H68)/2 + H68</f>
+        <v>2.54</v>
+      </c>
+      <c r="G68" s="7">
+        <f>(K68-I68)/2 + I68</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H68" s="7">
-        <f>H67-CS!B5</f>
-        <v>2.3040000000000003</v>
+        <f>CS!B2 + CS!B3 * (E68 - 1) * CS!B4</f>
+        <v>2.46</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J68" s="7">
         <f>H68 + CS!B5</f>
-        <v>2.4640000000000004</v>
+        <v>2.62</v>
       </c>
       <c r="K68" s="12">
         <f>I68 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -3687,31 +4206,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E69" s="7">
         <v>6</v>
       </c>
+      <c r="F69" s="7">
+        <f t="shared" ref="F69:F77" si="14">(J69-H69)/2 + H69</f>
+        <v>2.38</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" ref="G69:G77" si="15">(K69-I69)/2 + I69</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H69" s="7">
-        <f>H68 - CS!B5</f>
-        <v>2.1440000000000001</v>
+        <f>H68-CS!B5</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I69" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J69" s="7">
         <f>H69 + CS!B5</f>
-        <v>2.3040000000000003</v>
+        <v>2.46</v>
       </c>
       <c r="K69" s="12">
         <f>I69 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3719,31 +4247,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="7">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E70" s="7">
         <v>6</v>
       </c>
+      <c r="F70" s="7">
+        <f t="shared" si="14"/>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H70" s="7">
-        <f>H67</f>
-        <v>2.4640000000000004</v>
+        <f>H69 - CS!B5</f>
+        <v>2.1399999999999997</v>
       </c>
       <c r="I70" s="7">
-        <v>0.16</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J70" s="7">
         <f>H70 + CS!B5</f>
-        <v>2.6240000000000006</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K70" s="12">
         <f>I70 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -3751,31 +4288,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E71" s="7">
         <v>6</v>
       </c>
+      <c r="F71" s="7">
+        <f t="shared" si="14"/>
+        <v>2.54</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" si="15"/>
+        <v>0.24</v>
+      </c>
       <c r="H71" s="7">
-        <f t="shared" ref="H71:H72" si="4">H68</f>
-        <v>2.3040000000000003</v>
-      </c>
-      <c r="I71" s="7">
-        <v>0.16</v>
+        <f>H68</f>
+        <v>2.46</v>
+      </c>
+      <c r="I71" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J71" s="7">
         <f>H71 + CS!B5</f>
-        <v>2.4640000000000004</v>
+        <v>2.62</v>
       </c>
       <c r="K71" s="12">
         <f>I71 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -3783,41 +4329,82 @@
         <v>70</v>
       </c>
       <c r="B72" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E72" s="7">
         <v>6</v>
       </c>
+      <c r="F72" s="7">
+        <f t="shared" si="14"/>
+        <v>2.38</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="15"/>
+        <v>0.24</v>
+      </c>
       <c r="H72" s="7">
-        <f t="shared" si="4"/>
-        <v>2.1440000000000001</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0.16</v>
+        <f t="shared" ref="H72:H73" si="16">H69</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I72" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J72" s="7">
         <f>H72 + CS!B5</f>
-        <v>2.3040000000000003</v>
+        <v>2.46</v>
       </c>
       <c r="K72" s="12">
         <f>I72 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
+      <c r="A73" s="11">
         <v>71</v>
+      </c>
+      <c r="B73" s="7">
+        <v>41</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E73" s="7">
         <v>6</v>
       </c>
-      <c r="K73" s="12"/>
+      <c r="F73" s="7">
+        <f t="shared" si="14"/>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="15"/>
+        <v>0.24</v>
+      </c>
+      <c r="H73" s="7">
+        <f t="shared" si="16"/>
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="I73" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
+      </c>
+      <c r="J73" s="7">
+        <f>H73 + CS!B5</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K73" s="12">
+        <f>I73 + CS!B6</f>
+        <v>0.32799999999999996</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
@@ -3826,147 +4413,171 @@
       <c r="E74" s="7">
         <v>6</v>
       </c>
+      <c r="F74" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="K74" s="12"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="11">
+      <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="E75" s="7">
         <v>6</v>
       </c>
+      <c r="F75" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="K75" s="12"/>
     </row>
-    <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>74</v>
       </c>
-      <c r="B76" s="13">
-        <v>80</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" s="13">
+      <c r="E76" s="7">
         <v>6</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13">
-        <f>H66</f>
-        <v>2.6240000000000006</v>
-      </c>
-      <c r="I76" s="13">
-        <v>0</v>
-      </c>
-      <c r="J76" s="13">
-        <f>H76 + CS!B5</f>
-        <v>2.7840000000000007</v>
-      </c>
-      <c r="K76" s="14">
-        <f>I76 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F76" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="12"/>
+    </row>
+    <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>75</v>
       </c>
-      <c r="B77" s="9">
-        <v>51</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="9">
-        <v>7</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9">
-        <f>J78</f>
-        <v>1.8389999999999997</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="J77" s="7">
+      <c r="B77" s="13">
+        <v>80</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="13">
+        <v>6</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="14"/>
+        <v>2.7</v>
+      </c>
+      <c r="G77" s="7">
+        <f t="shared" si="15"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H77" s="13">
+        <f>H67</f>
+        <v>2.62</v>
+      </c>
+      <c r="I77" s="7">
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J77" s="13">
         <f>H77 + CS!B5</f>
-        <v>1.9989999999999997</v>
-      </c>
-      <c r="K77" s="12">
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="K77" s="14">
         <f>I77 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>76</v>
       </c>
-      <c r="B78" s="7">
-        <v>21</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" s="7">
+      <c r="B78" s="9">
+        <v>51</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78" s="9">
         <v>7</v>
       </c>
-      <c r="H78" s="7">
-        <f>CS!B2 + CS!B3 * (E78 - 1) * CS!B4 -0.065</f>
-        <v>1.6789999999999998</v>
-      </c>
-      <c r="I78" s="7">
-        <v>0</v>
+      <c r="F78" s="9">
+        <f>(J78-H78)/2 + H78</f>
+        <v>1.9149999999999991</v>
+      </c>
+      <c r="G78" s="9">
+        <f>(K78-I78)/2 + I78</f>
+        <v>0.24</v>
+      </c>
+      <c r="H78" s="9">
+        <f>J79</f>
+        <v>1.8349999999999993</v>
+      </c>
+      <c r="I78" s="9">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J78" s="7">
         <f>H78 + CS!B5</f>
-        <v>1.8389999999999997</v>
+        <v>1.9949999999999992</v>
       </c>
       <c r="K78" s="12">
         <f>I78 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
+      <c r="A79" s="11">
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E79" s="7">
         <v>7</v>
       </c>
+      <c r="F79" s="7">
+        <f>(J79-H79)/2 + H79</f>
+        <v>1.7549999999999994</v>
+      </c>
+      <c r="G79" s="7">
+        <f>(K79-I79)/2 + I79</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H79" s="7">
-        <f>H78-CS!B5</f>
-        <v>1.5189999999999999</v>
+        <f>CS!B2 + CS!B3 * (E79 - 1) * CS!B4 -0.065</f>
+        <v>1.6749999999999994</v>
       </c>
       <c r="I79" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J79" s="7">
         <f>H79 + CS!B5</f>
-        <v>1.6789999999999998</v>
+        <v>1.8349999999999993</v>
       </c>
       <c r="K79" s="12">
         <f>I79 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -3974,31 +4585,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E80" s="7">
         <v>7</v>
       </c>
+      <c r="F80" s="7">
+        <f t="shared" ref="F80:F88" si="17">(J80-H80)/2 + H80</f>
+        <v>1.5949999999999993</v>
+      </c>
+      <c r="G80" s="7">
+        <f t="shared" ref="G80:G88" si="18">(K80-I80)/2 + I80</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H80" s="7">
-        <f>H79 - CS!B5</f>
-        <v>1.359</v>
+        <f>H79-CS!B5</f>
+        <v>1.5149999999999995</v>
       </c>
       <c r="I80" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J80" s="7">
         <f>H80 + CS!B5</f>
-        <v>1.5189999999999999</v>
+        <v>1.6749999999999994</v>
       </c>
       <c r="K80" s="12">
         <f>I80 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -4006,63 +4626,81 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E81" s="7">
         <v>7</v>
       </c>
+      <c r="F81" s="7">
+        <f t="shared" si="17"/>
+        <v>1.4349999999999996</v>
+      </c>
+      <c r="G81" s="7">
+        <f t="shared" si="18"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H81" s="7">
-        <f>H78</f>
-        <v>1.6789999999999998</v>
+        <f>H80 - CS!B5</f>
+        <v>1.3549999999999995</v>
       </c>
       <c r="I81" s="7">
-        <v>0.16</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J81" s="7">
         <f>H81 + CS!B5</f>
-        <v>1.8389999999999997</v>
+        <v>1.5149999999999995</v>
       </c>
       <c r="K81" s="12">
         <f>I81 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="11">
+      <c r="A82" s="7">
         <v>80</v>
       </c>
       <c r="B82" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E82" s="7">
         <v>7</v>
       </c>
+      <c r="F82" s="7">
+        <f t="shared" si="17"/>
+        <v>1.7549999999999994</v>
+      </c>
+      <c r="G82" s="7">
+        <f t="shared" si="18"/>
+        <v>0.24</v>
+      </c>
       <c r="H82" s="7">
-        <f t="shared" ref="H82:H83" si="5">H79</f>
-        <v>1.5189999999999999</v>
-      </c>
-      <c r="I82" s="7">
-        <v>0.16</v>
+        <f>H79</f>
+        <v>1.6749999999999994</v>
+      </c>
+      <c r="I82" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J82" s="7">
         <f>H82 + CS!B5</f>
-        <v>1.6789999999999998</v>
+        <v>1.8349999999999993</v>
       </c>
       <c r="K82" s="12">
         <f>I82 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -4070,41 +4708,82 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E83" s="7">
         <v>7</v>
       </c>
+      <c r="F83" s="7">
+        <f t="shared" si="17"/>
+        <v>1.5949999999999993</v>
+      </c>
+      <c r="G83" s="7">
+        <f t="shared" si="18"/>
+        <v>0.24</v>
+      </c>
       <c r="H83" s="7">
-        <f t="shared" si="5"/>
-        <v>1.359</v>
-      </c>
-      <c r="I83" s="7">
-        <v>0.16</v>
+        <f t="shared" ref="H83:H84" si="19">H80</f>
+        <v>1.5149999999999995</v>
+      </c>
+      <c r="I83" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J83" s="7">
         <f>H83 + CS!B5</f>
-        <v>1.5189999999999999</v>
+        <v>1.6749999999999994</v>
       </c>
       <c r="K83" s="12">
         <f>I83 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>82</v>
       </c>
+      <c r="B84" s="7">
+        <v>44</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="E84" s="7">
         <v>7</v>
       </c>
-      <c r="K84" s="12"/>
+      <c r="F84" s="7">
+        <f t="shared" si="17"/>
+        <v>1.4349999999999996</v>
+      </c>
+      <c r="G84" s="7">
+        <f t="shared" si="18"/>
+        <v>0.24</v>
+      </c>
+      <c r="H84" s="7">
+        <f t="shared" si="19"/>
+        <v>1.3549999999999995</v>
+      </c>
+      <c r="I84" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
+      </c>
+      <c r="J84" s="7">
+        <f>H84 + CS!B5</f>
+        <v>1.5149999999999995</v>
+      </c>
+      <c r="K84" s="12">
+        <f>I84 + CS!B6</f>
+        <v>0.32799999999999996</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
@@ -4113,115 +4792,130 @@
       <c r="E85" s="7">
         <v>7</v>
       </c>
+      <c r="F85" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="K85" s="12"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="7">
+      <c r="A86" s="11">
         <v>84</v>
       </c>
       <c r="E86" s="7">
         <v>7</v>
       </c>
+      <c r="F86" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="K86" s="12"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>85</v>
       </c>
-      <c r="B87" s="13">
-        <v>81</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E87" s="13">
+      <c r="E87" s="7">
         <v>7</v>
       </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13">
-        <f>H77</f>
-        <v>1.8389999999999997</v>
-      </c>
-      <c r="I87" s="13">
-        <v>0</v>
-      </c>
-      <c r="J87" s="13">
-        <f>H87 + CS!B5</f>
-        <v>1.9989999999999997</v>
-      </c>
-      <c r="K87" s="14">
-        <f>I87 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F87" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="12"/>
+    </row>
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>86</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="13">
+        <v>81</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88" s="13">
+        <v>7</v>
+      </c>
+      <c r="F88" s="7">
+        <f t="shared" si="17"/>
+        <v>1.9149999999999991</v>
+      </c>
+      <c r="G88" s="7">
+        <f t="shared" si="18"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H88" s="13">
+        <f>H78</f>
+        <v>1.8349999999999993</v>
+      </c>
+      <c r="I88" s="7">
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J88" s="13">
+        <f>H88 + CS!B5</f>
+        <v>1.9949999999999992</v>
+      </c>
+      <c r="K88" s="14">
+        <f>I88 + CS!B6</f>
+        <v>0.13799999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9">
         <v>58</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E88" s="9">
+      <c r="C89" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" s="9">
         <v>8</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9">
-        <f>J89</f>
-        <v>1.119</v>
-      </c>
-      <c r="I88" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="J88" s="7">
-        <f>H88 + CS!B5</f>
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="K88" s="12">
-        <f>I88 + CS!B6</f>
-        <v>0.33599999999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="11">
-        <v>87</v>
-      </c>
-      <c r="B89" s="7">
-        <v>52</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" s="7">
-        <v>8</v>
-      </c>
-      <c r="H89" s="7">
-        <f>CS!B2 + CS!B3 * (E89 - 1) * CS!B4 -0.065</f>
-        <v>0.95900000000000007</v>
-      </c>
-      <c r="I89" s="7">
-        <v>0</v>
+      <c r="F89" s="9">
+        <f>(J89-H89)/2 + H89</f>
+        <v>1.1949999999999994</v>
+      </c>
+      <c r="G89" s="9">
+        <f>(K89-I89)/2 + I89</f>
+        <v>0.24</v>
+      </c>
+      <c r="H89" s="9">
+        <f>J90</f>
+        <v>1.1149999999999995</v>
+      </c>
+      <c r="I89" s="9">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J89" s="7">
         <f>H89 + CS!B5</f>
-        <v>1.119</v>
+        <v>1.2749999999999995</v>
       </c>
       <c r="K89" s="12">
         <f>I89 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -4229,31 +4923,40 @@
         <v>88</v>
       </c>
       <c r="B90" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E90" s="7">
         <v>8</v>
       </c>
+      <c r="F90" s="7">
+        <f>(J90-H90)/2 + H90</f>
+        <v>1.0349999999999997</v>
+      </c>
+      <c r="G90" s="7">
+        <f>(K90-I90)/2 + I90</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H90" s="7">
-        <f>H89-CS!B5</f>
-        <v>0.79900000000000004</v>
+        <f>CS!B2 + CS!B3 * (E90 - 1) * CS!B4 -0.065</f>
+        <v>0.95499999999999963</v>
       </c>
       <c r="I90" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J90" s="7">
         <f>H90 + CS!B5</f>
-        <v>0.95900000000000007</v>
+        <v>1.1149999999999995</v>
       </c>
       <c r="K90" s="12">
         <f>I90 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -4261,63 +4964,81 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E91" s="7">
         <v>8</v>
       </c>
+      <c r="F91" s="7">
+        <f t="shared" ref="F91:F99" si="20">(J91-H91)/2 + H91</f>
+        <v>0.87499999999999956</v>
+      </c>
+      <c r="G91" s="7">
+        <f t="shared" ref="G91:G99" si="21">(K91-I91)/2 + I91</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H91" s="7">
-        <f>H90 - CS!B5</f>
-        <v>0.63900000000000001</v>
+        <f>H90-CS!B5</f>
+        <v>0.7949999999999996</v>
       </c>
       <c r="I91" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J91" s="7">
         <f>H91 + CS!B5</f>
-        <v>0.79900000000000004</v>
+        <v>0.95499999999999963</v>
       </c>
       <c r="K91" s="12">
         <f>I91 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
+      <c r="A92" s="11">
         <v>90</v>
       </c>
       <c r="B92" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E92" s="7">
         <v>8</v>
       </c>
+      <c r="F92" s="7">
+        <f t="shared" si="20"/>
+        <v>0.71499999999999964</v>
+      </c>
+      <c r="G92" s="7">
+        <f t="shared" si="21"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H92" s="7">
-        <f>H89</f>
-        <v>0.95900000000000007</v>
+        <f>H91 - CS!B5</f>
+        <v>0.63499999999999956</v>
       </c>
       <c r="I92" s="7">
-        <v>0.16</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J92" s="7">
         <f>H92 + CS!B5</f>
-        <v>1.119</v>
+        <v>0.7949999999999996</v>
       </c>
       <c r="K92" s="12">
         <f>I92 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -4325,31 +5046,40 @@
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E93" s="7">
         <v>8</v>
       </c>
+      <c r="F93" s="7">
+        <f t="shared" si="20"/>
+        <v>1.0349999999999997</v>
+      </c>
+      <c r="G93" s="7">
+        <f t="shared" si="21"/>
+        <v>0.24</v>
+      </c>
       <c r="H93" s="7">
-        <f t="shared" ref="H93:H94" si="6">H90</f>
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="I93" s="7">
-        <v>0.16</v>
+        <f>H90</f>
+        <v>0.95499999999999963</v>
+      </c>
+      <c r="I93" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J93" s="7">
         <f>H93 + CS!B5</f>
-        <v>0.95900000000000007</v>
+        <v>1.1149999999999995</v>
       </c>
       <c r="K93" s="12">
         <f>I93 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -4357,48 +5087,97 @@
         <v>92</v>
       </c>
       <c r="B94" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="E94" s="7">
         <v>8</v>
       </c>
+      <c r="F94" s="7">
+        <f t="shared" si="20"/>
+        <v>0.87499999999999956</v>
+      </c>
+      <c r="G94" s="7">
+        <f t="shared" si="21"/>
+        <v>0.24</v>
+      </c>
       <c r="H94" s="7">
-        <f t="shared" si="6"/>
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="I94" s="7">
-        <v>0.16</v>
+        <f t="shared" ref="H94:H95" si="22">H91</f>
+        <v>0.7949999999999996</v>
+      </c>
+      <c r="I94" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J94" s="7">
         <f>H94 + CS!B5</f>
-        <v>0.79900000000000004</v>
+        <v>0.95499999999999963</v>
       </c>
       <c r="K94" s="12">
         <f>I94 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>93</v>
       </c>
+      <c r="B95" s="7">
+        <v>57</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="E95" s="7">
         <v>8</v>
       </c>
-      <c r="K95" s="12"/>
+      <c r="F95" s="7">
+        <f t="shared" si="20"/>
+        <v>0.71499999999999964</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" si="21"/>
+        <v>0.24</v>
+      </c>
+      <c r="H95" s="7">
+        <f t="shared" si="22"/>
+        <v>0.63499999999999956</v>
+      </c>
+      <c r="I95" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
+      </c>
+      <c r="J95" s="7">
+        <f>H95 + CS!B5</f>
+        <v>0.7949999999999996</v>
+      </c>
+      <c r="K95" s="12">
+        <f>I95 + CS!B6</f>
+        <v>0.32799999999999996</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="11">
+      <c r="A96" s="7">
         <v>94</v>
       </c>
       <c r="E96" s="7">
         <v>8</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="K96" s="12"/>
     </row>
@@ -4409,106 +5188,113 @@
       <c r="E97" s="7">
         <v>8</v>
       </c>
+      <c r="F97" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="K97" s="12"/>
     </row>
-    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>96</v>
       </c>
-      <c r="B98" s="13">
+      <c r="E98" s="7">
+        <v>8</v>
+      </c>
+      <c r="F98" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="12"/>
+    </row>
+    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>97</v>
+      </c>
+      <c r="B99" s="13">
         <v>82</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E98" s="13">
+      <c r="C99" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="13">
         <v>8</v>
       </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13">
-        <f>H88</f>
-        <v>1.119</v>
-      </c>
-      <c r="I98" s="13">
-        <v>0</v>
-      </c>
-      <c r="J98" s="13">
-        <f>H98 + CS!B5</f>
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="K98" s="14">
-        <f>I98 + CS!B6</f>
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
-        <v>97</v>
-      </c>
-      <c r="B99" s="9">
-        <v>74</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E99" s="9">
-        <v>9</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9">
-        <f>J100</f>
-        <v>0.44900000000000029</v>
-      </c>
-      <c r="I99" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="J99" s="7">
+      <c r="F99" s="7">
+        <f t="shared" si="20"/>
+        <v>1.1949999999999994</v>
+      </c>
+      <c r="G99" s="7">
+        <f t="shared" si="21"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H99" s="13">
+        <f>H89</f>
+        <v>1.1149999999999995</v>
+      </c>
+      <c r="I99" s="7">
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J99" s="13">
         <f>H99 + CS!B5</f>
-        <v>0.60900000000000032</v>
-      </c>
-      <c r="K99" s="12">
+        <v>1.2749999999999995</v>
+      </c>
+      <c r="K99" s="14">
         <f>I99 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>98</v>
       </c>
-      <c r="B100" s="7">
-        <v>68</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" s="7">
+      <c r="B100" s="9">
+        <v>74</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="9">
         <v>9</v>
       </c>
-      <c r="H100" s="7">
-        <f>CS!B2 + CS!B3 * (E100 - 1) * CS!B4 -0.015</f>
-        <v>0.28900000000000026</v>
-      </c>
-      <c r="I100" s="7">
-        <v>0</v>
+      <c r="F100" s="9">
+        <f>(J100-H100)/2 + H100</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="G100" s="9">
+        <f>(K100-I100)/2 + I100</f>
+        <v>0.24</v>
+      </c>
+      <c r="H100" s="9">
+        <f>J101</f>
+        <v>0.44499999999999984</v>
+      </c>
+      <c r="I100" s="9">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J100" s="7">
         <f>H100 + CS!B5</f>
-        <v>0.44900000000000029</v>
+        <v>0.60499999999999987</v>
       </c>
       <c r="K100" s="12">
         <f>I100 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -4516,31 +5302,40 @@
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E101" s="7">
         <v>9</v>
       </c>
+      <c r="F101" s="7">
+        <f>(J101-H101)/2 + H101</f>
+        <v>0.36499999999999982</v>
+      </c>
+      <c r="G101" s="7">
+        <f>(K101-I101)/2 + I101</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H101" s="7">
-        <f>H100-CS!B5</f>
-        <v>0.12900000000000025</v>
+        <f>CS!B2 + CS!B3 * (E101 - 1) * CS!B4 -0.015</f>
+        <v>0.28499999999999981</v>
       </c>
       <c r="I101" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J101" s="7">
         <f>H101 + CS!B5</f>
-        <v>0.28900000000000026</v>
+        <v>0.44499999999999984</v>
       </c>
       <c r="K101" s="12">
         <f>I101 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -4548,63 +5343,81 @@
         <v>100</v>
       </c>
       <c r="B102" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E102" s="7">
         <v>9</v>
       </c>
+      <c r="F102" s="7">
+        <f t="shared" ref="F102:F110" si="23">(J102-H102)/2 + H102</f>
+        <v>0.20499999999999979</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" ref="G102:G110" si="24">(K102-I102)/2 + I102</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H102" s="7">
-        <f>H101 - CS!B5</f>
-        <v>-3.099999999999975E-2</v>
+        <f>H101-CS!B5</f>
+        <v>0.12499999999999981</v>
       </c>
       <c r="I102" s="7">
-        <v>0</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J102" s="7">
         <f>H102 + CS!B5</f>
-        <v>0.12900000000000025</v>
+        <v>0.28499999999999981</v>
       </c>
       <c r="K102" s="12">
         <f>I102 + CS!B6</f>
-        <v>0.17599999999999999</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="11">
+      <c r="A103" s="7">
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E103" s="7">
         <v>9</v>
       </c>
+      <c r="F103" s="7">
+        <f t="shared" si="23"/>
+        <v>4.4999999999999804E-2</v>
+      </c>
+      <c r="G103" s="7">
+        <f t="shared" si="24"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="H103" s="7">
-        <f>H100</f>
-        <v>0.28900000000000026</v>
+        <f>H102 - CS!B5</f>
+        <v>-3.5000000000000198E-2</v>
       </c>
       <c r="I103" s="7">
-        <v>0.16</v>
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J103" s="7">
         <f>H103 + CS!B5</f>
-        <v>0.44900000000000029</v>
+        <v>0.12499999999999981</v>
       </c>
       <c r="K103" s="12">
         <f>I103 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.13799999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -4612,73 +5425,123 @@
         <v>102</v>
       </c>
       <c r="B104" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E104" s="7">
         <v>9</v>
       </c>
+      <c r="F104" s="7">
+        <f t="shared" si="23"/>
+        <v>0.36499999999999982</v>
+      </c>
+      <c r="G104" s="7">
+        <f t="shared" si="24"/>
+        <v>0.24</v>
+      </c>
       <c r="H104" s="7">
-        <f t="shared" ref="H104:H105" si="7">H101</f>
-        <v>0.12900000000000025</v>
-      </c>
-      <c r="I104" s="7">
-        <v>0.16</v>
+        <f>H101</f>
+        <v>0.28499999999999981</v>
+      </c>
+      <c r="I104" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J104" s="7">
         <f>H104 + CS!B5</f>
-        <v>0.28900000000000026</v>
+        <v>0.44499999999999984</v>
       </c>
       <c r="K104" s="12">
         <f>I104 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
+      <c r="A105" s="11">
         <v>103</v>
       </c>
       <c r="B105" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="E105" s="7">
         <v>9</v>
       </c>
+      <c r="F105" s="7">
+        <f t="shared" si="23"/>
+        <v>0.20499999999999979</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" si="24"/>
+        <v>0.24</v>
+      </c>
       <c r="H105" s="7">
-        <f t="shared" si="7"/>
-        <v>-3.099999999999975E-2</v>
-      </c>
-      <c r="I105" s="7">
-        <v>0.16</v>
+        <f t="shared" ref="H105:H106" si="25">H102</f>
+        <v>0.12499999999999981</v>
+      </c>
+      <c r="I105" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
       </c>
       <c r="J105" s="7">
         <f>H105 + CS!B5</f>
-        <v>0.12900000000000025</v>
+        <v>0.28499999999999981</v>
       </c>
       <c r="K105" s="12">
         <f>I105 + CS!B6</f>
-        <v>0.33599999999999997</v>
+        <v>0.32799999999999996</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>104</v>
       </c>
+      <c r="B106" s="7">
+        <v>73</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="E106" s="7">
         <v>9</v>
       </c>
-      <c r="K106" s="12"/>
+      <c r="F106" s="7">
+        <f t="shared" si="23"/>
+        <v>4.4999999999999804E-2</v>
+      </c>
+      <c r="G106" s="7">
+        <f t="shared" si="24"/>
+        <v>0.24</v>
+      </c>
+      <c r="H106" s="7">
+        <f t="shared" si="25"/>
+        <v>-3.5000000000000198E-2</v>
+      </c>
+      <c r="I106" s="15">
+        <f>CS!B12</f>
+        <v>0.152</v>
+      </c>
+      <c r="J106" s="7">
+        <f>H106 + CS!B5</f>
+        <v>0.12499999999999981</v>
+      </c>
+      <c r="K106" s="12">
+        <f>I106 + CS!B6</f>
+        <v>0.32799999999999996</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
@@ -4687,6 +5550,14 @@
       <c r="E107" s="7">
         <v>9</v>
       </c>
+      <c r="F107" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -4696,40 +5567,72 @@
       <c r="E108" s="7">
         <v>9</v>
       </c>
+      <c r="F108" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="K108" s="12"/>
     </row>
-    <row r="109" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>107</v>
       </c>
-      <c r="B109" s="13">
+      <c r="E109" s="7">
+        <v>9</v>
+      </c>
+      <c r="F109" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="12"/>
+    </row>
+    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>108</v>
+      </c>
+      <c r="B110" s="13">
         <v>83</v>
       </c>
-      <c r="C109" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E109" s="13">
+      <c r="C110" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" s="13">
         <v>9</v>
       </c>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13">
-        <f>H99</f>
-        <v>0.44900000000000029</v>
-      </c>
-      <c r="I109" s="13">
-        <v>0</v>
-      </c>
-      <c r="J109" s="13">
-        <f>H109 + CS!B5</f>
-        <v>0.60900000000000032</v>
-      </c>
-      <c r="K109" s="14">
-        <f>I109 + CS!B6</f>
-        <v>0.17599999999999999</v>
+      <c r="F110" s="13">
+        <f t="shared" si="23"/>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="G110" s="13">
+        <f t="shared" si="24"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H110" s="13">
+        <f>H100</f>
+        <v>0.44499999999999984</v>
+      </c>
+      <c r="I110" s="13">
+        <f>CS!B11</f>
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="J110" s="13">
+        <f>H110 + CS!B5</f>
+        <v>0.60499999999999987</v>
+      </c>
+      <c r="K110" s="14">
+        <f>I110 + CS!B6</f>
+        <v>0.13799999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4743,7 +5646,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4754,15 +5657,15 @@
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2">
-        <v>6.0640000000000001</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="4">
         <v>0.72</v>
@@ -4770,7 +5673,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="4">
         <v>-1</v>
@@ -4778,7 +5681,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="4">
         <v>0.16</v>
@@ -4786,7 +5689,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="4">
         <v>0.17599999999999999</v>
@@ -4809,16 +5712,28 @@
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-3.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.152</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.34399999999999997</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>

--- a/my6D/ReadLayout/rectangles.xlsx
+++ b/my6D/ReadLayout/rectangles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\32_Python\myPyTools\my6D\ReadLayout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F511C65A-88DB-48F2-B162-92B1FF2403C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AA5687-BD90-4462-A65E-77DB2E94A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BCC243-ACCA-44A9-A2FE-667A1A52F0CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F7BCC243-ACCA-44A9-A2FE-667A1A52F0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="rectangles" sheetId="1" r:id="rId1"/>
@@ -1352,7 +1352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1396,9 +1396,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1778,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FED1504-B951-4F1D-A034-DA0B86FDB2F6}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1954,10 +1951,11 @@
         <v>0</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <f>(J5-H5)/2 + H5</f>
+        <v>6.41</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="H5" s="7">
         <v>6.35</v>
@@ -2098,7 +2096,7 @@
       </c>
       <c r="F12" s="9">
         <f>(J12-H12)/2 + H12</f>
-        <v>6.3</v>
+        <v>6.3040000000000003</v>
       </c>
       <c r="G12" s="9">
         <f>(K12-I12)/2 + I12</f>
@@ -2106,7 +2104,7 @@
       </c>
       <c r="H12" s="9">
         <f>J13</f>
-        <v>6.22</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="I12" s="9">
         <f>CS!B12</f>
@@ -2114,7 +2112,7 @@
       </c>
       <c r="J12" s="9">
         <f>H12 + CS!B5</f>
-        <v>6.38</v>
+        <v>6.3840000000000003</v>
       </c>
       <c r="K12" s="10">
         <f>I12 + CS!B6</f>
@@ -2139,7 +2137,7 @@
       </c>
       <c r="F13" s="7">
         <f>(J13-H13)/2 + H13</f>
-        <v>6.14</v>
+        <v>6.1440000000000001</v>
       </c>
       <c r="G13" s="7">
         <f>(K13-I13)/2 + I13</f>
@@ -2147,7 +2145,7 @@
       </c>
       <c r="H13" s="7">
         <f>CS!B2 + CS!B3 * (E12 - 1) * CS!B4</f>
-        <v>6.06</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="I13" s="7">
         <f>CS!B11</f>
@@ -2155,7 +2153,7 @@
       </c>
       <c r="J13" s="7">
         <f>H13+CS!B5</f>
-        <v>6.22</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="K13" s="12">
         <f>I13+CS!B6</f>
@@ -2180,7 +2178,7 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" ref="F14:F22" si="0">(J14-H14)/2 + H14</f>
-        <v>5.9799999999999995</v>
+        <v>5.984</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" ref="G14:G22" si="1">(K14-I14)/2 + I14</f>
@@ -2188,7 +2186,7 @@
       </c>
       <c r="H14" s="7">
         <f>H13 - CS!B5</f>
-        <v>5.8999999999999995</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="I14" s="7">
         <f>CS!B11</f>
@@ -2196,7 +2194,7 @@
       </c>
       <c r="J14" s="7">
         <f>H14+CS!B5</f>
-        <v>6.06</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="K14" s="12">
         <f>I14+CS!B6</f>
@@ -2221,7 +2219,7 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>5.8199999999999994</v>
+        <v>5.8239999999999998</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="1"/>
@@ -2229,7 +2227,7 @@
       </c>
       <c r="H15" s="7">
         <f>H14 - CS!B5</f>
-        <v>5.7399999999999993</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="I15" s="7">
         <f>CS!B11</f>
@@ -2237,7 +2235,7 @@
       </c>
       <c r="J15" s="7">
         <f>H15+CS!B5</f>
-        <v>5.8999999999999995</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="K15" s="12">
         <f>I15+CS!B6</f>
@@ -2262,7 +2260,7 @@
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>6.14</v>
+        <v>6.1440000000000001</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="1"/>
@@ -2270,15 +2268,15 @@
       </c>
       <c r="H16" s="7">
         <f>H13</f>
-        <v>6.06</v>
-      </c>
-      <c r="I16" s="15">
+        <v>6.0640000000000001</v>
+      </c>
+      <c r="I16" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J16" s="7">
         <f>H16+CS!B5</f>
-        <v>6.22</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="K16" s="12">
         <f>I16+CS!B6</f>
@@ -2303,7 +2301,7 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>5.9799999999999995</v>
+        <v>5.984</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="1"/>
@@ -2311,15 +2309,15 @@
       </c>
       <c r="H17" s="7">
         <f>H14</f>
-        <v>5.8999999999999995</v>
-      </c>
-      <c r="I17" s="15">
+        <v>5.9039999999999999</v>
+      </c>
+      <c r="I17" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J17" s="7">
         <f>H17+CS!B5</f>
-        <v>6.06</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="K17" s="12">
         <f>I17+CS!B6</f>
@@ -2344,7 +2342,7 @@
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>5.8199999999999994</v>
+        <v>5.8239999999999998</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="1"/>
@@ -2352,15 +2350,15 @@
       </c>
       <c r="H18" s="7">
         <f>H15</f>
-        <v>5.7399999999999993</v>
-      </c>
-      <c r="I18" s="15">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="I18" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J18" s="7">
         <f>H18+CS!B5</f>
-        <v>5.8999999999999995</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="K18" s="12">
         <f>I18+CS!B6</f>
@@ -2385,7 +2383,7 @@
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>6.14</v>
+        <v>6.1440000000000001</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="1"/>
@@ -2393,7 +2391,7 @@
       </c>
       <c r="H19" s="7">
         <f>H13</f>
-        <v>6.06</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="I19" s="7">
         <f>CS!B13</f>
@@ -2401,7 +2399,7 @@
       </c>
       <c r="J19" s="7">
         <f>H19+CS!B5</f>
-        <v>6.22</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="K19" s="12">
         <f>I19+CS!B6</f>
@@ -2426,7 +2424,7 @@
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>5.9799999999999995</v>
+        <v>5.984</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="1"/>
@@ -2434,7 +2432,7 @@
       </c>
       <c r="H20" s="7">
         <f>H14</f>
-        <v>5.8999999999999995</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="I20" s="7">
         <f>CS!B13</f>
@@ -2442,7 +2440,7 @@
       </c>
       <c r="J20" s="7">
         <f>H20+CS!B5</f>
-        <v>6.06</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="K20" s="12">
         <f>I20+CS!B6</f>
@@ -2467,7 +2465,7 @@
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>5.8199999999999994</v>
+        <v>5.8239999999999998</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="1"/>
@@ -2475,7 +2473,7 @@
       </c>
       <c r="H21" s="7">
         <f>H15</f>
-        <v>5.7399999999999993</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="I21" s="7">
         <f>CS!B13</f>
@@ -2483,7 +2481,7 @@
       </c>
       <c r="J21" s="7">
         <f>H21+CS!B5</f>
-        <v>5.8999999999999995</v>
+        <v>5.9039999999999999</v>
       </c>
       <c r="K21" s="12">
         <f>I21+CS!B6</f>
@@ -2508,7 +2506,7 @@
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>6.3</v>
+        <v>6.3040000000000003</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="1"/>
@@ -2516,7 +2514,7 @@
       </c>
       <c r="H22" s="7">
         <f>H12</f>
-        <v>6.22</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="I22" s="7">
         <f>CS!B11</f>
@@ -2524,7 +2522,7 @@
       </c>
       <c r="J22" s="7">
         <f>H22+CS!B5</f>
-        <v>6.38</v>
+        <v>6.3840000000000003</v>
       </c>
       <c r="K22" s="12">
         <f>I22+CS!B6</f>
@@ -2549,7 +2547,7 @@
       </c>
       <c r="F23" s="9">
         <f>(J23-H23)/2 + H23</f>
-        <v>5.58</v>
+        <v>5.5840000000000005</v>
       </c>
       <c r="G23" s="9">
         <f>(K23-I23)/2 + I23</f>
@@ -2557,7 +2555,7 @@
       </c>
       <c r="H23" s="9">
         <f>J24</f>
-        <v>5.5</v>
+        <v>5.5040000000000004</v>
       </c>
       <c r="I23" s="9">
         <f>CS!B12</f>
@@ -2565,7 +2563,7 @@
       </c>
       <c r="J23" s="9">
         <f>H23 + CS!B5</f>
-        <v>5.66</v>
+        <v>5.6640000000000006</v>
       </c>
       <c r="K23" s="10">
         <f>I23 + CS!B6</f>
@@ -2590,7 +2588,7 @@
       </c>
       <c r="F24" s="7">
         <f>(J24-H24)/2 + H24</f>
-        <v>5.42</v>
+        <v>5.4240000000000004</v>
       </c>
       <c r="G24" s="7">
         <f>(K24-I24)/2 + I24</f>
@@ -2598,7 +2596,7 @@
       </c>
       <c r="H24" s="7">
         <f>CS!B2 + CS!B3 * (E23 - 1) * CS!B4</f>
-        <v>5.34</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="I24" s="7">
         <f>CS!B11</f>
@@ -2606,7 +2604,7 @@
       </c>
       <c r="J24" s="7">
         <f>H24 + CS!B5</f>
-        <v>5.5</v>
+        <v>5.5040000000000004</v>
       </c>
       <c r="K24" s="12">
         <f>I24 + CS!B6</f>
@@ -2631,7 +2629,7 @@
       </c>
       <c r="F25" s="7">
         <f t="shared" ref="F25:F33" si="2">(J25-H25)/2 + H25</f>
-        <v>5.26</v>
+        <v>5.2640000000000002</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" ref="G25:G33" si="3">(K25-I25)/2 + I25</f>
@@ -2639,7 +2637,7 @@
       </c>
       <c r="H25" s="7">
         <f>H24 - CS!B5</f>
-        <v>5.18</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="I25" s="7">
         <f>CS!B11</f>
@@ -2647,7 +2645,7 @@
       </c>
       <c r="J25" s="7">
         <f>H25 + CS!B5</f>
-        <v>5.34</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="K25" s="12">
         <f>I25 + CS!B6</f>
@@ -2672,7 +2670,7 @@
       </c>
       <c r="F26" s="7">
         <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>5.1040000000000001</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="3"/>
@@ -2680,7 +2678,7 @@
       </c>
       <c r="H26" s="7">
         <f>H25 - CS!B5</f>
-        <v>5.0199999999999996</v>
+        <v>5.024</v>
       </c>
       <c r="I26" s="7">
         <f>CS!B11</f>
@@ -2688,7 +2686,7 @@
       </c>
       <c r="J26" s="7">
         <f>H26 + CS!B5</f>
-        <v>5.18</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="K26" s="12">
         <f>I26 + CS!B6</f>
@@ -2713,7 +2711,7 @@
       </c>
       <c r="F27" s="7">
         <f t="shared" si="2"/>
-        <v>5.42</v>
+        <v>5.4240000000000004</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="3"/>
@@ -2721,15 +2719,15 @@
       </c>
       <c r="H27" s="7">
         <f>H24</f>
-        <v>5.34</v>
-      </c>
-      <c r="I27" s="15">
+        <v>5.3440000000000003</v>
+      </c>
+      <c r="I27" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J27" s="7">
         <f>H27 + CS!B5</f>
-        <v>5.5</v>
+        <v>5.5040000000000004</v>
       </c>
       <c r="K27" s="12">
         <f>I27 + CS!B6</f>
@@ -2754,7 +2752,7 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="2"/>
-        <v>5.26</v>
+        <v>5.2640000000000002</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="3"/>
@@ -2762,15 +2760,15 @@
       </c>
       <c r="H28" s="7">
         <f t="shared" ref="H28:H32" si="4">H25</f>
-        <v>5.18</v>
-      </c>
-      <c r="I28" s="15">
+        <v>5.1840000000000002</v>
+      </c>
+      <c r="I28" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J28" s="7">
         <f>H28 + CS!B5</f>
-        <v>5.34</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="K28" s="12">
         <f>I28 + CS!B6</f>
@@ -2795,7 +2793,7 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>5.1040000000000001</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="3"/>
@@ -2803,15 +2801,15 @@
       </c>
       <c r="H29" s="7">
         <f t="shared" si="4"/>
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="I29" s="15">
+        <v>5.024</v>
+      </c>
+      <c r="I29" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J29" s="7">
         <f>H29 + CS!B5</f>
-        <v>5.18</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="K29" s="12">
         <f>I29 + CS!B6</f>
@@ -2836,7 +2834,7 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="2"/>
-        <v>5.42</v>
+        <v>5.4240000000000004</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="3"/>
@@ -2844,7 +2842,7 @@
       </c>
       <c r="H30" s="7">
         <f t="shared" si="4"/>
-        <v>5.34</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="I30" s="7">
         <f>CS!B13</f>
@@ -2852,7 +2850,7 @@
       </c>
       <c r="J30" s="7">
         <f>H30 + CS!B5</f>
-        <v>5.5</v>
+        <v>5.5040000000000004</v>
       </c>
       <c r="K30" s="12">
         <f>I30 + CS!B6</f>
@@ -2877,7 +2875,7 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="2"/>
-        <v>5.26</v>
+        <v>5.2640000000000002</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="3"/>
@@ -2885,7 +2883,7 @@
       </c>
       <c r="H31" s="7">
         <f t="shared" si="4"/>
-        <v>5.18</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="I31" s="7">
         <f>CS!B13</f>
@@ -2893,7 +2891,7 @@
       </c>
       <c r="J31" s="7">
         <f>H31 + CS!B5</f>
-        <v>5.34</v>
+        <v>5.3440000000000003</v>
       </c>
       <c r="K31" s="12">
         <f>I31 + CS!B6</f>
@@ -2918,7 +2916,7 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>5.1040000000000001</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="3"/>
@@ -2926,7 +2924,7 @@
       </c>
       <c r="H32" s="7">
         <f t="shared" si="4"/>
-        <v>5.0199999999999996</v>
+        <v>5.024</v>
       </c>
       <c r="I32" s="7">
         <f>CS!B13</f>
@@ -2934,7 +2932,7 @@
       </c>
       <c r="J32" s="7">
         <f>H32 + CS!B5</f>
-        <v>5.18</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="K32" s="12">
         <f>I32 + CS!B6</f>
@@ -2959,7 +2957,7 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="2"/>
-        <v>5.58</v>
+        <v>5.5840000000000005</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="3"/>
@@ -2967,7 +2965,7 @@
       </c>
       <c r="H33" s="7">
         <f>H23</f>
-        <v>5.5</v>
+        <v>5.5040000000000004</v>
       </c>
       <c r="I33" s="7">
         <f>CS!B11</f>
@@ -2975,7 +2973,7 @@
       </c>
       <c r="J33" s="7">
         <f>H33 + CS!B5</f>
-        <v>5.66</v>
+        <v>5.6640000000000006</v>
       </c>
       <c r="K33" s="12">
         <f>I33 + CS!B6</f>
@@ -3000,7 +2998,7 @@
       </c>
       <c r="F34" s="9">
         <f>(J34-H34)/2 + H34</f>
-        <v>4.8599999999999994</v>
+        <v>4.8640000000000008</v>
       </c>
       <c r="G34" s="9">
         <f>(K34-I34)/2 + I34</f>
@@ -3008,7 +3006,7 @@
       </c>
       <c r="H34" s="9">
         <f>J35</f>
-        <v>4.7799999999999994</v>
+        <v>4.7840000000000007</v>
       </c>
       <c r="I34" s="9">
         <f>CS!B12</f>
@@ -3016,7 +3014,7 @@
       </c>
       <c r="J34" s="9">
         <f>H34 + CS!B5</f>
-        <v>4.9399999999999995</v>
+        <v>4.9440000000000008</v>
       </c>
       <c r="K34" s="10">
         <f>I34 + CS!B6</f>
@@ -3041,7 +3039,7 @@
       </c>
       <c r="F35" s="7">
         <f>(J35-H35)/2 + H35</f>
-        <v>4.6999999999999993</v>
+        <v>4.7040000000000006</v>
       </c>
       <c r="G35" s="7">
         <f>(K35-I35)/2 + I35</f>
@@ -3049,7 +3047,7 @@
       </c>
       <c r="H35" s="7">
         <f>CS!B2 + CS!B3 * (E35 - 1) * CS!B4</f>
-        <v>4.6199999999999992</v>
+        <v>4.6240000000000006</v>
       </c>
       <c r="I35" s="7">
         <f>CS!B11</f>
@@ -3057,7 +3055,7 @@
       </c>
       <c r="J35" s="7">
         <f>H35 + CS!B5</f>
-        <v>4.7799999999999994</v>
+        <v>4.7840000000000007</v>
       </c>
       <c r="K35" s="12">
         <f>I35 + CS!B6</f>
@@ -3082,7 +3080,7 @@
       </c>
       <c r="F36" s="7">
         <f t="shared" ref="F36:F44" si="5">(J36-H36)/2 + H36</f>
-        <v>4.5399999999999991</v>
+        <v>4.5440000000000005</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" ref="G36:G44" si="6">(K36-I36)/2 + I36</f>
@@ -3090,7 +3088,7 @@
       </c>
       <c r="H36" s="7">
         <f>H35-CS!B5</f>
-        <v>4.4599999999999991</v>
+        <v>4.4640000000000004</v>
       </c>
       <c r="I36" s="7">
         <f>CS!B11</f>
@@ -3098,7 +3096,7 @@
       </c>
       <c r="J36" s="7">
         <f>H36 + CS!B5</f>
-        <v>4.6199999999999992</v>
+        <v>4.6240000000000006</v>
       </c>
       <c r="K36" s="12">
         <f>I36 + CS!B6</f>
@@ -3123,7 +3121,7 @@
       </c>
       <c r="F37" s="7">
         <f t="shared" si="5"/>
-        <v>4.379999999999999</v>
+        <v>4.3840000000000003</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="6"/>
@@ -3131,7 +3129,7 @@
       </c>
       <c r="H37" s="7">
         <f>H36 - CS!B5</f>
-        <v>4.2999999999999989</v>
+        <v>4.3040000000000003</v>
       </c>
       <c r="I37" s="7">
         <f>CS!B11</f>
@@ -3139,7 +3137,7 @@
       </c>
       <c r="J37" s="7">
         <f>H37 + CS!B5</f>
-        <v>4.4599999999999991</v>
+        <v>4.4640000000000004</v>
       </c>
       <c r="K37" s="12">
         <f>I37 + CS!B6</f>
@@ -3164,7 +3162,7 @@
       </c>
       <c r="F38" s="7">
         <f t="shared" si="5"/>
-        <v>4.6999999999999993</v>
+        <v>4.7040000000000006</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="6"/>
@@ -3172,15 +3170,15 @@
       </c>
       <c r="H38" s="7">
         <f>H35</f>
-        <v>4.6199999999999992</v>
-      </c>
-      <c r="I38" s="15">
+        <v>4.6240000000000006</v>
+      </c>
+      <c r="I38" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J38" s="7">
         <f>H38 + CS!B5</f>
-        <v>4.7799999999999994</v>
+        <v>4.7840000000000007</v>
       </c>
       <c r="K38" s="12">
         <f>I38 + CS!B6</f>
@@ -3205,7 +3203,7 @@
       </c>
       <c r="F39" s="7">
         <f t="shared" si="5"/>
-        <v>4.5399999999999991</v>
+        <v>4.5440000000000005</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
@@ -3213,15 +3211,15 @@
       </c>
       <c r="H39" s="7">
         <f t="shared" ref="H39:H40" si="7">H36</f>
-        <v>4.4599999999999991</v>
-      </c>
-      <c r="I39" s="15">
+        <v>4.4640000000000004</v>
+      </c>
+      <c r="I39" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J39" s="7">
         <f>H39 + CS!B5</f>
-        <v>4.6199999999999992</v>
+        <v>4.6240000000000006</v>
       </c>
       <c r="K39" s="12">
         <f>I39 + CS!B6</f>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="F40" s="7">
         <f t="shared" si="5"/>
-        <v>4.379999999999999</v>
+        <v>4.3840000000000003</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
@@ -3254,15 +3252,15 @@
       </c>
       <c r="H40" s="7">
         <f t="shared" si="7"/>
-        <v>4.2999999999999989</v>
-      </c>
-      <c r="I40" s="15">
+        <v>4.3040000000000003</v>
+      </c>
+      <c r="I40" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J40" s="7">
         <f>H40 + CS!B5</f>
-        <v>4.4599999999999991</v>
+        <v>4.4640000000000004</v>
       </c>
       <c r="K40" s="12">
         <f>I40 + CS!B6</f>
@@ -3338,7 +3336,7 @@
       </c>
       <c r="F44" s="7">
         <f t="shared" si="5"/>
-        <v>4.8599999999999994</v>
+        <v>4.8640000000000008</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
@@ -3346,7 +3344,7 @@
       </c>
       <c r="H44" s="7">
         <f>H34</f>
-        <v>4.7799999999999994</v>
+        <v>4.7840000000000007</v>
       </c>
       <c r="I44" s="7">
         <f>CS!B11</f>
@@ -3354,7 +3352,7 @@
       </c>
       <c r="J44" s="13">
         <f>H44 + CS!B5</f>
-        <v>4.9399999999999995</v>
+        <v>4.9440000000000008</v>
       </c>
       <c r="K44" s="14">
         <f>I44 + CS!B6</f>
@@ -3379,15 +3377,15 @@
       </c>
       <c r="F45" s="9">
         <f>(J45-H45)/2 + H45</f>
-        <v>4.1399999999999997</v>
+        <v>4.1639999999999997</v>
       </c>
       <c r="G45" s="9">
         <f>(K45-I45)/2 + I45</f>
         <v>0.24</v>
       </c>
       <c r="H45" s="9">
-        <f>J46</f>
-        <v>4.0599999999999996</v>
+        <f>J46+0.02</f>
+        <v>4.0839999999999996</v>
       </c>
       <c r="I45" s="9">
         <f>CS!B12</f>
@@ -3395,7 +3393,7 @@
       </c>
       <c r="J45" s="7">
         <f>H45 + CS!B5</f>
-        <v>4.22</v>
+        <v>4.2439999999999998</v>
       </c>
       <c r="K45" s="12">
         <f>I45 + CS!B6</f>
@@ -3420,7 +3418,7 @@
       </c>
       <c r="F46" s="7">
         <f>(J46-H46)/2 + H46</f>
-        <v>3.9799999999999995</v>
+        <v>3.984</v>
       </c>
       <c r="G46" s="7">
         <f>(K46-I46)/2 + I46</f>
@@ -3428,7 +3426,7 @@
       </c>
       <c r="H46" s="7">
         <f>CS!B2 + CS!B3 * (E46 - 1) * CS!B4</f>
-        <v>3.8999999999999995</v>
+        <v>3.9039999999999999</v>
       </c>
       <c r="I46" s="7">
         <f>CS!B11</f>
@@ -3436,7 +3434,7 @@
       </c>
       <c r="J46" s="7">
         <f>H46 + CS!B5</f>
-        <v>4.0599999999999996</v>
+        <v>4.0640000000000001</v>
       </c>
       <c r="K46" s="12">
         <f>I46 + CS!B6</f>
@@ -3461,7 +3459,7 @@
       </c>
       <c r="F47" s="7">
         <f t="shared" ref="F47:F55" si="8">(J47-H47)/2 + H47</f>
-        <v>3.8199999999999994</v>
+        <v>3.8239999999999998</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" ref="G47:G55" si="9">(K47-I47)/2 + I47</f>
@@ -3469,7 +3467,7 @@
       </c>
       <c r="H47" s="7">
         <f>H46-CS!B5</f>
-        <v>3.7399999999999993</v>
+        <v>3.7439999999999998</v>
       </c>
       <c r="I47" s="7">
         <f>CS!B11</f>
@@ -3477,7 +3475,7 @@
       </c>
       <c r="J47" s="7">
         <f>H47 + CS!B5</f>
-        <v>3.8999999999999995</v>
+        <v>3.9039999999999999</v>
       </c>
       <c r="K47" s="12">
         <f>I47 + CS!B6</f>
@@ -3502,7 +3500,7 @@
       </c>
       <c r="F48" s="7">
         <f t="shared" si="8"/>
-        <v>3.6599999999999993</v>
+        <v>3.6639999999999997</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="9"/>
@@ -3510,7 +3508,7 @@
       </c>
       <c r="H48" s="7">
         <f>H47-CS!B5</f>
-        <v>3.5799999999999992</v>
+        <v>3.5839999999999996</v>
       </c>
       <c r="I48" s="7">
         <f>CS!B11</f>
@@ -3518,7 +3516,7 @@
       </c>
       <c r="J48" s="7">
         <f>H48 + CS!B5</f>
-        <v>3.7399999999999993</v>
+        <v>3.7439999999999998</v>
       </c>
       <c r="K48" s="12">
         <f>I48 + CS!B6</f>
@@ -3543,7 +3541,7 @@
       </c>
       <c r="F49" s="7">
         <f t="shared" si="8"/>
-        <v>3.9799999999999995</v>
+        <v>3.984</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="9"/>
@@ -3551,15 +3549,15 @@
       </c>
       <c r="H49" s="7">
         <f>H46</f>
-        <v>3.8999999999999995</v>
-      </c>
-      <c r="I49" s="15">
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="I49" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J49" s="7">
         <f>H49 + CS!B5</f>
-        <v>4.0599999999999996</v>
+        <v>4.0640000000000001</v>
       </c>
       <c r="K49" s="12">
         <f>I49 + CS!B6</f>
@@ -3584,7 +3582,7 @@
       </c>
       <c r="F50" s="7">
         <f t="shared" si="8"/>
-        <v>3.8199999999999994</v>
+        <v>3.8239999999999998</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="9"/>
@@ -3592,15 +3590,15 @@
       </c>
       <c r="H50" s="7">
         <f t="shared" ref="H50:H51" si="10">H47</f>
-        <v>3.7399999999999993</v>
-      </c>
-      <c r="I50" s="15">
+        <v>3.7439999999999998</v>
+      </c>
+      <c r="I50" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J50" s="7">
         <f>H50 + CS!B5</f>
-        <v>3.8999999999999995</v>
+        <v>3.9039999999999999</v>
       </c>
       <c r="K50" s="12">
         <f>I50 + CS!B6</f>
@@ -3625,7 +3623,7 @@
       </c>
       <c r="F51" s="7">
         <f t="shared" si="8"/>
-        <v>3.6599999999999993</v>
+        <v>3.6639999999999997</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="9"/>
@@ -3633,15 +3631,15 @@
       </c>
       <c r="H51" s="7">
         <f t="shared" si="10"/>
-        <v>3.5799999999999992</v>
-      </c>
-      <c r="I51" s="15">
+        <v>3.5839999999999996</v>
+      </c>
+      <c r="I51" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J51" s="7">
         <f>H51 + CS!B5</f>
-        <v>3.7399999999999993</v>
+        <v>3.7439999999999998</v>
       </c>
       <c r="K51" s="12">
         <f>I51 + CS!B6</f>
@@ -3717,7 +3715,7 @@
       </c>
       <c r="F55" s="7">
         <f t="shared" si="8"/>
-        <v>4.1399999999999997</v>
+        <v>4.1639999999999997</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="9"/>
@@ -3725,7 +3723,7 @@
       </c>
       <c r="H55" s="7">
         <f>H45</f>
-        <v>4.0599999999999996</v>
+        <v>4.0839999999999996</v>
       </c>
       <c r="I55" s="7">
         <f>CS!B11</f>
@@ -3733,7 +3731,7 @@
       </c>
       <c r="J55" s="13">
         <f>H55 + CS!B5</f>
-        <v>4.22</v>
+        <v>4.2439999999999998</v>
       </c>
       <c r="K55" s="14">
         <f>I55 + CS!B6</f>
@@ -3758,7 +3756,7 @@
       </c>
       <c r="F56" s="9">
         <f>(J56-H56)/2 + H56</f>
-        <v>3.42</v>
+        <v>3.4240000000000004</v>
       </c>
       <c r="G56" s="9">
         <f>(K56-I56)/2 + I56</f>
@@ -3766,7 +3764,7 @@
       </c>
       <c r="H56" s="9">
         <f>J57</f>
-        <v>3.34</v>
+        <v>3.3440000000000003</v>
       </c>
       <c r="I56" s="9">
         <f>CS!B12</f>
@@ -3774,7 +3772,7 @@
       </c>
       <c r="J56" s="7">
         <f>H56 + CS!B5</f>
-        <v>3.5</v>
+        <v>3.5040000000000004</v>
       </c>
       <c r="K56" s="12">
         <f>I56 + CS!B6</f>
@@ -3799,7 +3797,7 @@
       </c>
       <c r="F57" s="7">
         <f>(J57-H57)/2 + H57</f>
-        <v>3.26</v>
+        <v>3.2640000000000002</v>
       </c>
       <c r="G57" s="7">
         <f>(K57-I57)/2 + I57</f>
@@ -3807,7 +3805,7 @@
       </c>
       <c r="H57" s="7">
         <f>CS!B2 + CS!B3 * (E57 - 1) * CS!B4</f>
-        <v>3.1799999999999997</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="I57" s="7">
         <f>CS!B11</f>
@@ -3815,7 +3813,7 @@
       </c>
       <c r="J57" s="7">
         <f>H57 + CS!B5</f>
-        <v>3.34</v>
+        <v>3.3440000000000003</v>
       </c>
       <c r="K57" s="12">
         <f>I57 + CS!B6</f>
@@ -3840,7 +3838,7 @@
       </c>
       <c r="F58" s="7">
         <f t="shared" ref="F58:F66" si="11">(J58-H58)/2 + H58</f>
-        <v>3.0999999999999996</v>
+        <v>3.1040000000000001</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" ref="G58:G66" si="12">(K58-I58)/2 + I58</f>
@@ -3848,7 +3846,7 @@
       </c>
       <c r="H58" s="7">
         <f>H57-CS!B5</f>
-        <v>3.0199999999999996</v>
+        <v>3.024</v>
       </c>
       <c r="I58" s="7">
         <f>CS!B11</f>
@@ -3856,7 +3854,7 @@
       </c>
       <c r="J58" s="7">
         <f>H58 + CS!B5</f>
-        <v>3.1799999999999997</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="K58" s="12">
         <f>I58 + CS!B6</f>
@@ -3881,7 +3879,7 @@
       </c>
       <c r="F59" s="7">
         <f t="shared" si="11"/>
-        <v>2.9399999999999995</v>
+        <v>2.944</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="12"/>
@@ -3889,7 +3887,7 @@
       </c>
       <c r="H59" s="7">
         <f>H58 - CS!B5</f>
-        <v>2.8599999999999994</v>
+        <v>2.8639999999999999</v>
       </c>
       <c r="I59" s="7">
         <f>CS!B11</f>
@@ -3897,7 +3895,7 @@
       </c>
       <c r="J59" s="7">
         <f>H59 + CS!B5</f>
-        <v>3.0199999999999996</v>
+        <v>3.024</v>
       </c>
       <c r="K59" s="12">
         <f>I59 + CS!B6</f>
@@ -3922,7 +3920,7 @@
       </c>
       <c r="F60" s="7">
         <f t="shared" si="11"/>
-        <v>3.26</v>
+        <v>3.2640000000000002</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="12"/>
@@ -3930,15 +3928,15 @@
       </c>
       <c r="H60" s="7">
         <f>H57</f>
-        <v>3.1799999999999997</v>
-      </c>
-      <c r="I60" s="15">
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="I60" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J60" s="7">
         <f>H60 + CS!B5</f>
-        <v>3.34</v>
+        <v>3.3440000000000003</v>
       </c>
       <c r="K60" s="12">
         <f>I60 + CS!B6</f>
@@ -3963,7 +3961,7 @@
       </c>
       <c r="F61" s="7">
         <f t="shared" si="11"/>
-        <v>3.0999999999999996</v>
+        <v>3.1040000000000001</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="12"/>
@@ -3971,15 +3969,15 @@
       </c>
       <c r="H61" s="7">
         <f t="shared" ref="H61:H62" si="13">H58</f>
-        <v>3.0199999999999996</v>
-      </c>
-      <c r="I61" s="15">
+        <v>3.024</v>
+      </c>
+      <c r="I61" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J61" s="7">
         <f>H61 + CS!B5</f>
-        <v>3.1799999999999997</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="K61" s="12">
         <f>I61 + CS!B6</f>
@@ -4004,7 +4002,7 @@
       </c>
       <c r="F62" s="7">
         <f t="shared" si="11"/>
-        <v>2.9399999999999995</v>
+        <v>2.944</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="12"/>
@@ -4012,15 +4010,15 @@
       </c>
       <c r="H62" s="7">
         <f t="shared" si="13"/>
-        <v>2.8599999999999994</v>
-      </c>
-      <c r="I62" s="15">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="I62" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J62" s="7">
         <f>H62 + CS!B5</f>
-        <v>3.0199999999999996</v>
+        <v>3.024</v>
       </c>
       <c r="K62" s="12">
         <f>I62 + CS!B6</f>
@@ -4096,7 +4094,7 @@
       </c>
       <c r="F66" s="7">
         <f t="shared" si="11"/>
-        <v>3.42</v>
+        <v>3.4240000000000004</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="12"/>
@@ -4104,7 +4102,7 @@
       </c>
       <c r="H66" s="7">
         <f>H56</f>
-        <v>3.34</v>
+        <v>3.3440000000000003</v>
       </c>
       <c r="I66" s="7">
         <f>CS!B11</f>
@@ -4112,7 +4110,7 @@
       </c>
       <c r="J66" s="13">
         <f>H66 + CS!B5</f>
-        <v>3.5</v>
+        <v>3.5040000000000004</v>
       </c>
       <c r="K66" s="14">
         <f>I66 + CS!B6</f>
@@ -4137,7 +4135,7 @@
       </c>
       <c r="F67" s="9">
         <f>(J67-H67)/2 + H67</f>
-        <v>2.7</v>
+        <v>2.7040000000000006</v>
       </c>
       <c r="G67" s="9">
         <f>(K67-I67)/2 + I67</f>
@@ -4145,7 +4143,7 @@
       </c>
       <c r="H67" s="9">
         <f>J68</f>
-        <v>2.62</v>
+        <v>2.6240000000000006</v>
       </c>
       <c r="I67" s="9">
         <f>CS!B12</f>
@@ -4153,7 +4151,7 @@
       </c>
       <c r="J67" s="7">
         <f>H67 + CS!B5</f>
-        <v>2.7800000000000002</v>
+        <v>2.7840000000000007</v>
       </c>
       <c r="K67" s="12">
         <f>I67 + CS!B6</f>
@@ -4178,7 +4176,7 @@
       </c>
       <c r="F68" s="7">
         <f>(J68-H68)/2 + H68</f>
-        <v>2.54</v>
+        <v>2.5440000000000005</v>
       </c>
       <c r="G68" s="7">
         <f>(K68-I68)/2 + I68</f>
@@ -4186,7 +4184,7 @@
       </c>
       <c r="H68" s="7">
         <f>CS!B2 + CS!B3 * (E68 - 1) * CS!B4</f>
-        <v>2.46</v>
+        <v>2.4640000000000004</v>
       </c>
       <c r="I68" s="7">
         <f>CS!B11</f>
@@ -4194,7 +4192,7 @@
       </c>
       <c r="J68" s="7">
         <f>H68 + CS!B5</f>
-        <v>2.62</v>
+        <v>2.6240000000000006</v>
       </c>
       <c r="K68" s="12">
         <f>I68 + CS!B6</f>
@@ -4219,7 +4217,7 @@
       </c>
       <c r="F69" s="7">
         <f t="shared" ref="F69:F77" si="14">(J69-H69)/2 + H69</f>
-        <v>2.38</v>
+        <v>2.3840000000000003</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" ref="G69:G77" si="15">(K69-I69)/2 + I69</f>
@@ -4227,7 +4225,7 @@
       </c>
       <c r="H69" s="7">
         <f>H68-CS!B5</f>
-        <v>2.2999999999999998</v>
+        <v>2.3040000000000003</v>
       </c>
       <c r="I69" s="7">
         <f>CS!B11</f>
@@ -4235,7 +4233,7 @@
       </c>
       <c r="J69" s="7">
         <f>H69 + CS!B5</f>
-        <v>2.46</v>
+        <v>2.4640000000000004</v>
       </c>
       <c r="K69" s="12">
         <f>I69 + CS!B6</f>
@@ -4260,7 +4258,7 @@
       </c>
       <c r="F70" s="7">
         <f t="shared" si="14"/>
-        <v>2.2199999999999998</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="15"/>
@@ -4268,7 +4266,7 @@
       </c>
       <c r="H70" s="7">
         <f>H69 - CS!B5</f>
-        <v>2.1399999999999997</v>
+        <v>2.1440000000000001</v>
       </c>
       <c r="I70" s="7">
         <f>CS!B11</f>
@@ -4276,7 +4274,7 @@
       </c>
       <c r="J70" s="7">
         <f>H70 + CS!B5</f>
-        <v>2.2999999999999998</v>
+        <v>2.3040000000000003</v>
       </c>
       <c r="K70" s="12">
         <f>I70 + CS!B6</f>
@@ -4301,7 +4299,7 @@
       </c>
       <c r="F71" s="7">
         <f t="shared" si="14"/>
-        <v>2.54</v>
+        <v>2.5440000000000005</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="15"/>
@@ -4309,15 +4307,15 @@
       </c>
       <c r="H71" s="7">
         <f>H68</f>
-        <v>2.46</v>
-      </c>
-      <c r="I71" s="15">
+        <v>2.4640000000000004</v>
+      </c>
+      <c r="I71" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J71" s="7">
         <f>H71 + CS!B5</f>
-        <v>2.62</v>
+        <v>2.6240000000000006</v>
       </c>
       <c r="K71" s="12">
         <f>I71 + CS!B6</f>
@@ -4342,7 +4340,7 @@
       </c>
       <c r="F72" s="7">
         <f t="shared" si="14"/>
-        <v>2.38</v>
+        <v>2.3840000000000003</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="15"/>
@@ -4350,15 +4348,15 @@
       </c>
       <c r="H72" s="7">
         <f t="shared" ref="H72:H73" si="16">H69</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I72" s="15">
+        <v>2.3040000000000003</v>
+      </c>
+      <c r="I72" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J72" s="7">
         <f>H72 + CS!B5</f>
-        <v>2.46</v>
+        <v>2.4640000000000004</v>
       </c>
       <c r="K72" s="12">
         <f>I72 + CS!B6</f>
@@ -4383,7 +4381,7 @@
       </c>
       <c r="F73" s="7">
         <f t="shared" si="14"/>
-        <v>2.2199999999999998</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="15"/>
@@ -4391,15 +4389,15 @@
       </c>
       <c r="H73" s="7">
         <f t="shared" si="16"/>
-        <v>2.1399999999999997</v>
-      </c>
-      <c r="I73" s="15">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="I73" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J73" s="7">
         <f>H73 + CS!B5</f>
-        <v>2.2999999999999998</v>
+        <v>2.3040000000000003</v>
       </c>
       <c r="K73" s="12">
         <f>I73 + CS!B6</f>
@@ -4475,7 +4473,7 @@
       </c>
       <c r="F77" s="7">
         <f t="shared" si="14"/>
-        <v>2.7</v>
+        <v>2.7040000000000006</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="15"/>
@@ -4483,7 +4481,7 @@
       </c>
       <c r="H77" s="13">
         <f>H67</f>
-        <v>2.62</v>
+        <v>2.6240000000000006</v>
       </c>
       <c r="I77" s="7">
         <f>CS!B11</f>
@@ -4491,7 +4489,7 @@
       </c>
       <c r="J77" s="13">
         <f>H77 + CS!B5</f>
-        <v>2.7800000000000002</v>
+        <v>2.7840000000000007</v>
       </c>
       <c r="K77" s="14">
         <f>I77 + CS!B6</f>
@@ -4516,7 +4514,7 @@
       </c>
       <c r="F78" s="9">
         <f>(J78-H78)/2 + H78</f>
-        <v>1.9149999999999991</v>
+        <v>1.9189999999999996</v>
       </c>
       <c r="G78" s="9">
         <f>(K78-I78)/2 + I78</f>
@@ -4524,7 +4522,7 @@
       </c>
       <c r="H78" s="9">
         <f>J79</f>
-        <v>1.8349999999999993</v>
+        <v>1.8389999999999997</v>
       </c>
       <c r="I78" s="9">
         <f>CS!B12</f>
@@ -4532,7 +4530,7 @@
       </c>
       <c r="J78" s="7">
         <f>H78 + CS!B5</f>
-        <v>1.9949999999999992</v>
+        <v>1.9989999999999997</v>
       </c>
       <c r="K78" s="12">
         <f>I78 + CS!B6</f>
@@ -4557,7 +4555,7 @@
       </c>
       <c r="F79" s="7">
         <f>(J79-H79)/2 + H79</f>
-        <v>1.7549999999999994</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="G79" s="7">
         <f>(K79-I79)/2 + I79</f>
@@ -4565,7 +4563,7 @@
       </c>
       <c r="H79" s="7">
         <f>CS!B2 + CS!B3 * (E79 - 1) * CS!B4 -0.065</f>
-        <v>1.6749999999999994</v>
+        <v>1.6789999999999998</v>
       </c>
       <c r="I79" s="7">
         <f>CS!B11</f>
@@ -4573,7 +4571,7 @@
       </c>
       <c r="J79" s="7">
         <f>H79 + CS!B5</f>
-        <v>1.8349999999999993</v>
+        <v>1.8389999999999997</v>
       </c>
       <c r="K79" s="12">
         <f>I79 + CS!B6</f>
@@ -4598,7 +4596,7 @@
       </c>
       <c r="F80" s="7">
         <f t="shared" ref="F80:F88" si="17">(J80-H80)/2 + H80</f>
-        <v>1.5949999999999993</v>
+        <v>1.5989999999999998</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" ref="G80:G88" si="18">(K80-I80)/2 + I80</f>
@@ -4606,7 +4604,7 @@
       </c>
       <c r="H80" s="7">
         <f>H79-CS!B5</f>
-        <v>1.5149999999999995</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="I80" s="7">
         <f>CS!B11</f>
@@ -4614,7 +4612,7 @@
       </c>
       <c r="J80" s="7">
         <f>H80 + CS!B5</f>
-        <v>1.6749999999999994</v>
+        <v>1.6789999999999998</v>
       </c>
       <c r="K80" s="12">
         <f>I80 + CS!B6</f>
@@ -4639,7 +4637,7 @@
       </c>
       <c r="F81" s="7">
         <f t="shared" si="17"/>
-        <v>1.4349999999999996</v>
+        <v>1.4390000000000001</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="18"/>
@@ -4647,7 +4645,7 @@
       </c>
       <c r="H81" s="7">
         <f>H80 - CS!B5</f>
-        <v>1.3549999999999995</v>
+        <v>1.359</v>
       </c>
       <c r="I81" s="7">
         <f>CS!B11</f>
@@ -4655,7 +4653,7 @@
       </c>
       <c r="J81" s="7">
         <f>H81 + CS!B5</f>
-        <v>1.5149999999999995</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="K81" s="12">
         <f>I81 + CS!B6</f>
@@ -4680,7 +4678,7 @@
       </c>
       <c r="F82" s="7">
         <f t="shared" si="17"/>
-        <v>1.7549999999999994</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="18"/>
@@ -4688,15 +4686,15 @@
       </c>
       <c r="H82" s="7">
         <f>H79</f>
-        <v>1.6749999999999994</v>
-      </c>
-      <c r="I82" s="15">
+        <v>1.6789999999999998</v>
+      </c>
+      <c r="I82" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J82" s="7">
         <f>H82 + CS!B5</f>
-        <v>1.8349999999999993</v>
+        <v>1.8389999999999997</v>
       </c>
       <c r="K82" s="12">
         <f>I82 + CS!B6</f>
@@ -4721,7 +4719,7 @@
       </c>
       <c r="F83" s="7">
         <f t="shared" si="17"/>
-        <v>1.5949999999999993</v>
+        <v>1.5989999999999998</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="18"/>
@@ -4729,15 +4727,15 @@
       </c>
       <c r="H83" s="7">
         <f t="shared" ref="H83:H84" si="19">H80</f>
-        <v>1.5149999999999995</v>
-      </c>
-      <c r="I83" s="15">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="I83" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J83" s="7">
         <f>H83 + CS!B5</f>
-        <v>1.6749999999999994</v>
+        <v>1.6789999999999998</v>
       </c>
       <c r="K83" s="12">
         <f>I83 + CS!B6</f>
@@ -4762,7 +4760,7 @@
       </c>
       <c r="F84" s="7">
         <f t="shared" si="17"/>
-        <v>1.4349999999999996</v>
+        <v>1.4390000000000001</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="18"/>
@@ -4770,15 +4768,15 @@
       </c>
       <c r="H84" s="7">
         <f t="shared" si="19"/>
-        <v>1.3549999999999995</v>
-      </c>
-      <c r="I84" s="15">
+        <v>1.359</v>
+      </c>
+      <c r="I84" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J84" s="7">
         <f>H84 + CS!B5</f>
-        <v>1.5149999999999995</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="K84" s="12">
         <f>I84 + CS!B6</f>
@@ -4854,7 +4852,7 @@
       </c>
       <c r="F88" s="7">
         <f t="shared" si="17"/>
-        <v>1.9149999999999991</v>
+        <v>1.9189999999999996</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="18"/>
@@ -4862,7 +4860,7 @@
       </c>
       <c r="H88" s="13">
         <f>H78</f>
-        <v>1.8349999999999993</v>
+        <v>1.8389999999999997</v>
       </c>
       <c r="I88" s="7">
         <f>CS!B11</f>
@@ -4870,7 +4868,7 @@
       </c>
       <c r="J88" s="13">
         <f>H88 + CS!B5</f>
-        <v>1.9949999999999992</v>
+        <v>1.9989999999999997</v>
       </c>
       <c r="K88" s="14">
         <f>I88 + CS!B6</f>
@@ -4895,7 +4893,7 @@
       </c>
       <c r="F89" s="9">
         <f>(J89-H89)/2 + H89</f>
-        <v>1.1949999999999994</v>
+        <v>1.1989999999999998</v>
       </c>
       <c r="G89" s="9">
         <f>(K89-I89)/2 + I89</f>
@@ -4903,7 +4901,7 @@
       </c>
       <c r="H89" s="9">
         <f>J90</f>
-        <v>1.1149999999999995</v>
+        <v>1.119</v>
       </c>
       <c r="I89" s="9">
         <f>CS!B12</f>
@@ -4911,7 +4909,7 @@
       </c>
       <c r="J89" s="7">
         <f>H89 + CS!B5</f>
-        <v>1.2749999999999995</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="K89" s="12">
         <f>I89 + CS!B6</f>
@@ -4936,7 +4934,7 @@
       </c>
       <c r="F90" s="7">
         <f>(J90-H90)/2 + H90</f>
-        <v>1.0349999999999997</v>
+        <v>1.0390000000000001</v>
       </c>
       <c r="G90" s="7">
         <f>(K90-I90)/2 + I90</f>
@@ -4944,7 +4942,7 @@
       </c>
       <c r="H90" s="7">
         <f>CS!B2 + CS!B3 * (E90 - 1) * CS!B4 -0.065</f>
-        <v>0.95499999999999963</v>
+        <v>0.95900000000000007</v>
       </c>
       <c r="I90" s="7">
         <f>CS!B11</f>
@@ -4952,7 +4950,7 @@
       </c>
       <c r="J90" s="7">
         <f>H90 + CS!B5</f>
-        <v>1.1149999999999995</v>
+        <v>1.119</v>
       </c>
       <c r="K90" s="12">
         <f>I90 + CS!B6</f>
@@ -4977,7 +4975,7 @@
       </c>
       <c r="F91" s="7">
         <f t="shared" ref="F91:F99" si="20">(J91-H91)/2 + H91</f>
-        <v>0.87499999999999956</v>
+        <v>0.879</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" ref="G91:G99" si="21">(K91-I91)/2 + I91</f>
@@ -4985,7 +4983,7 @@
       </c>
       <c r="H91" s="7">
         <f>H90-CS!B5</f>
-        <v>0.7949999999999996</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="I91" s="7">
         <f>CS!B11</f>
@@ -4993,7 +4991,7 @@
       </c>
       <c r="J91" s="7">
         <f>H91 + CS!B5</f>
-        <v>0.95499999999999963</v>
+        <v>0.95900000000000007</v>
       </c>
       <c r="K91" s="12">
         <f>I91 + CS!B6</f>
@@ -5018,7 +5016,7 @@
       </c>
       <c r="F92" s="7">
         <f t="shared" si="20"/>
-        <v>0.71499999999999964</v>
+        <v>0.71900000000000008</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="21"/>
@@ -5026,7 +5024,7 @@
       </c>
       <c r="H92" s="7">
         <f>H91 - CS!B5</f>
-        <v>0.63499999999999956</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="I92" s="7">
         <f>CS!B11</f>
@@ -5034,7 +5032,7 @@
       </c>
       <c r="J92" s="7">
         <f>H92 + CS!B5</f>
-        <v>0.7949999999999996</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="K92" s="12">
         <f>I92 + CS!B6</f>
@@ -5059,7 +5057,7 @@
       </c>
       <c r="F93" s="7">
         <f t="shared" si="20"/>
-        <v>1.0349999999999997</v>
+        <v>1.0390000000000001</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="21"/>
@@ -5067,15 +5065,15 @@
       </c>
       <c r="H93" s="7">
         <f>H90</f>
-        <v>0.95499999999999963</v>
-      </c>
-      <c r="I93" s="15">
+        <v>0.95900000000000007</v>
+      </c>
+      <c r="I93" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J93" s="7">
         <f>H93 + CS!B5</f>
-        <v>1.1149999999999995</v>
+        <v>1.119</v>
       </c>
       <c r="K93" s="12">
         <f>I93 + CS!B6</f>
@@ -5100,7 +5098,7 @@
       </c>
       <c r="F94" s="7">
         <f t="shared" si="20"/>
-        <v>0.87499999999999956</v>
+        <v>0.879</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="21"/>
@@ -5108,15 +5106,15 @@
       </c>
       <c r="H94" s="7">
         <f t="shared" ref="H94:H95" si="22">H91</f>
-        <v>0.7949999999999996</v>
-      </c>
-      <c r="I94" s="15">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="I94" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J94" s="7">
         <f>H94 + CS!B5</f>
-        <v>0.95499999999999963</v>
+        <v>0.95900000000000007</v>
       </c>
       <c r="K94" s="12">
         <f>I94 + CS!B6</f>
@@ -5141,7 +5139,7 @@
       </c>
       <c r="F95" s="7">
         <f t="shared" si="20"/>
-        <v>0.71499999999999964</v>
+        <v>0.71900000000000008</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="21"/>
@@ -5149,15 +5147,15 @@
       </c>
       <c r="H95" s="7">
         <f t="shared" si="22"/>
-        <v>0.63499999999999956</v>
-      </c>
-      <c r="I95" s="15">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="I95" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J95" s="7">
         <f>H95 + CS!B5</f>
-        <v>0.7949999999999996</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="K95" s="12">
         <f>I95 + CS!B6</f>
@@ -5233,7 +5231,7 @@
       </c>
       <c r="F99" s="7">
         <f t="shared" si="20"/>
-        <v>1.1949999999999994</v>
+        <v>1.1989999999999998</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="21"/>
@@ -5241,7 +5239,7 @@
       </c>
       <c r="H99" s="13">
         <f>H89</f>
-        <v>1.1149999999999995</v>
+        <v>1.119</v>
       </c>
       <c r="I99" s="7">
         <f>CS!B11</f>
@@ -5249,7 +5247,7 @@
       </c>
       <c r="J99" s="13">
         <f>H99 + CS!B5</f>
-        <v>1.2749999999999995</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="K99" s="14">
         <f>I99 + CS!B6</f>
@@ -5274,15 +5272,15 @@
       </c>
       <c r="F100" s="9">
         <f>(J100-H100)/2 + H100</f>
-        <v>0.52499999999999991</v>
+        <v>0.55900000000000039</v>
       </c>
       <c r="G100" s="9">
         <f>(K100-I100)/2 + I100</f>
         <v>0.24</v>
       </c>
       <c r="H100" s="9">
-        <f>J101</f>
-        <v>0.44499999999999984</v>
+        <f>J101+0.03</f>
+        <v>0.47900000000000031</v>
       </c>
       <c r="I100" s="9">
         <f>CS!B12</f>
@@ -5290,7 +5288,7 @@
       </c>
       <c r="J100" s="7">
         <f>H100 + CS!B5</f>
-        <v>0.60499999999999987</v>
+        <v>0.63900000000000035</v>
       </c>
       <c r="K100" s="12">
         <f>I100 + CS!B6</f>
@@ -5315,7 +5313,7 @@
       </c>
       <c r="F101" s="7">
         <f>(J101-H101)/2 + H101</f>
-        <v>0.36499999999999982</v>
+        <v>0.36900000000000027</v>
       </c>
       <c r="G101" s="7">
         <f>(K101-I101)/2 + I101</f>
@@ -5323,7 +5321,7 @@
       </c>
       <c r="H101" s="7">
         <f>CS!B2 + CS!B3 * (E101 - 1) * CS!B4 -0.015</f>
-        <v>0.28499999999999981</v>
+        <v>0.28900000000000026</v>
       </c>
       <c r="I101" s="7">
         <f>CS!B11</f>
@@ -5331,7 +5329,7 @@
       </c>
       <c r="J101" s="7">
         <f>H101 + CS!B5</f>
-        <v>0.44499999999999984</v>
+        <v>0.44900000000000029</v>
       </c>
       <c r="K101" s="12">
         <f>I101 + CS!B6</f>
@@ -5356,7 +5354,7 @@
       </c>
       <c r="F102" s="7">
         <f t="shared" ref="F102:F110" si="23">(J102-H102)/2 + H102</f>
-        <v>0.20499999999999979</v>
+        <v>0.20900000000000024</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" ref="G102:G110" si="24">(K102-I102)/2 + I102</f>
@@ -5364,7 +5362,7 @@
       </c>
       <c r="H102" s="7">
         <f>H101-CS!B5</f>
-        <v>0.12499999999999981</v>
+        <v>0.12900000000000025</v>
       </c>
       <c r="I102" s="7">
         <f>CS!B11</f>
@@ -5372,7 +5370,7 @@
       </c>
       <c r="J102" s="7">
         <f>H102 + CS!B5</f>
-        <v>0.28499999999999981</v>
+        <v>0.28900000000000026</v>
       </c>
       <c r="K102" s="12">
         <f>I102 + CS!B6</f>
@@ -5397,7 +5395,7 @@
       </c>
       <c r="F103" s="7">
         <f t="shared" si="23"/>
-        <v>4.4999999999999804E-2</v>
+        <v>4.9000000000000252E-2</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="24"/>
@@ -5405,7 +5403,7 @@
       </c>
       <c r="H103" s="7">
         <f>H102 - CS!B5</f>
-        <v>-3.5000000000000198E-2</v>
+        <v>-3.099999999999975E-2</v>
       </c>
       <c r="I103" s="7">
         <f>CS!B11</f>
@@ -5413,7 +5411,7 @@
       </c>
       <c r="J103" s="7">
         <f>H103 + CS!B5</f>
-        <v>0.12499999999999981</v>
+        <v>0.12900000000000025</v>
       </c>
       <c r="K103" s="12">
         <f>I103 + CS!B6</f>
@@ -5438,7 +5436,7 @@
       </c>
       <c r="F104" s="7">
         <f t="shared" si="23"/>
-        <v>0.36499999999999982</v>
+        <v>0.36900000000000027</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="24"/>
@@ -5446,15 +5444,15 @@
       </c>
       <c r="H104" s="7">
         <f>H101</f>
-        <v>0.28499999999999981</v>
-      </c>
-      <c r="I104" s="15">
+        <v>0.28900000000000026</v>
+      </c>
+      <c r="I104" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J104" s="7">
         <f>H104 + CS!B5</f>
-        <v>0.44499999999999984</v>
+        <v>0.44900000000000029</v>
       </c>
       <c r="K104" s="12">
         <f>I104 + CS!B6</f>
@@ -5479,7 +5477,7 @@
       </c>
       <c r="F105" s="7">
         <f t="shared" si="23"/>
-        <v>0.20499999999999979</v>
+        <v>0.20900000000000024</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" si="24"/>
@@ -5487,15 +5485,15 @@
       </c>
       <c r="H105" s="7">
         <f t="shared" ref="H105:H106" si="25">H102</f>
-        <v>0.12499999999999981</v>
-      </c>
-      <c r="I105" s="15">
+        <v>0.12900000000000025</v>
+      </c>
+      <c r="I105" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J105" s="7">
         <f>H105 + CS!B5</f>
-        <v>0.28499999999999981</v>
+        <v>0.28900000000000026</v>
       </c>
       <c r="K105" s="12">
         <f>I105 + CS!B6</f>
@@ -5520,7 +5518,7 @@
       </c>
       <c r="F106" s="7">
         <f t="shared" si="23"/>
-        <v>4.4999999999999804E-2</v>
+        <v>4.9000000000000252E-2</v>
       </c>
       <c r="G106" s="7">
         <f t="shared" si="24"/>
@@ -5528,15 +5526,15 @@
       </c>
       <c r="H106" s="7">
         <f t="shared" si="25"/>
-        <v>-3.5000000000000198E-2</v>
-      </c>
-      <c r="I106" s="15">
+        <v>-3.099999999999975E-2</v>
+      </c>
+      <c r="I106" s="7">
         <f>CS!B12</f>
         <v>0.152</v>
       </c>
       <c r="J106" s="7">
         <f>H106 + CS!B5</f>
-        <v>0.12499999999999981</v>
+        <v>0.12900000000000025</v>
       </c>
       <c r="K106" s="12">
         <f>I106 + CS!B6</f>
@@ -5612,7 +5610,7 @@
       </c>
       <c r="F110" s="13">
         <f t="shared" si="23"/>
-        <v>0.52499999999999991</v>
+        <v>0.55900000000000039</v>
       </c>
       <c r="G110" s="13">
         <f t="shared" si="24"/>
@@ -5620,7 +5618,7 @@
       </c>
       <c r="H110" s="13">
         <f>H100</f>
-        <v>0.44499999999999984</v>
+        <v>0.47900000000000031</v>
       </c>
       <c r="I110" s="13">
         <f>CS!B11</f>
@@ -5628,7 +5626,7 @@
       </c>
       <c r="J110" s="13">
         <f>H110 + CS!B5</f>
-        <v>0.60499999999999987</v>
+        <v>0.63900000000000035</v>
       </c>
       <c r="K110" s="14">
         <f>I110 + CS!B6</f>
@@ -5645,8 +5643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4988ACE3-0ED1-49BF-AFF7-0756B3155DDF}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5660,7 +5658,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="2">
-        <v>6.06</v>
+        <v>6.0640000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/my6D/ReadLayout/rectangles.xlsx
+++ b/my6D/ReadLayout/rectangles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\32_Python\myPyTools\my6D\ReadLayout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuiw\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AA5687-BD90-4462-A65E-77DB2E94A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C65F06-0832-4C8D-9F26-62D5A1636109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F7BCC243-ACCA-44A9-A2FE-667A1A52F0CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rectangles" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>index</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -215,471 +215,579 @@
     <t>ST3ProcessPos2Area</t>
   </si>
   <si>
+    <t>ST4BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST4BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST4ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST4ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST4ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST5BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST5BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST5ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST5ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST5ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST6BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST6BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST6BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST6ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST6ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST6ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST7BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST7BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST7BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST7ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST7ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST7ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST8BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST8BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST8BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST8ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST8ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST8ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>S4C1</t>
+  </si>
+  <si>
+    <t>S4B1</t>
+  </si>
+  <si>
+    <t>S4B2</t>
+  </si>
+  <si>
+    <t>S4B3</t>
+  </si>
+  <si>
+    <t>S4P1</t>
+  </si>
+  <si>
+    <t>S4P2</t>
+  </si>
+  <si>
+    <t>S4P3</t>
+  </si>
+  <si>
+    <t>S5C1</t>
+  </si>
+  <si>
+    <t>S5P1</t>
+  </si>
+  <si>
+    <t>S5P2</t>
+  </si>
+  <si>
+    <t>S5P3</t>
+  </si>
+  <si>
+    <t>S6C1</t>
+  </si>
+  <si>
+    <t>S6P1</t>
+  </si>
+  <si>
+    <t>S6P2</t>
+  </si>
+  <si>
+    <t>S6P3</t>
+  </si>
+  <si>
+    <t>S7C1</t>
+  </si>
+  <si>
+    <t>S8B1</t>
+  </si>
+  <si>
+    <t>S8B2</t>
+  </si>
+  <si>
+    <t>S8B3</t>
+  </si>
+  <si>
+    <t>S8P1</t>
+  </si>
+  <si>
+    <t>S8P2</t>
+  </si>
+  <si>
+    <t>ST1_BUFFER_AREA_START_X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATION_DISTANCE_X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATION_DIRECTION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_LENGTH_X_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOOL_LENGTH_Y_01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom_left_y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right_x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right_y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos1Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ReadyPos3Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2R3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2ConnectArea</t>
+  </si>
+  <si>
+    <t>ST4ConnectArea</t>
+  </si>
+  <si>
+    <t>ST5ConnectArea</t>
+  </si>
+  <si>
+    <t>ST6ConnectArea</t>
+  </si>
+  <si>
+    <t>ST7ConnectArea</t>
+  </si>
+  <si>
+    <t>LoadShuttleArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST9ConnectArea</t>
+  </si>
+  <si>
+    <t>ST9BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST9BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST9BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST9ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST9ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST9ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>S9C1</t>
+  </si>
+  <si>
+    <t>S9B1</t>
+  </si>
+  <si>
+    <t>S9B2</t>
+  </si>
+  <si>
+    <t>S9B3</t>
+  </si>
+  <si>
+    <t>S9P1</t>
+  </si>
+  <si>
+    <t>S9P2</t>
+  </si>
+  <si>
+    <t>TestArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZonePowerOnArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZonePower</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST1ConnectArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST1Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST2Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST3Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST4Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST5Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST6Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST7Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST8Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8P3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8C1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST9Connect2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9P3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1_BOTTOM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2_BOTTOM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3_BOTTOM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST1BufferPos2Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST1BufferPos3Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST3ConnectArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST8ConnectArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackStopArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S10C1</t>
+  </si>
+  <si>
+    <t>S10B1</t>
+  </si>
+  <si>
+    <t>S10B2</t>
+  </si>
+  <si>
+    <t>S10B3</t>
+  </si>
+  <si>
+    <t>S10P1</t>
+  </si>
+  <si>
+    <t>S10P2</t>
+  </si>
+  <si>
+    <t>S10P3</t>
+  </si>
+  <si>
+    <t>S10C2</t>
+  </si>
+  <si>
+    <t>ST10ConnectArea</t>
+  </si>
+  <si>
+    <t>ST10BufferPos1Area</t>
+  </si>
+  <si>
+    <t>ST10BufferPos2Area</t>
+  </si>
+  <si>
+    <t>ST10BufferPos3Area</t>
+  </si>
+  <si>
+    <t>ST10ProcessPos1Area</t>
+  </si>
+  <si>
+    <t>ST10ProcessPos2Area</t>
+  </si>
+  <si>
+    <t>ST10ProcessPos3Area</t>
+  </si>
+  <si>
+    <t>ST10Connect2Area</t>
+  </si>
+  <si>
+    <t>ST5BackPosArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5BC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST7BackPosArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7BC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST5BufferPos1Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>ST4BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST4BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST4BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST4ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST4ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST4ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST5BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST5BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST5BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST5ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST5ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST5ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST6BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST6BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST6BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST6ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST6ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST6ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST7BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST7BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST7BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST7ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST7ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST7ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>ST8BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST8BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST8BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST8ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST8ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST8ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>S4C1</t>
-  </si>
-  <si>
-    <t>S4B1</t>
-  </si>
-  <si>
-    <t>S4B2</t>
-  </si>
-  <si>
-    <t>S4B3</t>
-  </si>
-  <si>
-    <t>S4P1</t>
-  </si>
-  <si>
-    <t>S4P2</t>
-  </si>
-  <si>
-    <t>S4P3</t>
-  </si>
-  <si>
-    <t>S5C1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST3BackPosArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3BC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST4BackPosArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S43BC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST8BackPosArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8BC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7B1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5B3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5B2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>S5B1</t>
-  </si>
-  <si>
-    <t>S5B2</t>
-  </si>
-  <si>
-    <t>S5B3</t>
-  </si>
-  <si>
-    <t>S5P1</t>
-  </si>
-  <si>
-    <t>S5P2</t>
-  </si>
-  <si>
-    <t>S5P3</t>
-  </si>
-  <si>
-    <t>S6C1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>S6B1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>S6B2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>S6B3</t>
-  </si>
-  <si>
-    <t>S6P1</t>
-  </si>
-  <si>
-    <t>S6P2</t>
-  </si>
-  <si>
-    <t>S6P3</t>
-  </si>
-  <si>
-    <t>S7C1</t>
-  </si>
-  <si>
-    <t>S7B1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6C2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7P3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7P2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7P1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7B3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>S7B2</t>
-  </si>
-  <si>
-    <t>S7B3</t>
-  </si>
-  <si>
-    <t>S7P1</t>
-  </si>
-  <si>
-    <t>S7P2</t>
-  </si>
-  <si>
-    <t>S7P3</t>
-  </si>
-  <si>
-    <t>S8B1</t>
-  </si>
-  <si>
-    <t>S8B2</t>
-  </si>
-  <si>
-    <t>S8B3</t>
-  </si>
-  <si>
-    <t>S8P1</t>
-  </si>
-  <si>
-    <t>S8P2</t>
-  </si>
-  <si>
-    <t>ST1_BUFFER_AREA_START_X</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATION_DISTANCE_X</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATION_DIRECTION</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_LENGTH_X_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOOL_LENGTH_Y_01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bottom_left_y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right_x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_right_y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ReadyPos1Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ReadyPos2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ReadyPos3Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2R1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2R2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2R3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2ConnectArea</t>
-  </si>
-  <si>
-    <t>ST4ConnectArea</t>
-  </si>
-  <si>
-    <t>ST5ConnectArea</t>
-  </si>
-  <si>
-    <t>ST6ConnectArea</t>
-  </si>
-  <si>
-    <t>ST7ConnectArea</t>
-  </si>
-  <si>
-    <t>LoadShuttleArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Load</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ready</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST9ConnectArea</t>
-  </si>
-  <si>
-    <t>ST9BufferPos1Area</t>
-  </si>
-  <si>
-    <t>ST9BufferPos2Area</t>
-  </si>
-  <si>
-    <t>ST9BufferPos3Area</t>
-  </si>
-  <si>
-    <t>ST9ProcessPos1Area</t>
-  </si>
-  <si>
-    <t>ST9ProcessPos2Area</t>
-  </si>
-  <si>
-    <t>ST9ProcessPos3Area</t>
-  </si>
-  <si>
-    <t>S9C1</t>
-  </si>
-  <si>
-    <t>S9B1</t>
-  </si>
-  <si>
-    <t>S9B2</t>
-  </si>
-  <si>
-    <t>S9B3</t>
-  </si>
-  <si>
-    <t>S9P1</t>
-  </si>
-  <si>
-    <t>S9P2</t>
-  </si>
-  <si>
-    <t>TestArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZonePowerOnArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZonePower</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST1ConnectArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST1Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST2Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST3Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST4Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S4C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST5Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST6Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S6C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST7Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S7C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST8Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8P3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8C1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST9Connect2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9P3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9C2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1_BOTTOM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2_BOTTOM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3_BOTTOM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST1BufferPos2Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST1BufferPos3Area</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST3ConnectArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST8ConnectArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackStopArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST6BackPosArea</t>
+  </si>
+  <si>
+    <t>S6BC</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1156,15 +1264,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1205,7 +1304,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1214,11 +1315,80 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1352,11 +1522,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
@@ -1371,31 +1544,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1457,7 +1630,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1772,14 +1945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FED1504-B951-4F1D-A034-DA0B86FDB2F6}">
-  <dimension ref="A1:K110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="19.75" style="7" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="7" customWidth="1"/>
@@ -1789,99 +1962,94 @@
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>121</v>
+      <c r="I1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="12">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2" s="9">
-        <f>(J2-H2)/2 + H2</f>
-        <v>4.88</v>
-      </c>
-      <c r="G2" s="9">
-        <f>(K2-I2)/2 + I2</f>
+      <c r="F2" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="G2" s="7">
         <v>0.432</v>
       </c>
-      <c r="H2" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="H2" s="7">
+        <v>5.52</v>
+      </c>
+      <c r="I2" s="7">
         <v>0.34399999999999997</v>
       </c>
-      <c r="J2" s="9">
-        <f>H2 + CS!B5</f>
-        <v>4.96</v>
-      </c>
-      <c r="K2" s="10">
-        <f>I2 + CS!B6</f>
+      <c r="J2" s="7">
+        <v>5.68</v>
+      </c>
+      <c r="K2" s="13">
         <v>0.52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
       <c r="F3" s="7">
-        <f>4.3</f>
-        <v>4.3</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G3" s="7">
         <v>0.432</v>
@@ -1893,33 +2061,33 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="J3" s="7">
-        <v>4.68</v>
-      </c>
-      <c r="K3" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="K3" s="13">
         <v>0.48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="H4" s="7">
         <v>2.2799999999999998</v>
@@ -1930,58 +2098,57 @@
       <c r="J4" s="7">
         <v>2.52</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="13">
         <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="7">
         <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="7">
-        <f>(J5-H5)/2 + H5</f>
-        <v>6.41</v>
+        <v>7.1300000000000008</v>
       </c>
       <c r="G5" s="7">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
       <c r="H5" s="7">
-        <v>6.35</v>
+        <v>7.07</v>
       </c>
       <c r="I5" s="7">
         <v>0.37</v>
       </c>
       <c r="J5" s="7">
-        <v>6.47</v>
-      </c>
-      <c r="K5" s="12">
+        <v>7.19</v>
+      </c>
+      <c r="K5" s="13">
         <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="7">
         <v>66</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -2001,22 +2168,22 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="7">
         <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -2036,91 +2203,89 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>157</v>
+      <c r="K8" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>45</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="9">
-        <f>(J12-H12)/2 + H12</f>
-        <v>6.3040000000000003</v>
-      </c>
-      <c r="G12" s="9">
-        <f>(K12-I12)/2 + I12</f>
+      <c r="F12" s="7">
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="G12" s="7">
         <v>0.24</v>
       </c>
-      <c r="H12" s="9">
-        <f>J13</f>
-        <v>6.2240000000000002</v>
-      </c>
-      <c r="I12" s="9">
-        <f>CS!B12</f>
-        <v>0.152</v>
-      </c>
-      <c r="J12" s="9">
-        <f>H12 + CS!B5</f>
-        <v>6.3840000000000003</v>
-      </c>
-      <c r="K12" s="10">
-        <f>I12 + CS!B6</f>
-        <v>0.32799999999999996</v>
+      <c r="H12" s="7">
+        <f>F12-0.069</f>
+        <v>6.9510000000000005</v>
+      </c>
+      <c r="I12" s="7">
+        <f>G12-0.07</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J12" s="7">
+        <f>F12+0.069</f>
+        <v>7.0890000000000004</v>
+      </c>
+      <c r="K12" s="13">
+        <f>G12+0.07</f>
+        <v>0.31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
       <c r="B13" s="7">
@@ -2136,39 +2301,37 @@
         <v>1</v>
       </c>
       <c r="F13" s="7">
-        <f>(J13-H13)/2 + H13</f>
-        <v>6.1440000000000001</v>
+        <v>6.86</v>
       </c>
       <c r="G13" s="7">
-        <f>(K13-I13)/2 + I13</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H13" s="7">
-        <f>CS!B2 + CS!B3 * (E12 - 1) * CS!B4</f>
-        <v>6.0640000000000001</v>
+        <f t="shared" ref="H13:H73" si="0">F13-0.069</f>
+        <v>6.7910000000000004</v>
       </c>
       <c r="I13" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" ref="I13:I73" si="1">G13-0.07</f>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J13" s="7">
-        <f>H13+CS!B5</f>
-        <v>6.2240000000000002</v>
-      </c>
-      <c r="K13" s="12">
-        <f>I13+CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" ref="J13:J73" si="2">F13+0.069</f>
+        <v>6.9290000000000003</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" ref="K13:K73" si="3">G13+0.07</f>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>2</v>
@@ -2177,39 +2340,37 @@
         <v>1</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ref="F14:F22" si="0">(J14-H14)/2 + H14</f>
-        <v>5.984</v>
+        <v>6.7</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:G22" si="1">(K14-I14)/2 + I14</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H14" s="7">
-        <f>H13 - CS!B5</f>
-        <v>5.9039999999999999</v>
+        <f t="shared" si="0"/>
+        <v>6.6310000000000002</v>
       </c>
       <c r="I14" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J14" s="7">
-        <f>H14+CS!B5</f>
-        <v>6.0640000000000001</v>
-      </c>
-      <c r="K14" s="12">
-        <f>I14+CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>6.7690000000000001</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
       <c r="B15" s="7">
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>3</v>
@@ -2218,32 +2379,30 @@
         <v>1</v>
       </c>
       <c r="F15" s="7">
+        <v>6.54</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>5.8239999999999998</v>
-      </c>
-      <c r="G15" s="7">
+        <v>6.4710000000000001</v>
+      </c>
+      <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <f>H14 - CS!B5</f>
-        <v>5.7439999999999998</v>
-      </c>
-      <c r="I15" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J15" s="7">
-        <f>H15+CS!B5</f>
-        <v>5.9039999999999999</v>
-      </c>
-      <c r="K15" s="12">
-        <f>I15+CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>6.609</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
       <c r="B16" s="7">
@@ -2259,32 +2418,30 @@
         <v>1</v>
       </c>
       <c r="F16" s="7">
+        <v>6.86</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>6.1440000000000001</v>
-      </c>
-      <c r="G16" s="7">
+        <v>6.7910000000000004</v>
+      </c>
+      <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
-      <c r="H16" s="7">
-        <f>H13</f>
-        <v>6.0640000000000001</v>
-      </c>
-      <c r="I16" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J16" s="7">
-        <f>H16+CS!B5</f>
-        <v>6.2240000000000002</v>
-      </c>
-      <c r="K16" s="12">
-        <f>I16+CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>6.9290000000000003</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
       <c r="B17" s="7">
@@ -2300,32 +2457,30 @@
         <v>1</v>
       </c>
       <c r="F17" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>5.984</v>
-      </c>
-      <c r="G17" s="7">
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
-      <c r="H17" s="7">
-        <f>H14</f>
-        <v>5.9039999999999999</v>
-      </c>
-      <c r="I17" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J17" s="7">
-        <f>H17+CS!B5</f>
-        <v>6.0640000000000001</v>
-      </c>
-      <c r="K17" s="12">
-        <f>I17+CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>6.7690000000000001</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
       <c r="B18" s="7">
@@ -2341,32 +2496,30 @@
         <v>1</v>
       </c>
       <c r="F18" s="7">
+        <v>6.54</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>5.8239999999999998</v>
-      </c>
-      <c r="G18" s="7">
+        <v>6.4710000000000001</v>
+      </c>
+      <c r="I18" s="7">
         <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
-      <c r="H18" s="7">
-        <f>H15</f>
-        <v>5.7439999999999998</v>
-      </c>
-      <c r="I18" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J18" s="7">
-        <f>H18+CS!B5</f>
-        <v>5.9039999999999999</v>
-      </c>
-      <c r="K18" s="12">
-        <f>I18+CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>6.609</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
       <c r="B19" s="7">
@@ -2382,32 +2535,30 @@
         <v>1</v>
       </c>
       <c r="F19" s="7">
+        <v>6.86</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>6.1440000000000001</v>
-      </c>
-      <c r="G19" s="7">
+        <v>6.7910000000000004</v>
+      </c>
+      <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>0.432</v>
-      </c>
-      <c r="H19" s="7">
-        <f>H13</f>
-        <v>6.0640000000000001</v>
-      </c>
-      <c r="I19" s="7">
-        <f>CS!B13</f>
-        <v>0.34399999999999997</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="J19" s="7">
-        <f>H19+CS!B5</f>
-        <v>6.2240000000000002</v>
-      </c>
-      <c r="K19" s="12">
-        <f>I19+CS!B6</f>
-        <v>0.52</v>
+        <f t="shared" si="2"/>
+        <v>6.9290000000000003</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="3"/>
+        <v>0.502</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
       <c r="B20" s="7">
@@ -2423,32 +2574,30 @@
         <v>1</v>
       </c>
       <c r="F20" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>5.984</v>
-      </c>
-      <c r="G20" s="7">
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>0.432</v>
-      </c>
-      <c r="H20" s="7">
-        <f>H14</f>
-        <v>5.9039999999999999</v>
-      </c>
-      <c r="I20" s="7">
-        <f>CS!B13</f>
-        <v>0.34399999999999997</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="J20" s="7">
-        <f>H20+CS!B5</f>
-        <v>6.0640000000000001</v>
-      </c>
-      <c r="K20" s="12">
-        <f>I20+CS!B6</f>
-        <v>0.52</v>
+        <f t="shared" si="2"/>
+        <v>6.7690000000000001</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="3"/>
+        <v>0.502</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
       <c r="B21" s="7">
@@ -2464,114 +2613,108 @@
         <v>1</v>
       </c>
       <c r="F21" s="7">
+        <v>6.54</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>5.8239999999999998</v>
-      </c>
-      <c r="G21" s="7">
+        <v>6.4710000000000001</v>
+      </c>
+      <c r="I21" s="7">
         <f t="shared" si="1"/>
-        <v>0.432</v>
-      </c>
-      <c r="H21" s="7">
-        <f>H15</f>
-        <v>5.7439999999999998</v>
-      </c>
-      <c r="I21" s="7">
-        <f>CS!B13</f>
-        <v>0.34399999999999997</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="J21" s="7">
-        <f>H21+CS!B5</f>
-        <v>5.9039999999999999</v>
-      </c>
-      <c r="K21" s="12">
-        <f>I21+CS!B6</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+        <f t="shared" si="2"/>
+        <v>6.609</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" si="3"/>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
       <c r="B22" s="7">
         <v>75</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
       </c>
       <c r="F22" s="7">
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="G22" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>6.3040000000000003</v>
-      </c>
-      <c r="G22" s="7">
+        <v>6.9510000000000005</v>
+      </c>
+      <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H22" s="7">
-        <f>H12</f>
-        <v>6.2240000000000002</v>
-      </c>
-      <c r="I22" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J22" s="7">
-        <f>H22+CS!B5</f>
-        <v>6.3840000000000003</v>
-      </c>
-      <c r="K22" s="12">
-        <f>I22+CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>7.0890000000000004</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>46</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>2</v>
       </c>
-      <c r="F23" s="9">
-        <f>(J23-H23)/2 + H23</f>
-        <v>5.5840000000000005</v>
-      </c>
-      <c r="G23" s="9">
-        <f>(K23-I23)/2 + I23</f>
+      <c r="F23" s="7">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="G23" s="7">
         <v>0.24</v>
       </c>
-      <c r="H23" s="9">
-        <f>J24</f>
-        <v>5.5040000000000004</v>
-      </c>
-      <c r="I23" s="9">
-        <f>CS!B12</f>
-        <v>0.152</v>
-      </c>
-      <c r="J23" s="9">
-        <f>H23 + CS!B5</f>
-        <v>5.6640000000000006</v>
-      </c>
-      <c r="K23" s="10">
-        <f>I23 + CS!B6</f>
-        <v>0.32799999999999996</v>
+      <c r="H23" s="7">
+        <f>F23-0.069</f>
+        <v>6.2310000000000008</v>
+      </c>
+      <c r="I23" s="7">
+        <f>G23-0.07</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="2"/>
+        <v>6.3690000000000007</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
       <c r="B24" s="7">
@@ -2587,32 +2730,30 @@
         <v>2</v>
       </c>
       <c r="F24" s="7">
-        <f>(J24-H24)/2 + H24</f>
-        <v>5.4240000000000004</v>
+        <v>6.1400000000000006</v>
       </c>
       <c r="G24" s="7">
-        <f>(K24-I24)/2 + I24</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H24" s="7">
-        <f>CS!B2 + CS!B3 * (E23 - 1) * CS!B4</f>
-        <v>5.3440000000000003</v>
+        <f t="shared" si="0"/>
+        <v>6.0710000000000006</v>
       </c>
       <c r="I24" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J24" s="7">
-        <f>H24 + CS!B5</f>
-        <v>5.5040000000000004</v>
-      </c>
-      <c r="K24" s="12">
-        <f>I24 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>6.2090000000000005</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
       <c r="B25" s="7">
@@ -2628,32 +2769,30 @@
         <v>2</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" ref="F25:F33" si="2">(J25-H25)/2 + H25</f>
-        <v>5.2640000000000002</v>
+        <v>5.98</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" ref="G25:G33" si="3">(K25-I25)/2 + I25</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H25" s="7">
-        <f>H24 - CS!B5</f>
-        <v>5.1840000000000002</v>
+        <f t="shared" si="0"/>
+        <v>5.9110000000000005</v>
       </c>
       <c r="I25" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J25" s="7">
-        <f>H25 + CS!B5</f>
-        <v>5.3440000000000003</v>
-      </c>
-      <c r="K25" s="12">
-        <f>I25 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>6.0490000000000004</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
       <c r="B26" s="7">
@@ -2669,32 +2808,30 @@
         <v>2</v>
       </c>
       <c r="F26" s="7">
+        <v>5.82</v>
+      </c>
+      <c r="G26" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J26" s="7">
         <f t="shared" si="2"/>
-        <v>5.1040000000000001</v>
-      </c>
-      <c r="G26" s="7">
+        <v>5.8890000000000002</v>
+      </c>
+      <c r="K26" s="13">
         <f t="shared" si="3"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H26" s="7">
-        <f>H25 - CS!B5</f>
-        <v>5.024</v>
-      </c>
-      <c r="I26" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="J26" s="7">
-        <f>H26 + CS!B5</f>
-        <v>5.1840000000000002</v>
-      </c>
-      <c r="K26" s="12">
-        <f>I26 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
       <c r="B27" s="7">
@@ -2710,32 +2847,30 @@
         <v>2</v>
       </c>
       <c r="F27" s="7">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0710000000000006</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J27" s="7">
         <f t="shared" si="2"/>
-        <v>5.4240000000000004</v>
-      </c>
-      <c r="G27" s="7">
+        <v>6.2090000000000005</v>
+      </c>
+      <c r="K27" s="13">
         <f t="shared" si="3"/>
-        <v>0.24</v>
-      </c>
-      <c r="H27" s="7">
-        <f>H24</f>
-        <v>5.3440000000000003</v>
-      </c>
-      <c r="I27" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
-      </c>
-      <c r="J27" s="7">
-        <f>H27 + CS!B5</f>
-        <v>5.5040000000000004</v>
-      </c>
-      <c r="K27" s="12">
-        <f>I27 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
       <c r="B28" s="7">
@@ -2751,32 +2886,30 @@
         <v>2</v>
       </c>
       <c r="F28" s="7">
+        <v>5.98</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9110000000000005</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J28" s="7">
         <f t="shared" si="2"/>
-        <v>5.2640000000000002</v>
-      </c>
-      <c r="G28" s="7">
+        <v>6.0490000000000004</v>
+      </c>
+      <c r="K28" s="13">
         <f t="shared" si="3"/>
-        <v>0.24</v>
-      </c>
-      <c r="H28" s="7">
-        <f t="shared" ref="H28:H32" si="4">H25</f>
-        <v>5.1840000000000002</v>
-      </c>
-      <c r="I28" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
-      </c>
-      <c r="J28" s="7">
-        <f>H28 + CS!B5</f>
-        <v>5.3440000000000003</v>
-      </c>
-      <c r="K28" s="12">
-        <f>I28 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
       <c r="B29" s="7">
@@ -2792,237 +2925,225 @@
         <v>2</v>
       </c>
       <c r="F29" s="7">
+        <v>5.82</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J29" s="7">
         <f t="shared" si="2"/>
-        <v>5.1040000000000001</v>
-      </c>
-      <c r="G29" s="7">
+        <v>5.8890000000000002</v>
+      </c>
+      <c r="K29" s="13">
         <f t="shared" si="3"/>
-        <v>0.24</v>
-      </c>
-      <c r="H29" s="7">
-        <f t="shared" si="4"/>
-        <v>5.024</v>
-      </c>
-      <c r="I29" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
-      </c>
-      <c r="J29" s="7">
-        <f>H29 + CS!B5</f>
-        <v>5.1840000000000002</v>
-      </c>
-      <c r="K29" s="12">
-        <f>I29 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
       <c r="B30" s="7">
         <v>62</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
       </c>
       <c r="F30" s="7">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0710000000000006</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J30" s="7">
         <f t="shared" si="2"/>
-        <v>5.4240000000000004</v>
-      </c>
-      <c r="G30" s="7">
+        <v>6.2090000000000005</v>
+      </c>
+      <c r="K30" s="13">
         <f t="shared" si="3"/>
-        <v>0.432</v>
-      </c>
-      <c r="H30" s="7">
-        <f t="shared" si="4"/>
-        <v>5.3440000000000003</v>
-      </c>
-      <c r="I30" s="7">
-        <f>CS!B13</f>
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="J30" s="7">
-        <f>H30 + CS!B5</f>
-        <v>5.5040000000000004</v>
-      </c>
-      <c r="K30" s="12">
-        <f>I30 + CS!B6</f>
-        <v>0.52</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
       <c r="B31" s="7">
         <v>63</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E31" s="7">
         <v>2</v>
       </c>
       <c r="F31" s="7">
+        <v>5.98</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9110000000000005</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J31" s="7">
         <f t="shared" si="2"/>
-        <v>5.2640000000000002</v>
-      </c>
-      <c r="G31" s="7">
+        <v>6.0490000000000004</v>
+      </c>
+      <c r="K31" s="13">
         <f t="shared" si="3"/>
-        <v>0.432</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" si="4"/>
-        <v>5.1840000000000002</v>
-      </c>
-      <c r="I31" s="7">
-        <f>CS!B13</f>
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="J31" s="7">
-        <f>H31 + CS!B5</f>
-        <v>5.3440000000000003</v>
-      </c>
-      <c r="K31" s="12">
-        <f>I31 + CS!B6</f>
-        <v>0.52</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
       <c r="B32" s="7">
         <v>64</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E32" s="7">
         <v>2</v>
       </c>
       <c r="F32" s="7">
+        <v>5.82</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J32" s="7">
         <f t="shared" si="2"/>
-        <v>5.1040000000000001</v>
-      </c>
-      <c r="G32" s="7">
+        <v>5.8890000000000002</v>
+      </c>
+      <c r="K32" s="13">
         <f t="shared" si="3"/>
-        <v>0.432</v>
-      </c>
-      <c r="H32" s="7">
-        <f t="shared" si="4"/>
-        <v>5.024</v>
-      </c>
-      <c r="I32" s="7">
-        <f>CS!B13</f>
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="J32" s="7">
-        <f>H32 + CS!B5</f>
-        <v>5.1840000000000002</v>
-      </c>
-      <c r="K32" s="12">
-        <f>I32 + CS!B6</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
       <c r="B33" s="7">
         <v>76</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
       </c>
       <c r="F33" s="7">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="G33" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="0"/>
+        <v>6.2310000000000008</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J33" s="7">
         <f t="shared" si="2"/>
-        <v>5.5840000000000005</v>
-      </c>
-      <c r="G33" s="7">
+        <v>6.3690000000000007</v>
+      </c>
+      <c r="K33" s="13">
         <f t="shared" si="3"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H33" s="7">
-        <f>H23</f>
-        <v>5.5040000000000004</v>
-      </c>
-      <c r="I33" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="J33" s="7">
-        <f>H33 + CS!B5</f>
-        <v>5.6640000000000006</v>
-      </c>
-      <c r="K33" s="12">
-        <f>I33 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>47</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>3</v>
       </c>
-      <c r="F34" s="9">
-        <f>(J34-H34)/2 + H34</f>
-        <v>4.8640000000000008</v>
-      </c>
-      <c r="G34" s="9">
-        <f>(K34-I34)/2 + I34</f>
+      <c r="F34" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G34" s="7">
         <v>0.24</v>
       </c>
-      <c r="H34" s="9">
-        <f>J35</f>
-        <v>4.7840000000000007</v>
-      </c>
-      <c r="I34" s="9">
-        <f>CS!B12</f>
-        <v>0.152</v>
-      </c>
-      <c r="J34" s="9">
-        <f>H34 + CS!B5</f>
-        <v>4.9440000000000008</v>
-      </c>
-      <c r="K34" s="10">
-        <f>I34 + CS!B6</f>
-        <v>0.32799999999999996</v>
+      <c r="H34" s="7">
+        <f>F34-0.069</f>
+        <v>5.431</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="2"/>
+        <v>5.569</v>
+      </c>
+      <c r="K34" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
       <c r="B35" s="7">
@@ -3038,32 +3159,30 @@
         <v>3</v>
       </c>
       <c r="F35" s="7">
-        <f>(J35-H35)/2 + H35</f>
-        <v>4.7040000000000006</v>
+        <v>5.34</v>
       </c>
       <c r="G35" s="7">
-        <f>(K35-I35)/2 + I35</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H35" s="7">
-        <f>CS!B2 + CS!B3 * (E35 - 1) * CS!B4</f>
-        <v>4.6240000000000006</v>
+        <f t="shared" si="0"/>
+        <v>5.2709999999999999</v>
       </c>
       <c r="I35" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J35" s="7">
-        <f>H35 + CS!B5</f>
-        <v>4.7840000000000007</v>
-      </c>
-      <c r="K35" s="12">
-        <f>I35 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>5.4089999999999998</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
       <c r="B36" s="7">
@@ -3079,32 +3198,30 @@
         <v>3</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" ref="F36:F44" si="5">(J36-H36)/2 + H36</f>
-        <v>4.5440000000000005</v>
+        <v>5.18</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" ref="G36:G44" si="6">(K36-I36)/2 + I36</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H36" s="7">
-        <f>H35-CS!B5</f>
-        <v>4.4640000000000004</v>
+        <f t="shared" si="0"/>
+        <v>5.1109999999999998</v>
       </c>
       <c r="I36" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J36" s="7">
-        <f>H36 + CS!B5</f>
-        <v>4.6240000000000006</v>
-      </c>
-      <c r="K36" s="12">
-        <f>I36 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>5.2489999999999997</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
       <c r="B37" s="7">
@@ -3120,32 +3237,30 @@
         <v>3</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="5"/>
-        <v>4.3840000000000003</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="6"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H37" s="7">
-        <f>H36 - CS!B5</f>
-        <v>4.3040000000000003</v>
+        <f t="shared" si="0"/>
+        <v>4.9509999999999996</v>
       </c>
       <c r="I37" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J37" s="7">
-        <f>H37 + CS!B5</f>
-        <v>4.4640000000000004</v>
-      </c>
-      <c r="K37" s="12">
-        <f>I37 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>5.0889999999999995</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
       <c r="B38" s="7">
@@ -3161,32 +3276,30 @@
         <v>3</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="5"/>
-        <v>4.7040000000000006</v>
+        <v>5.34</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="6"/>
         <v>0.24</v>
       </c>
       <c r="H38" s="7">
-        <f>H35</f>
-        <v>4.6240000000000006</v>
+        <f t="shared" si="0"/>
+        <v>5.2709999999999999</v>
       </c>
       <c r="I38" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J38" s="7">
-        <f>H38 + CS!B5</f>
-        <v>4.7840000000000007</v>
-      </c>
-      <c r="K38" s="12">
-        <f>I38 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>5.4089999999999998</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
       <c r="B39" s="7">
@@ -3202,32 +3315,30 @@
         <v>3</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="5"/>
-        <v>4.5440000000000005</v>
+        <v>5.18</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="6"/>
         <v>0.24</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" ref="H39:H40" si="7">H36</f>
-        <v>4.4640000000000004</v>
+        <f t="shared" si="0"/>
+        <v>5.1109999999999998</v>
       </c>
       <c r="I39" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J39" s="7">
-        <f>H39 + CS!B5</f>
-        <v>4.6240000000000006</v>
-      </c>
-      <c r="K39" s="12">
-        <f>I39 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>5.2489999999999997</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
       <c r="B40" s="7">
@@ -3243,2408 +3354,2783 @@
         <v>3</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="5"/>
-        <v>4.3840000000000003</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="6"/>
         <v>0.24</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="7"/>
-        <v>4.3040000000000003</v>
+        <f t="shared" si="0"/>
+        <v>4.9509999999999996</v>
       </c>
       <c r="I40" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J40" s="7">
-        <f>H40 + CS!B5</f>
-        <v>4.4640000000000004</v>
-      </c>
-      <c r="K40" s="12">
-        <f>I40 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>5.0889999999999995</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
       <c r="E41" s="7">
         <v>3</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K41" s="12"/>
+      <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
       <c r="E42" s="7">
         <v>3</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K42" s="12"/>
+      <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>41</v>
+      <c r="A43" s="12">
+        <v>63</v>
+      </c>
+      <c r="B43" s="7">
+        <v>94</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="E43" s="7">
         <v>3</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="0"/>
+        <v>5.431</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="2"/>
+        <v>5.569</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="3"/>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="7">
         <v>77</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="13">
+      <c r="C44" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="7">
         <v>3</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="5"/>
-        <v>4.8640000000000008</v>
+        <v>5.5</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="6"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H44" s="7">
-        <f>H34</f>
-        <v>4.7840000000000007</v>
+        <f t="shared" si="0"/>
+        <v>5.431</v>
       </c>
       <c r="I44" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="J44" s="13">
-        <f>H44 + CS!B5</f>
-        <v>4.9440000000000008</v>
-      </c>
-      <c r="K44" s="14">
-        <f>I44 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="2"/>
+        <v>5.569</v>
+      </c>
+      <c r="K44" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="7">
         <v>48</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="9">
+      <c r="C45" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="7">
         <v>4</v>
       </c>
-      <c r="F45" s="9">
-        <f>(J45-H45)/2 + H45</f>
-        <v>4.1639999999999997</v>
-      </c>
-      <c r="G45" s="9">
-        <f>(K45-I45)/2 + I45</f>
+      <c r="F45" s="7">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G45" s="7">
         <v>0.24</v>
       </c>
-      <c r="H45" s="9">
-        <f>J46+0.02</f>
-        <v>4.0839999999999996</v>
-      </c>
-      <c r="I45" s="9">
-        <f>CS!B12</f>
-        <v>0.152</v>
+      <c r="H45" s="7">
+        <f t="shared" si="0"/>
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J45" s="7">
-        <f>H45 + CS!B5</f>
-        <v>4.2439999999999998</v>
-      </c>
-      <c r="K45" s="12">
-        <f>I45 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="K45" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
       <c r="B46" s="7">
         <v>12</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E46" s="7">
         <v>4</v>
       </c>
       <c r="F46" s="7">
-        <f>(J46-H46)/2 + H46</f>
-        <v>3.984</v>
+        <v>4.7</v>
       </c>
       <c r="G46" s="7">
-        <f>(K46-I46)/2 + I46</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H46" s="7">
-        <f>CS!B2 + CS!B3 * (E46 - 1) * CS!B4</f>
-        <v>3.9039999999999999</v>
+        <f t="shared" si="0"/>
+        <v>4.6310000000000002</v>
       </c>
       <c r="I46" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J46" s="7">
-        <f>H46 + CS!B5</f>
-        <v>4.0640000000000001</v>
-      </c>
-      <c r="K46" s="12">
-        <f>I46 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="K46" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="11">
+      <c r="A47" s="12">
         <v>45</v>
       </c>
       <c r="B47" s="7">
         <v>13</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E47" s="7">
         <v>4</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" ref="F47:F55" si="8">(J47-H47)/2 + H47</f>
-        <v>3.8239999999999998</v>
+        <v>4.54</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" ref="G47:G55" si="9">(K47-I47)/2 + I47</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H47" s="7">
-        <f>H46-CS!B5</f>
-        <v>3.7439999999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.4710000000000001</v>
       </c>
       <c r="I47" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J47" s="7">
-        <f>H47 + CS!B5</f>
-        <v>3.9039999999999999</v>
-      </c>
-      <c r="K47" s="12">
-        <f>I47 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>4.609</v>
+      </c>
+      <c r="K47" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
       <c r="B48" s="7">
         <v>14</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E48" s="7">
         <v>4</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="8"/>
-        <v>3.6639999999999997</v>
+        <v>4.38</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="9"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H48" s="7">
-        <f>H47-CS!B5</f>
-        <v>3.5839999999999996</v>
+        <f t="shared" si="0"/>
+        <v>4.3109999999999999</v>
       </c>
       <c r="I48" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J48" s="7">
-        <f>H48 + CS!B5</f>
-        <v>3.7439999999999998</v>
-      </c>
-      <c r="K48" s="12">
-        <f>I48 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>4.4489999999999998</v>
+      </c>
+      <c r="K48" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="12">
         <v>47</v>
       </c>
       <c r="B49" s="7">
         <v>33</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E49" s="7">
         <v>4</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="8"/>
-        <v>3.984</v>
+        <v>4.7</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="9"/>
         <v>0.24</v>
       </c>
       <c r="H49" s="7">
-        <f>H46</f>
-        <v>3.9039999999999999</v>
+        <f t="shared" si="0"/>
+        <v>4.6310000000000002</v>
       </c>
       <c r="I49" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J49" s="7">
-        <f>H49 + CS!B5</f>
-        <v>4.0640000000000001</v>
-      </c>
-      <c r="K49" s="12">
-        <f>I49 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="K49" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="12">
         <v>48</v>
       </c>
       <c r="B50" s="7">
         <v>34</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E50" s="7">
         <v>4</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="8"/>
-        <v>3.8239999999999998</v>
+        <v>4.54</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="9"/>
         <v>0.24</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" ref="H50:H51" si="10">H47</f>
-        <v>3.7439999999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.4710000000000001</v>
       </c>
       <c r="I50" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J50" s="7">
-        <f>H50 + CS!B5</f>
-        <v>3.9039999999999999</v>
-      </c>
-      <c r="K50" s="12">
-        <f>I50 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>4.609</v>
+      </c>
+      <c r="K50" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="12">
         <v>49</v>
       </c>
       <c r="B51" s="7">
         <v>35</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E51" s="7">
         <v>4</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="8"/>
-        <v>3.6639999999999997</v>
+        <v>4.38</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="9"/>
         <v>0.24</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="10"/>
-        <v>3.5839999999999996</v>
+        <f t="shared" si="0"/>
+        <v>4.3109999999999999</v>
       </c>
       <c r="I51" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J51" s="7">
-        <f>H51 + CS!B5</f>
-        <v>3.7439999999999998</v>
-      </c>
-      <c r="K51" s="12">
-        <f>I51 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>4.4489999999999998</v>
+      </c>
+      <c r="K51" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="12">
         <v>50</v>
       </c>
       <c r="E52" s="7">
         <v>4</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K52" s="12"/>
+      <c r="K52" s="13"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="11">
+      <c r="A53" s="12">
         <v>51</v>
       </c>
       <c r="E53" s="7">
         <v>4</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K53" s="12"/>
+      <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>52</v>
+      <c r="A54" s="12">
+        <v>63</v>
+      </c>
+      <c r="B54" s="7">
+        <v>95</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="E54" s="7">
         <v>4</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="0"/>
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="K54" s="13">
+        <f t="shared" si="3"/>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
         <v>53</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="7">
         <v>78</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" s="13">
+      <c r="C55" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="7">
         <v>4</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="8"/>
-        <v>4.1639999999999997</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="9"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H55" s="7">
-        <f>H45</f>
-        <v>4.0839999999999996</v>
+        <f t="shared" si="0"/>
+        <v>4.7910000000000004</v>
       </c>
       <c r="I55" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="J55" s="13">
-        <f>H55 + CS!B5</f>
-        <v>4.2439999999999998</v>
-      </c>
-      <c r="K55" s="14">
-        <f>I55 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="K55" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="12">
         <v>54</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="7">
         <v>49</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="9">
+      <c r="C56" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="7">
         <v>5</v>
       </c>
-      <c r="F56" s="9">
-        <f>(J56-H56)/2 + H56</f>
-        <v>3.4240000000000004</v>
-      </c>
-      <c r="G56" s="9">
-        <f>(K56-I56)/2 + I56</f>
+      <c r="F56" s="7">
+        <v>4.08</v>
+      </c>
+      <c r="G56" s="7">
         <v>0.24</v>
       </c>
-      <c r="H56" s="9">
-        <f>J57</f>
-        <v>3.3440000000000003</v>
-      </c>
-      <c r="I56" s="9">
-        <f>CS!B12</f>
-        <v>0.152</v>
+      <c r="H56" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J56" s="7">
-        <f>H56 + CS!B5</f>
-        <v>3.5040000000000004</v>
-      </c>
-      <c r="K56" s="12">
-        <f>I56 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>4.149</v>
+      </c>
+      <c r="K56" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="12">
         <v>55</v>
       </c>
       <c r="B57" s="7">
         <v>15</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="E57" s="7">
         <v>5</v>
       </c>
       <c r="F57" s="7">
-        <f>(J57-H57)/2 + H57</f>
-        <v>3.2640000000000002</v>
+        <v>3.92</v>
       </c>
       <c r="G57" s="7">
-        <f>(K57-I57)/2 + I57</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H57" s="7">
-        <f>CS!B2 + CS!B3 * (E57 - 1) * CS!B4</f>
-        <v>3.1840000000000002</v>
+        <f t="shared" si="0"/>
+        <v>3.851</v>
       </c>
       <c r="I57" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J57" s="7">
-        <f>H57 + CS!B5</f>
-        <v>3.3440000000000003</v>
-      </c>
-      <c r="K57" s="12">
-        <f>I57 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="K57" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="12">
         <v>56</v>
       </c>
       <c r="B58" s="7">
         <v>16</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="E58" s="7">
         <v>5</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" ref="F58:F66" si="11">(J58-H58)/2 + H58</f>
-        <v>3.1040000000000001</v>
+        <v>3.72</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" ref="G58:G66" si="12">(K58-I58)/2 + I58</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H58" s="7">
-        <f>H57-CS!B5</f>
-        <v>3.024</v>
+        <f t="shared" si="0"/>
+        <v>3.6510000000000002</v>
       </c>
       <c r="I58" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J58" s="7">
-        <f>H58 + CS!B5</f>
-        <v>3.1840000000000002</v>
-      </c>
-      <c r="K58" s="12">
-        <f>I58 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>3.7890000000000001</v>
+      </c>
+      <c r="K58" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="12">
         <v>57</v>
       </c>
       <c r="B59" s="7">
         <v>17</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="E59" s="7">
         <v>5</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="11"/>
-        <v>2.944</v>
+        <v>3.58</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="12"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H59" s="7">
-        <f>H58 - CS!B5</f>
-        <v>2.8639999999999999</v>
+        <f t="shared" si="0"/>
+        <v>3.5110000000000001</v>
       </c>
       <c r="I59" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J59" s="7">
-        <f>H59 + CS!B5</f>
-        <v>3.024</v>
-      </c>
-      <c r="K59" s="12">
-        <f>I59 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>3.649</v>
+      </c>
+      <c r="K59" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="11">
+      <c r="A60" s="12">
         <v>58</v>
       </c>
       <c r="B60" s="7">
         <v>36</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E60" s="7">
         <v>5</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="11"/>
-        <v>3.2640000000000002</v>
+        <v>3.86</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="12"/>
         <v>0.24</v>
       </c>
       <c r="H60" s="7">
-        <f>H57</f>
-        <v>3.1840000000000002</v>
+        <f t="shared" si="0"/>
+        <v>3.7909999999999999</v>
       </c>
       <c r="I60" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J60" s="7">
-        <f>H60 + CS!B5</f>
-        <v>3.3440000000000003</v>
-      </c>
-      <c r="K60" s="12">
-        <f>I60 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>3.9289999999999998</v>
+      </c>
+      <c r="K60" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="12">
         <v>59</v>
       </c>
       <c r="B61" s="7">
         <v>37</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E61" s="7">
         <v>5</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="11"/>
-        <v>3.1040000000000001</v>
+        <v>3.72</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="12"/>
         <v>0.24</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" ref="H61:H62" si="13">H58</f>
-        <v>3.024</v>
+        <f t="shared" si="0"/>
+        <v>3.6510000000000002</v>
       </c>
       <c r="I61" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J61" s="7">
-        <f>H61 + CS!B5</f>
-        <v>3.1840000000000002</v>
-      </c>
-      <c r="K61" s="12">
-        <f>I61 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>3.7890000000000001</v>
+      </c>
+      <c r="K61" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="12">
         <v>60</v>
       </c>
       <c r="B62" s="7">
         <v>38</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E62" s="7">
         <v>5</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="11"/>
-        <v>2.944</v>
+        <v>3.58</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="12"/>
         <v>0.24</v>
       </c>
       <c r="H62" s="7">
-        <f t="shared" si="13"/>
-        <v>2.8639999999999999</v>
+        <f t="shared" si="0"/>
+        <v>3.5110000000000001</v>
       </c>
       <c r="I62" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J62" s="7">
-        <f>H62 + CS!B5</f>
-        <v>3.024</v>
-      </c>
-      <c r="K62" s="12">
-        <f>I62 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>3.649</v>
+      </c>
+      <c r="K62" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="A63" s="12">
         <v>61</v>
       </c>
       <c r="E63" s="7">
         <v>5</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K63" s="12"/>
+      <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+      <c r="A64" s="12">
         <v>62</v>
       </c>
       <c r="E64" s="7">
         <v>5</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K64" s="12"/>
+      <c r="K64" s="13"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+      <c r="A65" s="12">
         <v>63</v>
+      </c>
+      <c r="B65" s="7">
+        <v>92</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="E65" s="7">
         <v>5</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="12"/>
-    </row>
-    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
+        <v>0.432</v>
+      </c>
+      <c r="H65" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="I65" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J65" s="7">
+        <f t="shared" si="2"/>
+        <v>4.149</v>
+      </c>
+      <c r="K65" s="13">
+        <f t="shared" si="3"/>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="12">
         <v>64</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="7">
         <v>79</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E66" s="13">
+      <c r="C66" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="7">
         <v>5</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="11"/>
-        <v>3.4240000000000004</v>
+        <v>4.08</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="12"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H66" s="7">
-        <f>H56</f>
-        <v>3.3440000000000003</v>
+        <f t="shared" si="0"/>
+        <v>4.0110000000000001</v>
       </c>
       <c r="I66" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="J66" s="13">
-        <f>H66 + CS!B5</f>
-        <v>3.5040000000000004</v>
-      </c>
-      <c r="K66" s="14">
-        <f>I66 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J66" s="7">
+        <f t="shared" si="2"/>
+        <v>4.149</v>
+      </c>
+      <c r="K66" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+      <c r="A67" s="12">
         <v>65</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="7">
         <v>50</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="9">
+      <c r="C67" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="7">
         <v>6</v>
       </c>
-      <c r="F67" s="9">
-        <f>(J67-H67)/2 + H67</f>
-        <v>2.7040000000000006</v>
-      </c>
-      <c r="G67" s="9">
-        <f>(K67-I67)/2 + I67</f>
+      <c r="F67" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="G67" s="7">
         <v>0.24</v>
       </c>
-      <c r="H67" s="9">
-        <f>J68</f>
-        <v>2.6240000000000006</v>
-      </c>
-      <c r="I67" s="9">
-        <f>CS!B12</f>
-        <v>0.152</v>
+      <c r="H67" s="7">
+        <f t="shared" si="0"/>
+        <v>3.331</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J67" s="7">
-        <f>H67 + CS!B5</f>
-        <v>2.7840000000000007</v>
-      </c>
-      <c r="K67" s="12">
-        <f>I67 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>3.4689999999999999</v>
+      </c>
+      <c r="K67" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+      <c r="A68" s="12">
         <v>66</v>
       </c>
       <c r="B68" s="7">
         <v>18</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="E68" s="7">
         <v>6</v>
       </c>
       <c r="F68" s="7">
-        <f>(J68-H68)/2 + H68</f>
-        <v>2.5440000000000005</v>
+        <v>3.24</v>
       </c>
       <c r="G68" s="7">
-        <f>(K68-I68)/2 + I68</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H68" s="7">
-        <f>CS!B2 + CS!B3 * (E68 - 1) * CS!B4</f>
-        <v>2.4640000000000004</v>
+        <f t="shared" si="0"/>
+        <v>3.1710000000000003</v>
       </c>
       <c r="I68" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J68" s="7">
-        <f>H68 + CS!B5</f>
-        <v>2.6240000000000006</v>
-      </c>
-      <c r="K68" s="12">
-        <f>I68 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>3.3090000000000002</v>
+      </c>
+      <c r="K68" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="A69" s="12">
         <v>67</v>
       </c>
       <c r="B69" s="7">
         <v>19</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="E69" s="7">
         <v>6</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" ref="F69:F77" si="14">(J69-H69)/2 + H69</f>
-        <v>2.3840000000000003</v>
+        <v>3.08</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" ref="G69:G77" si="15">(K69-I69)/2 + I69</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H69" s="7">
-        <f>H68-CS!B5</f>
-        <v>2.3040000000000003</v>
+        <f t="shared" si="0"/>
+        <v>3.0110000000000001</v>
       </c>
       <c r="I69" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J69" s="7">
-        <f>H69 + CS!B5</f>
-        <v>2.4640000000000004</v>
-      </c>
-      <c r="K69" s="12">
-        <f>I69 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>3.149</v>
+      </c>
+      <c r="K69" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
+      <c r="A70" s="12">
         <v>68</v>
       </c>
       <c r="B70" s="7">
         <v>20</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="E70" s="7">
         <v>6</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="14"/>
-        <v>2.2240000000000002</v>
+        <v>2.92</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="15"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H70" s="7">
-        <f>H69 - CS!B5</f>
-        <v>2.1440000000000001</v>
+        <f t="shared" si="0"/>
+        <v>2.851</v>
       </c>
       <c r="I70" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J70" s="7">
-        <f>H70 + CS!B5</f>
-        <v>2.3040000000000003</v>
-      </c>
-      <c r="K70" s="12">
-        <f>I70 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="2"/>
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="K70" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+      <c r="A71" s="12">
         <v>69</v>
       </c>
       <c r="B71" s="7">
         <v>39</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E71" s="7">
         <v>6</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="14"/>
-        <v>2.5440000000000005</v>
+        <v>3.24</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="15"/>
         <v>0.24</v>
       </c>
       <c r="H71" s="7">
-        <f>H68</f>
-        <v>2.4640000000000004</v>
+        <f t="shared" si="0"/>
+        <v>3.1710000000000003</v>
       </c>
       <c r="I71" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J71" s="7">
-        <f>H71 + CS!B5</f>
-        <v>2.6240000000000006</v>
-      </c>
-      <c r="K71" s="12">
-        <f>I71 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>3.3090000000000002</v>
+      </c>
+      <c r="K71" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
+      <c r="A72" s="12">
         <v>70</v>
       </c>
       <c r="B72" s="7">
         <v>40</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E72" s="7">
         <v>6</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="14"/>
-        <v>2.3840000000000003</v>
+        <v>3.08</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="15"/>
         <v>0.24</v>
       </c>
       <c r="H72" s="7">
-        <f t="shared" ref="H72:H73" si="16">H69</f>
-        <v>2.3040000000000003</v>
+        <f t="shared" si="0"/>
+        <v>3.0110000000000001</v>
       </c>
       <c r="I72" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J72" s="7">
-        <f>H72 + CS!B5</f>
-        <v>2.4640000000000004</v>
-      </c>
-      <c r="K72" s="12">
-        <f>I72 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>3.149</v>
+      </c>
+      <c r="K72" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="11">
+      <c r="A73" s="12">
         <v>71</v>
       </c>
       <c r="B73" s="7">
         <v>41</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E73" s="7">
         <v>6</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="14"/>
-        <v>2.2240000000000002</v>
+        <v>2.92</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="15"/>
         <v>0.24</v>
       </c>
       <c r="H73" s="7">
-        <f t="shared" si="16"/>
-        <v>2.1440000000000001</v>
+        <f t="shared" si="0"/>
+        <v>2.851</v>
       </c>
       <c r="I73" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="1"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J73" s="7">
-        <f>H73 + CS!B5</f>
-        <v>2.3040000000000003</v>
-      </c>
-      <c r="K73" s="12">
-        <f>I73 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="2"/>
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="K73" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
+      <c r="A74" s="12">
         <v>72</v>
       </c>
       <c r="E74" s="7">
         <v>6</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K74" s="12"/>
+      <c r="K74" s="13"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
+      <c r="A75" s="12">
         <v>73</v>
       </c>
       <c r="E75" s="7">
         <v>6</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K75" s="12"/>
+      <c r="K75" s="13"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
+      <c r="A76" s="12">
         <v>74</v>
+      </c>
+      <c r="B76" s="7">
+        <v>97</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="E76" s="7">
         <v>6</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="12"/>
-    </row>
-    <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="H76" s="7">
+        <f>F76-0.069</f>
+        <v>3.331</v>
+      </c>
+      <c r="I76" s="7">
+        <f>G76 -0.07</f>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J76" s="7">
+        <f>F76 + 0.069</f>
+        <v>3.4689999999999999</v>
+      </c>
+      <c r="K76" s="13">
+        <f>G76+0.07</f>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="12">
         <v>75</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="7">
         <v>80</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" s="13">
+      <c r="C77" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="7">
         <v>6</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="14"/>
-        <v>2.7040000000000006</v>
+        <v>3.4</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="15"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H77" s="13">
-        <f>H67</f>
-        <v>2.6240000000000006</v>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H77" s="7">
+        <f t="shared" ref="H77:H121" si="4">F77-0.069</f>
+        <v>3.331</v>
       </c>
       <c r="I77" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="J77" s="13">
-        <f>H77 + CS!B5</f>
-        <v>2.7840000000000007</v>
-      </c>
-      <c r="K77" s="14">
-        <f>I77 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" ref="I77:I121" si="5">G77-0.07</f>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J77" s="7">
+        <f t="shared" ref="J77:J121" si="6">F77+0.069</f>
+        <v>3.4689999999999999</v>
+      </c>
+      <c r="K77" s="13">
+        <f t="shared" ref="K77:K121" si="7">G77+0.07</f>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
+      <c r="A78" s="12">
         <v>76</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="7">
         <v>51</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E78" s="9">
+      <c r="C78" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="7">
         <v>7</v>
       </c>
-      <c r="F78" s="9">
-        <f>(J78-H78)/2 + H78</f>
-        <v>1.9189999999999996</v>
-      </c>
-      <c r="G78" s="9">
-        <f>(K78-I78)/2 + I78</f>
+      <c r="F78" s="7">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="G78" s="7">
         <v>0.24</v>
       </c>
-      <c r="H78" s="9">
-        <f>J79</f>
-        <v>1.8389999999999997</v>
-      </c>
-      <c r="I78" s="9">
-        <f>CS!B12</f>
-        <v>0.152</v>
+      <c r="H78" s="7">
+        <f t="shared" si="4"/>
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="I78" s="7">
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J78" s="7">
-        <f>H78 + CS!B5</f>
-        <v>1.9989999999999997</v>
-      </c>
-      <c r="K78" s="12">
-        <f>I78 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>2.7689999999999997</v>
+      </c>
+      <c r="K78" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="11">
+      <c r="A79" s="12">
         <v>77</v>
       </c>
       <c r="B79" s="7">
         <v>21</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="E79" s="7">
         <v>7</v>
       </c>
       <c r="F79" s="7">
-        <f>(J79-H79)/2 + H79</f>
-        <v>1.7589999999999999</v>
+        <v>2.5399999999999996</v>
       </c>
       <c r="G79" s="7">
-        <f>(K79-I79)/2 + I79</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H79" s="7">
-        <f>CS!B2 + CS!B3 * (E79 - 1) * CS!B4 -0.065</f>
-        <v>1.6789999999999998</v>
+        <f t="shared" si="4"/>
+        <v>2.4709999999999996</v>
       </c>
       <c r="I79" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J79" s="7">
-        <f>H79 + CS!B5</f>
-        <v>1.8389999999999997</v>
-      </c>
-      <c r="K79" s="12">
-        <f>I79 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="6"/>
+        <v>2.6089999999999995</v>
+      </c>
+      <c r="K79" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
+      <c r="A80" s="12">
         <v>78</v>
       </c>
       <c r="B80" s="7">
         <v>22</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="E80" s="7">
         <v>7</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" ref="F80:F88" si="17">(J80-H80)/2 + H80</f>
-        <v>1.5989999999999998</v>
+        <v>2.3149999999999999</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" ref="G80:G88" si="18">(K80-I80)/2 + I80</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H80" s="7">
-        <f>H79-CS!B5</f>
-        <v>1.5189999999999999</v>
+        <f t="shared" si="4"/>
+        <v>2.246</v>
       </c>
       <c r="I80" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J80" s="7">
-        <f>H80 + CS!B5</f>
-        <v>1.6789999999999998</v>
-      </c>
-      <c r="K80" s="12">
-        <f>I80 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="6"/>
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="K80" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
+      <c r="A81" s="12">
         <v>79</v>
       </c>
       <c r="B81" s="7">
         <v>23</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="E81" s="7">
         <v>7</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="17"/>
-        <v>1.4390000000000001</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" si="18"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H81" s="7">
-        <f>H80 - CS!B5</f>
-        <v>1.359</v>
+        <f t="shared" si="4"/>
+        <v>2.0859999999999999</v>
       </c>
       <c r="I81" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J81" s="7">
-        <f>H81 + CS!B5</f>
-        <v>1.5189999999999999</v>
-      </c>
-      <c r="K81" s="12">
-        <f>I81 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="6"/>
+        <v>2.2239999999999998</v>
+      </c>
+      <c r="K81" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
+      <c r="A82" s="12">
         <v>80</v>
       </c>
       <c r="B82" s="7">
         <v>42</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="E82" s="7">
         <v>7</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="17"/>
-        <v>1.7589999999999999</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" si="18"/>
         <v>0.24</v>
       </c>
       <c r="H82" s="7">
-        <f>H79</f>
-        <v>1.6789999999999998</v>
+        <f t="shared" si="4"/>
+        <v>2.4060000000000001</v>
       </c>
       <c r="I82" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J82" s="7">
-        <f>H82 + CS!B5</f>
-        <v>1.8389999999999997</v>
-      </c>
-      <c r="K82" s="12">
-        <f>I82 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>2.544</v>
+      </c>
+      <c r="K82" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
+      <c r="A83" s="12">
         <v>81</v>
       </c>
       <c r="B83" s="7">
         <v>43</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="E83" s="7">
         <v>7</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="17"/>
-        <v>1.5989999999999998</v>
+        <v>2.3149999999999999</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" si="18"/>
         <v>0.24</v>
       </c>
       <c r="H83" s="7">
-        <f t="shared" ref="H83:H84" si="19">H80</f>
-        <v>1.5189999999999999</v>
+        <f t="shared" si="4"/>
+        <v>2.246</v>
       </c>
       <c r="I83" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J83" s="7">
-        <f>H83 + CS!B5</f>
-        <v>1.6789999999999998</v>
-      </c>
-      <c r="K83" s="12">
-        <f>I83 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="K83" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
+      <c r="A84" s="12">
         <v>82</v>
       </c>
       <c r="B84" s="7">
         <v>44</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="E84" s="7">
         <v>7</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="17"/>
-        <v>1.4390000000000001</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="18"/>
         <v>0.24</v>
       </c>
       <c r="H84" s="7">
-        <f t="shared" si="19"/>
-        <v>1.359</v>
+        <f t="shared" si="4"/>
+        <v>2.0859999999999999</v>
       </c>
       <c r="I84" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J84" s="7">
-        <f>H84 + CS!B5</f>
-        <v>1.5189999999999999</v>
-      </c>
-      <c r="K84" s="12">
-        <f>I84 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>2.2239999999999998</v>
+      </c>
+      <c r="K84" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="7">
+      <c r="A85" s="12">
         <v>83</v>
       </c>
       <c r="E85" s="7">
         <v>7</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K85" s="12"/>
+      <c r="K85" s="13"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="11">
+      <c r="A86" s="12">
         <v>84</v>
       </c>
       <c r="E86" s="7">
         <v>7</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K86" s="12"/>
+      <c r="K86" s="13"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
+      <c r="A87" s="12">
         <v>85</v>
+      </c>
+      <c r="B87" s="7">
+        <v>93</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E87" s="7">
         <v>7</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="12"/>
-    </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="H87" s="7">
+        <f t="shared" si="4"/>
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="I87" s="7">
+        <f t="shared" si="5"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J87" s="7">
+        <f t="shared" si="6"/>
+        <v>2.7689999999999997</v>
+      </c>
+      <c r="K87" s="13">
+        <f t="shared" si="7"/>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="12">
         <v>86</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="7">
         <v>81</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>171</v>
+      <c r="C88" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E88" s="13">
+        <v>156</v>
+      </c>
+      <c r="E88" s="7">
         <v>7</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="17"/>
-        <v>1.9189999999999996</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="18"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H88" s="13">
-        <f>H78</f>
-        <v>1.8389999999999997</v>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H88" s="7">
+        <f t="shared" si="4"/>
+        <v>2.6309999999999998</v>
       </c>
       <c r="I88" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="J88" s="13">
-        <f>H88 + CS!B5</f>
-        <v>1.9989999999999997</v>
-      </c>
-      <c r="K88" s="14">
-        <f>I88 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J88" s="7">
+        <f t="shared" si="6"/>
+        <v>2.7689999999999997</v>
+      </c>
+      <c r="K88" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
+      <c r="A89" s="12">
         <v>87</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="7">
         <v>58</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E89" s="9">
+      <c r="C89" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="7">
         <v>8</v>
       </c>
-      <c r="F89" s="9">
-        <f>(J89-H89)/2 + H89</f>
-        <v>1.1989999999999998</v>
-      </c>
-      <c r="G89" s="9">
-        <f>(K89-I89)/2 + I89</f>
+      <c r="F89" s="7">
+        <v>1.9749999999999996</v>
+      </c>
+      <c r="G89" s="7">
         <v>0.24</v>
       </c>
-      <c r="H89" s="9">
-        <f>J90</f>
-        <v>1.119</v>
-      </c>
-      <c r="I89" s="9">
-        <f>CS!B12</f>
-        <v>0.152</v>
+      <c r="H89" s="7">
+        <f t="shared" si="4"/>
+        <v>1.9059999999999997</v>
+      </c>
+      <c r="I89" s="7">
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J89" s="7">
-        <f>H89 + CS!B5</f>
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="K89" s="12">
-        <f>I89 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>2.0439999999999996</v>
+      </c>
+      <c r="K89" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
+      <c r="A90" s="12">
         <v>88</v>
       </c>
       <c r="B90" s="7">
         <v>52</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E90" s="7">
         <v>8</v>
       </c>
       <c r="F90" s="7">
-        <f>(J90-H90)/2 + H90</f>
-        <v>1.0390000000000001</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="G90" s="7">
-        <f>(K90-I90)/2 + I90</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H90" s="7">
-        <f>CS!B2 + CS!B3 * (E90 - 1) * CS!B4 -0.065</f>
-        <v>0.95900000000000007</v>
+        <f t="shared" si="4"/>
+        <v>1.746</v>
       </c>
       <c r="I90" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J90" s="7">
-        <f>H90 + CS!B5</f>
-        <v>1.119</v>
-      </c>
-      <c r="K90" s="12">
-        <f>I90 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="6"/>
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="K90" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
+      <c r="A91" s="12">
         <v>89</v>
       </c>
       <c r="B91" s="7">
         <v>53</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E91" s="7">
         <v>8</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" ref="F91:F99" si="20">(J91-H91)/2 + H91</f>
-        <v>0.879</v>
+        <v>1.6549999999999998</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" ref="G91:G99" si="21">(K91-I91)/2 + I91</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H91" s="7">
-        <f>H90-CS!B5</f>
-        <v>0.79900000000000004</v>
+        <f t="shared" si="4"/>
+        <v>1.5859999999999999</v>
       </c>
       <c r="I91" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J91" s="7">
-        <f>H91 + CS!B5</f>
-        <v>0.95900000000000007</v>
-      </c>
-      <c r="K91" s="12">
-        <f>I91 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="6"/>
+        <v>1.7239999999999998</v>
+      </c>
+      <c r="K91" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="11">
+      <c r="A92" s="12">
         <v>90</v>
       </c>
       <c r="B92" s="7">
         <v>54</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E92" s="7">
         <v>8</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" si="20"/>
-        <v>0.71900000000000008</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="21"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H92" s="7">
-        <f>H91 - CS!B5</f>
-        <v>0.63900000000000001</v>
+        <f t="shared" si="4"/>
+        <v>1.4260000000000002</v>
       </c>
       <c r="I92" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J92" s="7">
-        <f>H92 + CS!B5</f>
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="K92" s="12">
-        <f>I92 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="6"/>
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="K92" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
+      <c r="A93" s="12">
         <v>91</v>
       </c>
       <c r="B93" s="7">
         <v>55</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E93" s="7">
         <v>8</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" si="20"/>
-        <v>1.0390000000000001</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="21"/>
         <v>0.24</v>
       </c>
       <c r="H93" s="7">
-        <f>H90</f>
-        <v>0.95900000000000007</v>
+        <f t="shared" si="4"/>
+        <v>1.746</v>
       </c>
       <c r="I93" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J93" s="7">
-        <f>H93 + CS!B5</f>
-        <v>1.119</v>
-      </c>
-      <c r="K93" s="12">
-        <f>I93 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="K93" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="7">
+      <c r="A94" s="12">
         <v>92</v>
       </c>
       <c r="B94" s="7">
         <v>56</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E94" s="7">
         <v>8</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" si="20"/>
-        <v>0.879</v>
+        <v>1.6549999999999998</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="21"/>
         <v>0.24</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" ref="H94:H95" si="22">H91</f>
-        <v>0.79900000000000004</v>
+        <f t="shared" si="4"/>
+        <v>1.5859999999999999</v>
       </c>
       <c r="I94" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J94" s="7">
-        <f>H94 + CS!B5</f>
-        <v>0.95900000000000007</v>
-      </c>
-      <c r="K94" s="12">
-        <f>I94 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>1.7239999999999998</v>
+      </c>
+      <c r="K94" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
+      <c r="A95" s="12">
         <v>93</v>
       </c>
       <c r="B95" s="7">
         <v>57</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E95" s="7">
         <v>8</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" si="20"/>
-        <v>0.71900000000000008</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="21"/>
         <v>0.24</v>
       </c>
       <c r="H95" s="7">
-        <f t="shared" si="22"/>
-        <v>0.63900000000000001</v>
+        <f t="shared" si="4"/>
+        <v>1.4260000000000002</v>
       </c>
       <c r="I95" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J95" s="7">
-        <f>H95 + CS!B5</f>
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="K95" s="12">
-        <f>I95 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="K95" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="7">
+      <c r="A96" s="12">
         <v>94</v>
       </c>
       <c r="E96" s="7">
         <v>8</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K96" s="12"/>
+      <c r="K96" s="13"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
+      <c r="A97" s="12">
         <v>95</v>
       </c>
       <c r="E97" s="7">
         <v>8</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K97" s="12"/>
+      <c r="K97" s="13"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
+      <c r="A98" s="12">
+        <v>85</v>
+      </c>
+      <c r="B98" s="7">
         <v>96</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="E98" s="7">
         <v>8</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.9749999999999996</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="12"/>
-    </row>
-    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11">
+        <v>0.432</v>
+      </c>
+      <c r="H98" s="7">
+        <f t="shared" si="4"/>
+        <v>1.9059999999999997</v>
+      </c>
+      <c r="I98" s="7">
+        <f t="shared" si="5"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J98" s="7">
+        <f t="shared" si="6"/>
+        <v>2.0439999999999996</v>
+      </c>
+      <c r="K98" s="13">
+        <f t="shared" si="7"/>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="12">
         <v>97</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="7">
         <v>82</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E99" s="13">
+      <c r="C99" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E99" s="7">
         <v>8</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="20"/>
-        <v>1.1989999999999998</v>
+        <v>1.9749999999999996</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="21"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H99" s="13">
-        <f>H89</f>
-        <v>1.119</v>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H99" s="7">
+        <f t="shared" si="4"/>
+        <v>1.9059999999999997</v>
       </c>
       <c r="I99" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="J99" s="13">
-        <f>H99 + CS!B5</f>
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="K99" s="14">
-        <f>I99 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J99" s="7">
+        <f t="shared" si="6"/>
+        <v>2.0439999999999996</v>
+      </c>
+      <c r="K99" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
+      <c r="A100" s="12">
         <v>98</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="7">
         <v>74</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E100" s="9">
+      <c r="C100" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="7">
         <v>9</v>
       </c>
-      <c r="F100" s="9">
-        <f>(J100-H100)/2 + H100</f>
-        <v>0.55900000000000039</v>
-      </c>
-      <c r="G100" s="9">
-        <f>(K100-I100)/2 + I100</f>
+      <c r="F100" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="G100" s="7">
         <v>0.24</v>
       </c>
-      <c r="H100" s="9">
-        <f>J101+0.03</f>
-        <v>0.47900000000000031</v>
-      </c>
-      <c r="I100" s="9">
-        <f>CS!B12</f>
-        <v>0.152</v>
+      <c r="H100" s="7">
+        <f t="shared" si="4"/>
+        <v>1.151</v>
+      </c>
+      <c r="I100" s="7">
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J100" s="7">
-        <f>H100 + CS!B5</f>
-        <v>0.63900000000000035</v>
-      </c>
-      <c r="K100" s="12">
-        <f>I100 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="K100" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
+      <c r="A101" s="12">
         <v>99</v>
       </c>
       <c r="B101" s="7">
         <v>68</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E101" s="7">
         <v>9</v>
       </c>
       <c r="F101" s="7">
-        <f>(J101-H101)/2 + H101</f>
-        <v>0.36900000000000027</v>
+        <v>1.06</v>
       </c>
       <c r="G101" s="7">
-        <f>(K101-I101)/2 + I101</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H101" s="7">
-        <f>CS!B2 + CS!B3 * (E101 - 1) * CS!B4 -0.015</f>
-        <v>0.28900000000000026</v>
+        <f t="shared" si="4"/>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I101" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J101" s="7">
-        <f>H101 + CS!B5</f>
-        <v>0.44900000000000029</v>
-      </c>
-      <c r="K101" s="12">
-        <f>I101 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="6"/>
+        <v>1.129</v>
+      </c>
+      <c r="K101" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="7">
+      <c r="A102" s="12">
         <v>100</v>
       </c>
       <c r="B102" s="7">
         <v>69</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E102" s="7">
         <v>9</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" ref="F102:F110" si="23">(J102-H102)/2 + H102</f>
-        <v>0.20900000000000024</v>
+        <v>0.9</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" ref="G102:G110" si="24">(K102-I102)/2 + I102</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H102" s="7">
-        <f>H101-CS!B5</f>
-        <v>0.12900000000000025</v>
+        <f t="shared" si="4"/>
+        <v>0.83099999999999996</v>
       </c>
       <c r="I102" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J102" s="7">
-        <f>H102 + CS!B5</f>
-        <v>0.28900000000000026</v>
-      </c>
-      <c r="K102" s="12">
-        <f>I102 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="6"/>
+        <v>0.96900000000000008</v>
+      </c>
+      <c r="K102" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
+      <c r="A103" s="12">
         <v>101</v>
       </c>
       <c r="B103" s="7">
         <v>70</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E103" s="7">
         <v>9</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="23"/>
-        <v>4.9000000000000252E-2</v>
+        <v>0.74</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="24"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H103" s="7">
-        <f>H102 - CS!B5</f>
-        <v>-3.099999999999975E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.67100000000000004</v>
       </c>
       <c r="I103" s="7">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
       </c>
       <c r="J103" s="7">
-        <f>H103 + CS!B5</f>
-        <v>0.12900000000000025</v>
-      </c>
-      <c r="K103" s="12">
-        <f>I103 + CS!B6</f>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="6"/>
+        <v>0.80899999999999994</v>
+      </c>
+      <c r="K103" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
+      <c r="A104" s="12">
         <v>102</v>
       </c>
       <c r="B104" s="7">
         <v>71</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E104" s="7">
         <v>9</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="23"/>
-        <v>0.36900000000000027</v>
+        <v>1.06</v>
       </c>
       <c r="G104" s="7">
-        <f t="shared" si="24"/>
         <v>0.24</v>
       </c>
       <c r="H104" s="7">
-        <f>H101</f>
-        <v>0.28900000000000026</v>
+        <f t="shared" si="4"/>
+        <v>0.9910000000000001</v>
       </c>
       <c r="I104" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J104" s="7">
-        <f>H104 + CS!B5</f>
-        <v>0.44900000000000029</v>
-      </c>
-      <c r="K104" s="12">
-        <f>I104 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>1.129</v>
+      </c>
+      <c r="K104" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="11">
+      <c r="A105" s="12">
         <v>103</v>
       </c>
       <c r="B105" s="7">
         <v>72</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E105" s="7">
         <v>9</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" si="23"/>
-        <v>0.20900000000000024</v>
+        <v>0.9</v>
       </c>
       <c r="G105" s="7">
-        <f t="shared" si="24"/>
         <v>0.24</v>
       </c>
       <c r="H105" s="7">
-        <f t="shared" ref="H105:H106" si="25">H102</f>
-        <v>0.12900000000000025</v>
+        <f t="shared" si="4"/>
+        <v>0.83099999999999996</v>
       </c>
       <c r="I105" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J105" s="7">
-        <f>H105 + CS!B5</f>
-        <v>0.28900000000000026</v>
-      </c>
-      <c r="K105" s="12">
-        <f>I105 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>0.96900000000000008</v>
+      </c>
+      <c r="K105" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
+      <c r="A106" s="12">
         <v>104</v>
       </c>
       <c r="B106" s="7">
         <v>73</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E106" s="7">
         <v>9</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="23"/>
-        <v>4.9000000000000252E-2</v>
+        <v>0.74</v>
       </c>
       <c r="G106" s="7">
-        <f t="shared" si="24"/>
         <v>0.24</v>
       </c>
       <c r="H106" s="7">
-        <f t="shared" si="25"/>
-        <v>-3.099999999999975E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.67100000000000004</v>
       </c>
       <c r="I106" s="7">
-        <f>CS!B12</f>
-        <v>0.152</v>
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="J106" s="7">
-        <f>H106 + CS!B5</f>
-        <v>0.12900000000000025</v>
-      </c>
-      <c r="K106" s="12">
-        <f>I106 + CS!B6</f>
-        <v>0.32799999999999996</v>
+        <f t="shared" si="6"/>
+        <v>0.80899999999999994</v>
+      </c>
+      <c r="K106" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
+      <c r="A107" s="12">
         <v>105</v>
       </c>
       <c r="E107" s="7">
         <v>9</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G107" s="7">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K107" s="12"/>
+      <c r="K107" s="13"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
+      <c r="A108" s="12">
         <v>106</v>
       </c>
       <c r="E108" s="7">
         <v>9</v>
       </c>
       <c r="F108" s="7">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G108" s="7">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K108" s="12"/>
+      <c r="K108" s="13"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
+      <c r="A109" s="12">
         <v>107</v>
       </c>
       <c r="E109" s="7">
         <v>9</v>
       </c>
       <c r="F109" s="7">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K109" s="12"/>
-    </row>
-    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+      <c r="K109" s="13"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="12">
         <v>108</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="7">
         <v>83</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" s="7">
+        <v>9</v>
+      </c>
+      <c r="F110" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="G110" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H110" s="7">
+        <f t="shared" si="4"/>
+        <v>1.151</v>
+      </c>
+      <c r="I110" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J110" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="K110" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="12">
+        <v>109</v>
+      </c>
+      <c r="B111" s="7">
+        <v>90</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E111" s="7">
+        <v>10</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0.57400000000000029</v>
+      </c>
+      <c r="G111" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H111" s="7">
+        <f t="shared" si="4"/>
+        <v>0.50500000000000034</v>
+      </c>
+      <c r="I111" s="7">
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J111" s="7">
+        <f t="shared" si="6"/>
+        <v>0.64300000000000024</v>
+      </c>
+      <c r="K111" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="12">
+        <v>110</v>
+      </c>
+      <c r="B112" s="7">
+        <v>84</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112" s="7">
+        <v>10</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0.38400000000000029</v>
+      </c>
+      <c r="G112" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H112" s="7">
+        <f t="shared" si="4"/>
+        <v>0.31500000000000028</v>
+      </c>
+      <c r="I112" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J112" s="7">
+        <f t="shared" si="6"/>
+        <v>0.45300000000000029</v>
+      </c>
+      <c r="K112" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="12">
+        <v>111</v>
+      </c>
+      <c r="B113" s="7">
+        <v>85</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113" s="7">
+        <v>10</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0.22400000000000025</v>
+      </c>
+      <c r="G113" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H113" s="7">
+        <f t="shared" si="4"/>
+        <v>0.15500000000000025</v>
+      </c>
+      <c r="I113" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J113" s="7">
+        <f t="shared" si="6"/>
+        <v>0.29300000000000026</v>
+      </c>
+      <c r="K113" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="12">
+        <v>112</v>
+      </c>
+      <c r="B114" s="7">
+        <v>86</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E114" s="7">
+        <v>10</v>
+      </c>
+      <c r="F114" s="7">
+        <v>6.4000000000000265E-2</v>
+      </c>
+      <c r="G114" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H114" s="7">
+        <f t="shared" si="4"/>
+        <v>-4.9999999999997408E-3</v>
+      </c>
+      <c r="I114" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J114" s="7">
+        <f t="shared" si="6"/>
+        <v>0.13300000000000028</v>
+      </c>
+      <c r="K114" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="12">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7">
+        <v>87</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E115" s="7">
+        <v>10</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0.38400000000000029</v>
+      </c>
+      <c r="G115" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H115" s="7">
+        <f t="shared" si="4"/>
+        <v>0.31500000000000028</v>
+      </c>
+      <c r="I115" s="7">
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J115" s="7">
+        <f t="shared" si="6"/>
+        <v>0.45300000000000029</v>
+      </c>
+      <c r="K115" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="12">
+        <v>114</v>
+      </c>
+      <c r="B116" s="7">
+        <v>88</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="E116" s="7">
+        <v>10</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0.22400000000000025</v>
+      </c>
+      <c r="G116" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H116" s="7">
+        <f t="shared" si="4"/>
+        <v>0.15500000000000025</v>
+      </c>
+      <c r="I116" s="7">
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J116" s="7">
+        <f t="shared" si="6"/>
+        <v>0.29300000000000026</v>
+      </c>
+      <c r="K116" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="12">
+        <v>115</v>
+      </c>
+      <c r="B117" s="7">
+        <v>89</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" s="7">
+        <v>10</v>
+      </c>
+      <c r="F117" s="7">
+        <v>6.4000000000000265E-2</v>
+      </c>
+      <c r="G117" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="H117" s="7">
+        <f t="shared" si="4"/>
+        <v>-4.9999999999997408E-3</v>
+      </c>
+      <c r="I117" s="7">
+        <f t="shared" si="5"/>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J117" s="7">
+        <f t="shared" si="6"/>
+        <v>0.13300000000000028</v>
+      </c>
+      <c r="K117" s="13">
+        <f t="shared" si="7"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="12">
+        <v>116</v>
+      </c>
+      <c r="E118" s="7">
+        <v>10</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0</v>
+      </c>
+      <c r="G118" s="7">
+        <v>0</v>
+      </c>
+      <c r="K118" s="13"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="12">
+        <v>117</v>
+      </c>
+      <c r="E119" s="7">
+        <v>10</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0</v>
+      </c>
+      <c r="G119" s="7">
+        <v>0</v>
+      </c>
+      <c r="K119" s="13"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="12">
+        <v>118</v>
+      </c>
+      <c r="E120" s="7">
+        <v>10</v>
+      </c>
+      <c r="F120" s="7">
+        <v>0</v>
+      </c>
+      <c r="G120" s="7">
+        <v>0</v>
+      </c>
+      <c r="K120" s="13"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="12">
+        <v>119</v>
+      </c>
+      <c r="B121" s="7">
+        <v>91</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E110" s="13">
-        <v>9</v>
-      </c>
-      <c r="F110" s="13">
-        <f t="shared" si="23"/>
-        <v>0.55900000000000039</v>
-      </c>
-      <c r="G110" s="13">
-        <f t="shared" si="24"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H110" s="13">
-        <f>H100</f>
-        <v>0.47900000000000031</v>
-      </c>
-      <c r="I110" s="13">
-        <f>CS!B11</f>
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="J110" s="13">
-        <f>H110 + CS!B5</f>
-        <v>0.63900000000000035</v>
-      </c>
-      <c r="K110" s="14">
-        <f>I110 + CS!B6</f>
-        <v>0.13799999999999998</v>
-      </c>
+      <c r="E121" s="7">
+        <v>10</v>
+      </c>
+      <c r="F121" s="7">
+        <v>0.57400000000000029</v>
+      </c>
+      <c r="G121" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H121" s="7">
+        <f t="shared" si="4"/>
+        <v>0.50500000000000034</v>
+      </c>
+      <c r="I121" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000007E-2</v>
+      </c>
+      <c r="J121" s="7">
+        <f t="shared" si="6"/>
+        <v>0.64300000000000024</v>
+      </c>
+      <c r="K121" s="13">
+        <f t="shared" si="7"/>
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="14">
+        <v>120</v>
+      </c>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4988ACE3-0ED1-49BF-AFF7-0756B3155DDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5655,15 +6141,15 @@
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
-        <v>6.0640000000000001</v>
+        <v>6.7839999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4">
         <v>0.72</v>
@@ -5671,7 +6157,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B4" s="4">
         <v>-1</v>
@@ -5679,18 +6165,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B5" s="4">
-        <v>0.16</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B6" s="4">
-        <v>0.17599999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5711,7 +6197,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B11" s="4">
         <v>-3.7999999999999999E-2</v>
@@ -5719,7 +6205,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B12" s="4">
         <v>0.152</v>
@@ -5727,7 +6213,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B13" s="4">
         <v>0.34399999999999997</v>
